--- a/Regression/sprint_regression/NRG_regression/inbox_files/Regression_test_scenarios.xlsx
+++ b/Regression/sprint_regression/NRG_regression/inbox_files/Regression_test_scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMALYGIN\Downloads\Regression-master (5)\Regression-master\Regression\sprint_regression\NRG_regression\inbox_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5972B0B7-90D1-4469-B3DE-08440A0CF52B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA41141-3F2E-474A-9B89-8509D41353A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="5220" windowWidth="26505" windowHeight="10380" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
     <sheet name="Apple_July" sheetId="6" r:id="rId6"/>
+    <sheet name="August" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">_1!$A$1:$T$174</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5056" uniqueCount="1610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7379" uniqueCount="1815">
   <si>
     <t>ts</t>
   </si>
@@ -4868,6 +4869,621 @@
   </si>
   <si>
     <t>Oh</t>
+  </si>
+  <si>
+    <t>g1e9ff4301781160</t>
+  </si>
+  <si>
+    <t>36082AEB-A914</t>
+  </si>
+  <si>
+    <t>2BBF9D5C-2CAB</t>
+  </si>
+  <si>
+    <t>2AAFD762-0331</t>
+  </si>
+  <si>
+    <t>g0ffd239f79dd80f</t>
+  </si>
+  <si>
+    <t>2E210FC6-68A9</t>
+  </si>
+  <si>
+    <t>03A1900F-BBE3</t>
+  </si>
+  <si>
+    <t>03781125-A81B</t>
+  </si>
+  <si>
+    <t>g3cd496138f0f621</t>
+  </si>
+  <si>
+    <t>4914EB34-5035</t>
+  </si>
+  <si>
+    <t>6379C337-03E1</t>
+  </si>
+  <si>
+    <t>629DF55E-3023</t>
+  </si>
+  <si>
+    <t>gdceb1a8c5247ad8</t>
+  </si>
+  <si>
+    <t>4AB14574-29F2</t>
+  </si>
+  <si>
+    <t>7490FDEA-793E</t>
+  </si>
+  <si>
+    <t>72D65F4A-1EDD</t>
+  </si>
+  <si>
+    <t>g0d6d1a897f6ec88</t>
+  </si>
+  <si>
+    <t>g7cd1f8883ebc595</t>
+  </si>
+  <si>
+    <t>24B46FC8-E47E</t>
+  </si>
+  <si>
+    <t>1535DF70-C540</t>
+  </si>
+  <si>
+    <t>216E706E-28D2</t>
+  </si>
+  <si>
+    <t>2860A390-046E</t>
+  </si>
+  <si>
+    <t>232728E2-2D98</t>
+  </si>
+  <si>
+    <t>22990899-AEFC</t>
+  </si>
+  <si>
+    <t>gebdd7dff4761ce8</t>
+  </si>
+  <si>
+    <t>gc57e224f65021bb</t>
+  </si>
+  <si>
+    <t>gf79de3266c7667f</t>
+  </si>
+  <si>
+    <t>g867d794ac3be3f9</t>
+  </si>
+  <si>
+    <t>g3dc57ec1c47c98c</t>
+  </si>
+  <si>
+    <t>gcf654f16abda2a5</t>
+  </si>
+  <si>
+    <t>g725a8cf13741a55</t>
+  </si>
+  <si>
+    <t>g910141423ba0d25</t>
+  </si>
+  <si>
+    <t>g12317ae4dc85209</t>
+  </si>
+  <si>
+    <t>g470e111a6290b8c</t>
+  </si>
+  <si>
+    <t>gf4b5d90e8fb59b0</t>
+  </si>
+  <si>
+    <t>gb495d83c5209d56</t>
+  </si>
+  <si>
+    <t>5CB2ED17-F868</t>
+  </si>
+  <si>
+    <t>5A64B7C0-B5E3</t>
+  </si>
+  <si>
+    <t>5B8C76F9-F197</t>
+  </si>
+  <si>
+    <t>5D39F27F-2797</t>
+  </si>
+  <si>
+    <t>5C84BB49-2F26</t>
+  </si>
+  <si>
+    <t>5C11F873-F7D1</t>
+  </si>
+  <si>
+    <t>g779e9d2299d174f</t>
+  </si>
+  <si>
+    <t>g3002991f69c4e2e</t>
+  </si>
+  <si>
+    <t>g4ec4dfd3b2fa78b</t>
+  </si>
+  <si>
+    <t>g896787ef3838a7a</t>
+  </si>
+  <si>
+    <t>ga79faee162cbcd4</t>
+  </si>
+  <si>
+    <t>ge674f825c543ad9</t>
+  </si>
+  <si>
+    <t>ge05202a63da20b5</t>
+  </si>
+  <si>
+    <t>8622A87B-8511</t>
+  </si>
+  <si>
+    <t>7D48AF1E-1108</t>
+  </si>
+  <si>
+    <t>7D608D40-4E98</t>
+  </si>
+  <si>
+    <t>86B5D83F-B753</t>
+  </si>
+  <si>
+    <t>847C40E0-739A</t>
+  </si>
+  <si>
+    <t>80F30CA8-553B</t>
+  </si>
+  <si>
+    <t>g9518ce175cb9434</t>
+  </si>
+  <si>
+    <t>ge2b32f3a1ce03f8</t>
+  </si>
+  <si>
+    <t>g83f5c8f17af2f31</t>
+  </si>
+  <si>
+    <t>ged13ef311039f6a</t>
+  </si>
+  <si>
+    <t>g39927cc72b73d3d</t>
+  </si>
+  <si>
+    <t>ga67d9a992f20d9b</t>
+  </si>
+  <si>
+    <t>gb42eb729c033295</t>
+  </si>
+  <si>
+    <t>g0fe4868222712bc</t>
+  </si>
+  <si>
+    <t>g190059a535193b8</t>
+  </si>
+  <si>
+    <t>g2313c766b000781</t>
+  </si>
+  <si>
+    <t>geaa79f7847626ed</t>
+  </si>
+  <si>
+    <t>gc9ca9626155ca8c</t>
+  </si>
+  <si>
+    <t>gcec6dff18f17173</t>
+  </si>
+  <si>
+    <t>g473172eadaebcf4</t>
+  </si>
+  <si>
+    <t>g533d27412ad502e</t>
+  </si>
+  <si>
+    <t>g20310ae88d9f421</t>
+  </si>
+  <si>
+    <t>37B10EEE-F078</t>
+  </si>
+  <si>
+    <t>37F51E9E-9CBB</t>
+  </si>
+  <si>
+    <t>g971b69cb5a23e81</t>
+  </si>
+  <si>
+    <t>ge48770944f0461e</t>
+  </si>
+  <si>
+    <t>g74198ae1214790a</t>
+  </si>
+  <si>
+    <t>gf451858ed14c806</t>
+  </si>
+  <si>
+    <t>1A21FB8D-010F</t>
+  </si>
+  <si>
+    <t>1B35D3A0-8AF5</t>
+  </si>
+  <si>
+    <t>g0e22e29595cf30a</t>
+  </si>
+  <si>
+    <t>g3d8a367e1894fb0</t>
+  </si>
+  <si>
+    <t>gdc7e5f10a320528</t>
+  </si>
+  <si>
+    <t>g5fe61c32cd6f952</t>
+  </si>
+  <si>
+    <t>57C8542B-62A9</t>
+  </si>
+  <si>
+    <t>5979FC88-B631</t>
+  </si>
+  <si>
+    <t>g1709e12350216e1</t>
+  </si>
+  <si>
+    <t>g14e35e7c78ffbf8</t>
+  </si>
+  <si>
+    <t>g3cd178ee04209ba</t>
+  </si>
+  <si>
+    <t>g59a0e8dbba3e918</t>
+  </si>
+  <si>
+    <t>755D56BD-E11A</t>
+  </si>
+  <si>
+    <t>7C9C9EF1-4CD6</t>
+  </si>
+  <si>
+    <t>gcdcfff1ec5765a2</t>
+  </si>
+  <si>
+    <t>g34ac849b578aeb0</t>
+  </si>
+  <si>
+    <t>g579ebfc9c4cf598</t>
+  </si>
+  <si>
+    <t>gdc60c9314c0c467</t>
+  </si>
+  <si>
+    <t>376110C5-B2B6</t>
+  </si>
+  <si>
+    <t>377AEB40-7905</t>
+  </si>
+  <si>
+    <t>g4b29e320b3da894</t>
+  </si>
+  <si>
+    <t>gf0d966059012d7b</t>
+  </si>
+  <si>
+    <t>g4ababdb93495949</t>
+  </si>
+  <si>
+    <t>g93f3e822270a45c</t>
+  </si>
+  <si>
+    <t>18016F05-5101</t>
+  </si>
+  <si>
+    <t>18A5FD4E-57C8</t>
+  </si>
+  <si>
+    <t>g0fb0a295f39a964</t>
+  </si>
+  <si>
+    <t>g1d62070f1551e18</t>
+  </si>
+  <si>
+    <t>g883f4ea8032bb28</t>
+  </si>
+  <si>
+    <t>g3fb1b1c02cc9493</t>
+  </si>
+  <si>
+    <t>557F6E10-4240</t>
+  </si>
+  <si>
+    <t>55DBE8AE-97A0</t>
+  </si>
+  <si>
+    <t>g3fd42f05036e57c</t>
+  </si>
+  <si>
+    <t>g5b8d543dd7e8a60</t>
+  </si>
+  <si>
+    <t>g1b6efca61ac4e6a</t>
+  </si>
+  <si>
+    <t>g27a0bbceeab86c4</t>
+  </si>
+  <si>
+    <t>74DA1BCE-B132</t>
+  </si>
+  <si>
+    <t>75182FB7-CE39</t>
+  </si>
+  <si>
+    <t>gcbb7ad24e239b2e</t>
+  </si>
+  <si>
+    <t>g8a473b04c5f4f9f</t>
+  </si>
+  <si>
+    <t>ge12ff045ce17f39</t>
+  </si>
+  <si>
+    <t>g870d3a02875e6b2</t>
+  </si>
+  <si>
+    <t>g89bd5172b42b3af</t>
+  </si>
+  <si>
+    <t>g80d857b8040247c</t>
+  </si>
+  <si>
+    <t>452E1E6B-BAEE</t>
+  </si>
+  <si>
+    <t>4375F5C9-F1F1</t>
+  </si>
+  <si>
+    <t>447FD118-0A2A</t>
+  </si>
+  <si>
+    <t>g7dea804654ad767</t>
+  </si>
+  <si>
+    <t>gceb1ee4c99744be</t>
+  </si>
+  <si>
+    <t>g573492f561a9864</t>
+  </si>
+  <si>
+    <t>g1516e765133bacf</t>
+  </si>
+  <si>
+    <t>gd18b1e29440fdbb</t>
+  </si>
+  <si>
+    <t>gf38bdb3dbad169d</t>
+  </si>
+  <si>
+    <t>1FA5D691-7676</t>
+  </si>
+  <si>
+    <t>1B618A46-524D</t>
+  </si>
+  <si>
+    <t>1CC20116-A318</t>
+  </si>
+  <si>
+    <t>g9921c4c3fdb335a</t>
+  </si>
+  <si>
+    <t>ga589eeed91867ce</t>
+  </si>
+  <si>
+    <t>g04f440182c9df03</t>
+  </si>
+  <si>
+    <t>ge58ea6d68e903c0</t>
+  </si>
+  <si>
+    <t>gf7f84fe9dd3dd21</t>
+  </si>
+  <si>
+    <t>gf3c39dffedb5971</t>
+  </si>
+  <si>
+    <t>61FDB556-2F8B</t>
+  </si>
+  <si>
+    <t>5E32CF3B-25F8</t>
+  </si>
+  <si>
+    <t>5FF904B4-18B4</t>
+  </si>
+  <si>
+    <t>ge1992633ecf1821</t>
+  </si>
+  <si>
+    <t>gf307d215ba987fb</t>
+  </si>
+  <si>
+    <t>ge14d695ebfc2010</t>
+  </si>
+  <si>
+    <t>gc32c767e4dcc33a</t>
+  </si>
+  <si>
+    <t>g84894b8ff030eaf</t>
+  </si>
+  <si>
+    <t>gf3762f385df03d0</t>
+  </si>
+  <si>
+    <t>8A753D9B-4625</t>
+  </si>
+  <si>
+    <t>878AE0CF-7828</t>
+  </si>
+  <si>
+    <t>896E0EF7-170E</t>
+  </si>
+  <si>
+    <t>$75 Check/3% Cash Back - August 2020 DM</t>
+  </si>
+  <si>
+    <t>$25 Check/3% Cash Back - August 2020 DM</t>
+  </si>
+  <si>
+    <t>$50 Check/3% Cash Back - August 2020 DM</t>
+  </si>
+  <si>
+    <t>10,000 bonus/ 2 points per $1 - August 2020 DM</t>
+  </si>
+  <si>
+    <t>2,500 bonus/ 2 points per $1 - August 2020 DM</t>
+  </si>
+  <si>
+    <t>12,500 bonus/ 3 points per $1  (Premier) - August 2020 DM</t>
+  </si>
+  <si>
+    <t>2,500 bonus/ 3 points per $1  (Premier) - August 2020 DM</t>
+  </si>
+  <si>
+    <t>10,000 bonus/ 2 points per $1  - August 2020 DM</t>
+  </si>
+  <si>
+    <t>0820dm_winback_75_bonus</t>
+  </si>
+  <si>
+    <t>0820dm_winback_25_bonus_gas</t>
+  </si>
+  <si>
+    <t>0820dm_brand_50_bonus</t>
+  </si>
+  <si>
+    <t>0820dm_brand_25_bonus_gas</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>ComEd</t>
+  </si>
+  <si>
+    <t>Nicor</t>
+  </si>
+  <si>
+    <t>PeopGas</t>
+  </si>
+  <si>
+    <t>PPL</t>
+  </si>
+  <si>
+    <t>WPP</t>
+  </si>
+  <si>
+    <t>peco_gas</t>
+  </si>
+  <si>
+    <t>DUQ</t>
+  </si>
+  <si>
+    <t>METED</t>
+  </si>
+  <si>
+    <t>Peco</t>
+  </si>
+  <si>
+    <t>Penelec</t>
+  </si>
+  <si>
+    <t>PENN</t>
+  </si>
+  <si>
+    <t>MECO</t>
+  </si>
+  <si>
+    <t>camb</t>
+  </si>
+  <si>
+    <t>WMECo</t>
+  </si>
+  <si>
+    <t>ACE</t>
+  </si>
+  <si>
+    <t>JCPL</t>
+  </si>
+  <si>
+    <t>PSEG</t>
+  </si>
+  <si>
+    <t>SJERSEY</t>
+  </si>
+  <si>
+    <t>BGE</t>
+  </si>
+  <si>
+    <t>Delmarva</t>
+  </si>
+  <si>
+    <t>Pepco</t>
+  </si>
+  <si>
+    <t>APMD</t>
+  </si>
+  <si>
+    <t>DPL</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>AEPS</t>
+  </si>
+  <si>
+    <t>ts_177</t>
+  </si>
+  <si>
+    <t>ts_178</t>
+  </si>
+  <si>
+    <t>ts_179</t>
+  </si>
+  <si>
+    <t>ts_180</t>
+  </si>
+  <si>
+    <t>ts_181</t>
+  </si>
+  <si>
+    <t>ts_182</t>
+  </si>
+  <si>
+    <t>ts_183</t>
+  </si>
+  <si>
+    <t>ts_184</t>
+  </si>
+  <si>
+    <t>ts_185</t>
+  </si>
+  <si>
+    <t>ts_186</t>
+  </si>
+  <si>
+    <t>ts_187</t>
+  </si>
+  <si>
+    <t>ts_188</t>
+  </si>
+  <si>
+    <t>ts_189</t>
+  </si>
+  <si>
+    <t>ts_190</t>
+  </si>
+  <si>
+    <t>ts_191</t>
+  </si>
+  <si>
+    <t>ts_192</t>
   </si>
 </sst>
 </file>
@@ -22005,8 +22621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FACB16E-DFE5-4CED-B059-4F78730EA5AC}">
   <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22348,4 +22964,8722 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443A835E-F1F0-4776-BDA6-D04A58D518EA}">
+  <dimension ref="A1:S193"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="K102" sqref="K102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>1586</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>1761</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>1774</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>1761</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>1770</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>1775</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>1770</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>1776</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>1774</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>1775</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>1776</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>1774</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>1775</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>1776</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>1774</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>1775</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>1776</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>1774</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>1767</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>1775</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>1767</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>1776</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>1777</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>1778</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>1779</v>
+      </c>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>1780</v>
+      </c>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>1781</v>
+      </c>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>1782</v>
+      </c>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>1783</v>
+      </c>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>1784</v>
+      </c>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>1777</v>
+      </c>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>1778</v>
+      </c>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>1779</v>
+      </c>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>1780</v>
+      </c>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>1781</v>
+      </c>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>1782</v>
+      </c>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>1783</v>
+      </c>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>1784</v>
+      </c>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>1777</v>
+      </c>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>1778</v>
+      </c>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>1779</v>
+      </c>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>1780</v>
+      </c>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>1781</v>
+      </c>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>1782</v>
+      </c>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>1783</v>
+      </c>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>1784</v>
+      </c>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>1777</v>
+      </c>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>1778</v>
+      </c>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>1767</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>1767</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>1767</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>1767</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>1767</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>1779</v>
+      </c>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>1767</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>1761</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>1785</v>
+      </c>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>1761</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>1786</v>
+      </c>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
+      <c r="S70" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>1761</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>1787</v>
+      </c>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>1785</v>
+      </c>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>1786</v>
+      </c>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>1787</v>
+      </c>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>1785</v>
+      </c>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>1786</v>
+      </c>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7"/>
+      <c r="R76" s="7"/>
+      <c r="S76" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>1787</v>
+      </c>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7"/>
+      <c r="S77" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>1785</v>
+      </c>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7"/>
+      <c r="R78" s="7"/>
+      <c r="S78" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>1786</v>
+      </c>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>1787</v>
+      </c>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>1785</v>
+      </c>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>1786</v>
+      </c>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>1787</v>
+      </c>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>1761</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J84" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>1788</v>
+      </c>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>1761</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>1789</v>
+      </c>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>1761</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>1790</v>
+      </c>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>1761</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>1770</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>1770</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7"/>
+      <c r="S89" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>1770</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>1791</v>
+      </c>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="7"/>
+      <c r="R90" s="7"/>
+      <c r="S90" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>1788</v>
+      </c>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
+      <c r="O91" s="7"/>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7"/>
+      <c r="R91" s="7"/>
+      <c r="S91" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>1789</v>
+      </c>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="7"/>
+      <c r="S92" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>1790</v>
+      </c>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7"/>
+      <c r="S93" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J94" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K94" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="7"/>
+      <c r="R94" s="7"/>
+      <c r="S94" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="7"/>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7"/>
+      <c r="S95" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K96" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="7"/>
+      <c r="Q96" s="7"/>
+      <c r="R96" s="7"/>
+      <c r="S96" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>1791</v>
+      </c>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7"/>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7"/>
+      <c r="S97" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>1788</v>
+      </c>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="7"/>
+      <c r="Q98" s="7"/>
+      <c r="R98" s="7"/>
+      <c r="S98" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>1789</v>
+      </c>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="7"/>
+      <c r="O99" s="7"/>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="7"/>
+      <c r="R99" s="7"/>
+      <c r="S99" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J100" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K100" s="7" t="s">
+        <v>1790</v>
+      </c>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7"/>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="7"/>
+      <c r="R100" s="7"/>
+      <c r="S100" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J101" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="L101" s="7"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="7"/>
+      <c r="O101" s="7"/>
+      <c r="P101" s="7"/>
+      <c r="Q101" s="7"/>
+      <c r="R101" s="7"/>
+      <c r="S101" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J102" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K102" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="7"/>
+      <c r="P102" s="7"/>
+      <c r="Q102" s="7"/>
+      <c r="R102" s="7"/>
+      <c r="S102" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K103" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7"/>
+      <c r="O103" s="7"/>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="7"/>
+      <c r="R103" s="7"/>
+      <c r="S103" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J104" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K104" s="7" t="s">
+        <v>1791</v>
+      </c>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
+      <c r="N104" s="7"/>
+      <c r="O104" s="7"/>
+      <c r="P104" s="7"/>
+      <c r="Q104" s="7"/>
+      <c r="R104" s="7"/>
+      <c r="S104" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J105" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K105" s="7" t="s">
+        <v>1788</v>
+      </c>
+      <c r="L105" s="7"/>
+      <c r="M105" s="7"/>
+      <c r="N105" s="7"/>
+      <c r="O105" s="7"/>
+      <c r="P105" s="7"/>
+      <c r="Q105" s="7"/>
+      <c r="R105" s="7"/>
+      <c r="S105" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J106" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K106" s="7" t="s">
+        <v>1789</v>
+      </c>
+      <c r="L106" s="7"/>
+      <c r="M106" s="7"/>
+      <c r="N106" s="7"/>
+      <c r="O106" s="7"/>
+      <c r="P106" s="7"/>
+      <c r="Q106" s="7"/>
+      <c r="R106" s="7"/>
+      <c r="S106" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J107" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K107" s="7" t="s">
+        <v>1790</v>
+      </c>
+      <c r="L107" s="7"/>
+      <c r="M107" s="7"/>
+      <c r="N107" s="7"/>
+      <c r="O107" s="7"/>
+      <c r="P107" s="7"/>
+      <c r="Q107" s="7"/>
+      <c r="R107" s="7"/>
+      <c r="S107" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I108" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J108" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K108" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="L108" s="7"/>
+      <c r="M108" s="7"/>
+      <c r="N108" s="7"/>
+      <c r="O108" s="7"/>
+      <c r="P108" s="7"/>
+      <c r="Q108" s="7"/>
+      <c r="R108" s="7"/>
+      <c r="S108" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J109" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K109" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="L109" s="7"/>
+      <c r="M109" s="7"/>
+      <c r="N109" s="7"/>
+      <c r="O109" s="7"/>
+      <c r="P109" s="7"/>
+      <c r="Q109" s="7"/>
+      <c r="R109" s="7"/>
+      <c r="S109" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="I110" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J110" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K110" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="L110" s="7"/>
+      <c r="M110" s="7"/>
+      <c r="N110" s="7"/>
+      <c r="O110" s="7"/>
+      <c r="P110" s="7"/>
+      <c r="Q110" s="7"/>
+      <c r="R110" s="7"/>
+      <c r="S110" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J111" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K111" s="7" t="s">
+        <v>1791</v>
+      </c>
+      <c r="L111" s="7"/>
+      <c r="M111" s="7"/>
+      <c r="N111" s="7"/>
+      <c r="O111" s="7"/>
+      <c r="P111" s="7"/>
+      <c r="Q111" s="7"/>
+      <c r="R111" s="7"/>
+      <c r="S111" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="I112" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J112" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K112" s="7" t="s">
+        <v>1788</v>
+      </c>
+      <c r="L112" s="7"/>
+      <c r="M112" s="7"/>
+      <c r="N112" s="7"/>
+      <c r="O112" s="7"/>
+      <c r="P112" s="7"/>
+      <c r="Q112" s="7"/>
+      <c r="R112" s="7"/>
+      <c r="S112" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="I113" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J113" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K113" s="7" t="s">
+        <v>1789</v>
+      </c>
+      <c r="L113" s="7"/>
+      <c r="M113" s="7"/>
+      <c r="N113" s="7"/>
+      <c r="O113" s="7"/>
+      <c r="P113" s="7"/>
+      <c r="Q113" s="7"/>
+      <c r="R113" s="7"/>
+      <c r="S113" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="I114" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J114" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K114" s="7" t="s">
+        <v>1790</v>
+      </c>
+      <c r="L114" s="7"/>
+      <c r="M114" s="7"/>
+      <c r="N114" s="7"/>
+      <c r="O114" s="7"/>
+      <c r="P114" s="7"/>
+      <c r="Q114" s="7"/>
+      <c r="R114" s="7"/>
+      <c r="S114" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J115" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K115" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="L115" s="7"/>
+      <c r="M115" s="7"/>
+      <c r="N115" s="7"/>
+      <c r="O115" s="7"/>
+      <c r="P115" s="7"/>
+      <c r="Q115" s="7"/>
+      <c r="R115" s="7"/>
+      <c r="S115" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>1767</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J116" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K116" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="L116" s="7"/>
+      <c r="M116" s="7"/>
+      <c r="N116" s="7"/>
+      <c r="O116" s="7"/>
+      <c r="P116" s="7"/>
+      <c r="Q116" s="7"/>
+      <c r="R116" s="7"/>
+      <c r="S116" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>1767</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J117" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K117" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="L117" s="7"/>
+      <c r="M117" s="7"/>
+      <c r="N117" s="7"/>
+      <c r="O117" s="7"/>
+      <c r="P117" s="7"/>
+      <c r="Q117" s="7"/>
+      <c r="R117" s="7"/>
+      <c r="S117" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>1767</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I118" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J118" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K118" s="7" t="s">
+        <v>1791</v>
+      </c>
+      <c r="L118" s="7"/>
+      <c r="M118" s="7"/>
+      <c r="N118" s="7"/>
+      <c r="O118" s="7"/>
+      <c r="P118" s="7"/>
+      <c r="Q118" s="7"/>
+      <c r="R118" s="7"/>
+      <c r="S118" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>1761</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J119" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K119" s="7" t="s">
+        <v>1792</v>
+      </c>
+      <c r="L119" s="7"/>
+      <c r="M119" s="7"/>
+      <c r="N119" s="7"/>
+      <c r="O119" s="7"/>
+      <c r="P119" s="7"/>
+      <c r="Q119" s="7"/>
+      <c r="R119" s="7"/>
+      <c r="S119" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>1761</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J120" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K120" s="7" t="s">
+        <v>1793</v>
+      </c>
+      <c r="L120" s="7"/>
+      <c r="M120" s="7"/>
+      <c r="N120" s="7"/>
+      <c r="O120" s="7"/>
+      <c r="P120" s="7"/>
+      <c r="Q120" s="7"/>
+      <c r="R120" s="7"/>
+      <c r="S120" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>1761</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J121" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K121" s="7" t="s">
+        <v>1794</v>
+      </c>
+      <c r="L121" s="7"/>
+      <c r="M121" s="7"/>
+      <c r="N121" s="7"/>
+      <c r="O121" s="7"/>
+      <c r="P121" s="7"/>
+      <c r="Q121" s="7"/>
+      <c r="R121" s="7"/>
+      <c r="S121" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>1761</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I122" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J122" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K122" s="7" t="s">
+        <v>1795</v>
+      </c>
+      <c r="L122" s="7"/>
+      <c r="M122" s="7"/>
+      <c r="N122" s="7"/>
+      <c r="O122" s="7"/>
+      <c r="P122" s="7"/>
+      <c r="Q122" s="7"/>
+      <c r="R122" s="7"/>
+      <c r="S122" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>1770</v>
+      </c>
+      <c r="I123" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J123" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K123" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="L123" s="7"/>
+      <c r="M123" s="7"/>
+      <c r="N123" s="7"/>
+      <c r="O123" s="7"/>
+      <c r="P123" s="7"/>
+      <c r="Q123" s="7"/>
+      <c r="R123" s="7"/>
+      <c r="S123" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A124" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>1770</v>
+      </c>
+      <c r="I124" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J124" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K124" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="L124" s="7"/>
+      <c r="M124" s="7"/>
+      <c r="N124" s="7"/>
+      <c r="O124" s="7"/>
+      <c r="P124" s="7"/>
+      <c r="Q124" s="7"/>
+      <c r="R124" s="7"/>
+      <c r="S124" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A125" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J125" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K125" s="7" t="s">
+        <v>1792</v>
+      </c>
+      <c r="L125" s="7"/>
+      <c r="M125" s="7"/>
+      <c r="N125" s="7"/>
+      <c r="O125" s="7"/>
+      <c r="P125" s="7"/>
+      <c r="Q125" s="7"/>
+      <c r="R125" s="7"/>
+      <c r="S125" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A126" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I126" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J126" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K126" s="7" t="s">
+        <v>1793</v>
+      </c>
+      <c r="L126" s="7"/>
+      <c r="M126" s="7"/>
+      <c r="N126" s="7"/>
+      <c r="O126" s="7"/>
+      <c r="P126" s="7"/>
+      <c r="Q126" s="7"/>
+      <c r="R126" s="7"/>
+      <c r="S126" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A127" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J127" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K127" s="7" t="s">
+        <v>1794</v>
+      </c>
+      <c r="L127" s="7"/>
+      <c r="M127" s="7"/>
+      <c r="N127" s="7"/>
+      <c r="O127" s="7"/>
+      <c r="P127" s="7"/>
+      <c r="Q127" s="7"/>
+      <c r="R127" s="7"/>
+      <c r="S127" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A128" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I128" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J128" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K128" s="7" t="s">
+        <v>1795</v>
+      </c>
+      <c r="L128" s="7"/>
+      <c r="M128" s="7"/>
+      <c r="N128" s="7"/>
+      <c r="O128" s="7"/>
+      <c r="P128" s="7"/>
+      <c r="Q128" s="7"/>
+      <c r="R128" s="7"/>
+      <c r="S128" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A129" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I129" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J129" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K129" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="L129" s="7"/>
+      <c r="M129" s="7"/>
+      <c r="N129" s="7"/>
+      <c r="O129" s="7"/>
+      <c r="P129" s="7"/>
+      <c r="Q129" s="7"/>
+      <c r="R129" s="7"/>
+      <c r="S129" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A130" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J130" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K130" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="L130" s="7"/>
+      <c r="M130" s="7"/>
+      <c r="N130" s="7"/>
+      <c r="O130" s="7"/>
+      <c r="P130" s="7"/>
+      <c r="Q130" s="7"/>
+      <c r="R130" s="7"/>
+      <c r="S130" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A131" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I131" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J131" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K131" s="7" t="s">
+        <v>1792</v>
+      </c>
+      <c r="L131" s="7"/>
+      <c r="M131" s="7"/>
+      <c r="N131" s="7"/>
+      <c r="O131" s="7"/>
+      <c r="P131" s="7"/>
+      <c r="Q131" s="7"/>
+      <c r="R131" s="7"/>
+      <c r="S131" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A132" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I132" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J132" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K132" s="7" t="s">
+        <v>1793</v>
+      </c>
+      <c r="L132" s="7"/>
+      <c r="M132" s="7"/>
+      <c r="N132" s="7"/>
+      <c r="O132" s="7"/>
+      <c r="P132" s="7"/>
+      <c r="Q132" s="7"/>
+      <c r="R132" s="7"/>
+      <c r="S132" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A133" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I133" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J133" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K133" s="7" t="s">
+        <v>1794</v>
+      </c>
+      <c r="L133" s="7"/>
+      <c r="M133" s="7"/>
+      <c r="N133" s="7"/>
+      <c r="O133" s="7"/>
+      <c r="P133" s="7"/>
+      <c r="Q133" s="7"/>
+      <c r="R133" s="7"/>
+      <c r="S133" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A134" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G134" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H134" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I134" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J134" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K134" s="7" t="s">
+        <v>1795</v>
+      </c>
+      <c r="L134" s="7"/>
+      <c r="M134" s="7"/>
+      <c r="N134" s="7"/>
+      <c r="O134" s="7"/>
+      <c r="P134" s="7"/>
+      <c r="Q134" s="7"/>
+      <c r="R134" s="7"/>
+      <c r="S134" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A135" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I135" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J135" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K135" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="L135" s="7"/>
+      <c r="M135" s="7"/>
+      <c r="N135" s="7"/>
+      <c r="O135" s="7"/>
+      <c r="P135" s="7"/>
+      <c r="Q135" s="7"/>
+      <c r="R135" s="7"/>
+      <c r="S135" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A136" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G136" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I136" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J136" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K136" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="L136" s="7"/>
+      <c r="M136" s="7"/>
+      <c r="N136" s="7"/>
+      <c r="O136" s="7"/>
+      <c r="P136" s="7"/>
+      <c r="Q136" s="7"/>
+      <c r="R136" s="7"/>
+      <c r="S136" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A137" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I137" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J137" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K137" s="7" t="s">
+        <v>1792</v>
+      </c>
+      <c r="L137" s="7"/>
+      <c r="M137" s="7"/>
+      <c r="N137" s="7"/>
+      <c r="O137" s="7"/>
+      <c r="P137" s="7"/>
+      <c r="Q137" s="7"/>
+      <c r="R137" s="7"/>
+      <c r="S137" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A138" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G138" s="7" t="s">
+        <v>1768</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I138" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J138" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K138" s="7" t="s">
+        <v>1793</v>
+      </c>
+      <c r="L138" s="7"/>
+      <c r="M138" s="7"/>
+      <c r="N138" s="7"/>
+      <c r="O138" s="7"/>
+      <c r="P138" s="7"/>
+      <c r="Q138" s="7"/>
+      <c r="R138" s="7"/>
+      <c r="S138" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A139" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G139" s="7" t="s">
+        <v>1768</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I139" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J139" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K139" s="7" t="s">
+        <v>1794</v>
+      </c>
+      <c r="L139" s="7"/>
+      <c r="M139" s="7"/>
+      <c r="N139" s="7"/>
+      <c r="O139" s="7"/>
+      <c r="P139" s="7"/>
+      <c r="Q139" s="7"/>
+      <c r="R139" s="7"/>
+      <c r="S139" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A140" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F140" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G140" s="7" t="s">
+        <v>1768</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I140" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J140" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K140" s="7" t="s">
+        <v>1795</v>
+      </c>
+      <c r="L140" s="7"/>
+      <c r="M140" s="7"/>
+      <c r="N140" s="7"/>
+      <c r="O140" s="7"/>
+      <c r="P140" s="7"/>
+      <c r="Q140" s="7"/>
+      <c r="R140" s="7"/>
+      <c r="S140" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A141" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G141" s="7" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="I141" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J141" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K141" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="L141" s="7"/>
+      <c r="M141" s="7"/>
+      <c r="N141" s="7"/>
+      <c r="O141" s="7"/>
+      <c r="P141" s="7"/>
+      <c r="Q141" s="7"/>
+      <c r="R141" s="7"/>
+      <c r="S141" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A142" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F142" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G142" s="7" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="I142" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J142" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K142" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="L142" s="7"/>
+      <c r="M142" s="7"/>
+      <c r="N142" s="7"/>
+      <c r="O142" s="7"/>
+      <c r="P142" s="7"/>
+      <c r="Q142" s="7"/>
+      <c r="R142" s="7"/>
+      <c r="S142" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A143" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G143" s="7" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="I143" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J143" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K143" s="7" t="s">
+        <v>1792</v>
+      </c>
+      <c r="L143" s="7"/>
+      <c r="M143" s="7"/>
+      <c r="N143" s="7"/>
+      <c r="O143" s="7"/>
+      <c r="P143" s="7"/>
+      <c r="Q143" s="7"/>
+      <c r="R143" s="7"/>
+      <c r="S143" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A144" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F144" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="I144" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J144" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K144" s="7" t="s">
+        <v>1793</v>
+      </c>
+      <c r="L144" s="7"/>
+      <c r="M144" s="7"/>
+      <c r="N144" s="7"/>
+      <c r="O144" s="7"/>
+      <c r="P144" s="7"/>
+      <c r="Q144" s="7"/>
+      <c r="R144" s="7"/>
+      <c r="S144" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A145" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G145" s="7" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H145" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="I145" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J145" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K145" s="7" t="s">
+        <v>1794</v>
+      </c>
+      <c r="L145" s="7"/>
+      <c r="M145" s="7"/>
+      <c r="N145" s="7"/>
+      <c r="O145" s="7"/>
+      <c r="P145" s="7"/>
+      <c r="Q145" s="7"/>
+      <c r="R145" s="7"/>
+      <c r="S145" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A146" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G146" s="7" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H146" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="I146" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J146" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K146" s="7" t="s">
+        <v>1795</v>
+      </c>
+      <c r="L146" s="7"/>
+      <c r="M146" s="7"/>
+      <c r="N146" s="7"/>
+      <c r="O146" s="7"/>
+      <c r="P146" s="7"/>
+      <c r="Q146" s="7"/>
+      <c r="R146" s="7"/>
+      <c r="S146" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A147" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G147" s="7" t="s">
+        <v>1767</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I147" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J147" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K147" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="L147" s="7"/>
+      <c r="M147" s="7"/>
+      <c r="N147" s="7"/>
+      <c r="O147" s="7"/>
+      <c r="P147" s="7"/>
+      <c r="Q147" s="7"/>
+      <c r="R147" s="7"/>
+      <c r="S147" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A148" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F148" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G148" s="7" t="s">
+        <v>1767</v>
+      </c>
+      <c r="H148" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I148" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J148" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K148" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="L148" s="7"/>
+      <c r="M148" s="7"/>
+      <c r="N148" s="7"/>
+      <c r="O148" s="7"/>
+      <c r="P148" s="7"/>
+      <c r="Q148" s="7"/>
+      <c r="R148" s="7"/>
+      <c r="S148" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A149" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G149" s="7" t="s">
+        <v>1761</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I149" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J149" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K149" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="L149" s="7"/>
+      <c r="M149" s="7"/>
+      <c r="N149" s="7"/>
+      <c r="O149" s="7"/>
+      <c r="P149" s="7"/>
+      <c r="Q149" s="7"/>
+      <c r="R149" s="7"/>
+      <c r="S149" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A150" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F150" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G150" s="7" t="s">
+        <v>1761</v>
+      </c>
+      <c r="H150" s="7" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I150" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J150" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K150" s="7" t="s">
+        <v>1796</v>
+      </c>
+      <c r="L150" s="7"/>
+      <c r="M150" s="7"/>
+      <c r="N150" s="7"/>
+      <c r="O150" s="7"/>
+      <c r="P150" s="7"/>
+      <c r="Q150" s="7"/>
+      <c r="R150" s="7"/>
+      <c r="S150" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A151" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G151" s="7" t="s">
+        <v>1761</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I151" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J151" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K151" s="7" t="s">
+        <v>1797</v>
+      </c>
+      <c r="L151" s="7"/>
+      <c r="M151" s="7"/>
+      <c r="N151" s="7"/>
+      <c r="O151" s="7"/>
+      <c r="P151" s="7"/>
+      <c r="Q151" s="7"/>
+      <c r="R151" s="7"/>
+      <c r="S151" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A152" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G152" s="7" t="s">
+        <v>1761</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I152" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J152" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K152" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="L152" s="7"/>
+      <c r="M152" s="7"/>
+      <c r="N152" s="7"/>
+      <c r="O152" s="7"/>
+      <c r="P152" s="7"/>
+      <c r="Q152" s="7"/>
+      <c r="R152" s="7"/>
+      <c r="S152" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A153" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G153" s="7" t="s">
+        <v>1761</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I153" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J153" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K153" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L153" s="7"/>
+      <c r="M153" s="7"/>
+      <c r="N153" s="7"/>
+      <c r="O153" s="7"/>
+      <c r="P153" s="7"/>
+      <c r="Q153" s="7"/>
+      <c r="R153" s="7"/>
+      <c r="S153" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A154" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F154" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G154" s="7" t="s">
+        <v>1761</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I154" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J154" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K154" s="7" t="s">
+        <v>1798</v>
+      </c>
+      <c r="L154" s="7"/>
+      <c r="M154" s="7"/>
+      <c r="N154" s="7"/>
+      <c r="O154" s="7"/>
+      <c r="P154" s="7"/>
+      <c r="Q154" s="7"/>
+      <c r="R154" s="7"/>
+      <c r="S154" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A155" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F155" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G155" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H155" s="7" t="s">
+        <v>1770</v>
+      </c>
+      <c r="I155" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J155" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K155" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="L155" s="7"/>
+      <c r="M155" s="7"/>
+      <c r="N155" s="7"/>
+      <c r="O155" s="7"/>
+      <c r="P155" s="7"/>
+      <c r="Q155" s="7"/>
+      <c r="R155" s="7"/>
+      <c r="S155" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A156" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F156" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G156" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H156" s="7" t="s">
+        <v>1770</v>
+      </c>
+      <c r="I156" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J156" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K156" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="L156" s="7"/>
+      <c r="M156" s="7"/>
+      <c r="N156" s="7"/>
+      <c r="O156" s="7"/>
+      <c r="P156" s="7"/>
+      <c r="Q156" s="7"/>
+      <c r="R156" s="7"/>
+      <c r="S156" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A157" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F157" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G157" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H157" s="7" t="s">
+        <v>1770</v>
+      </c>
+      <c r="I157" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J157" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K157" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="L157" s="7"/>
+      <c r="M157" s="7"/>
+      <c r="N157" s="7"/>
+      <c r="O157" s="7"/>
+      <c r="P157" s="7"/>
+      <c r="Q157" s="7"/>
+      <c r="R157" s="7"/>
+      <c r="S157" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A158" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F158" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G158" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H158" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I158" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J158" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K158" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="L158" s="7"/>
+      <c r="M158" s="7"/>
+      <c r="N158" s="7"/>
+      <c r="O158" s="7"/>
+      <c r="P158" s="7"/>
+      <c r="Q158" s="7"/>
+      <c r="R158" s="7"/>
+      <c r="S158" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A159" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F159" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G159" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H159" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I159" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J159" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K159" s="7" t="s">
+        <v>1796</v>
+      </c>
+      <c r="L159" s="7"/>
+      <c r="M159" s="7"/>
+      <c r="N159" s="7"/>
+      <c r="O159" s="7"/>
+      <c r="P159" s="7"/>
+      <c r="Q159" s="7"/>
+      <c r="R159" s="7"/>
+      <c r="S159" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A160" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G160" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H160" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I160" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J160" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K160" s="7" t="s">
+        <v>1797</v>
+      </c>
+      <c r="L160" s="7"/>
+      <c r="M160" s="7"/>
+      <c r="N160" s="7"/>
+      <c r="O160" s="7"/>
+      <c r="P160" s="7"/>
+      <c r="Q160" s="7"/>
+      <c r="R160" s="7"/>
+      <c r="S160" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A161" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F161" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G161" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H161" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I161" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J161" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K161" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="L161" s="7"/>
+      <c r="M161" s="7"/>
+      <c r="N161" s="7"/>
+      <c r="O161" s="7"/>
+      <c r="P161" s="7"/>
+      <c r="Q161" s="7"/>
+      <c r="R161" s="7"/>
+      <c r="S161" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A162" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F162" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G162" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H162" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I162" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J162" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K162" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L162" s="7"/>
+      <c r="M162" s="7"/>
+      <c r="N162" s="7"/>
+      <c r="O162" s="7"/>
+      <c r="P162" s="7"/>
+      <c r="Q162" s="7"/>
+      <c r="R162" s="7"/>
+      <c r="S162" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A163" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F163" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G163" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H163" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I163" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J163" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K163" s="7" t="s">
+        <v>1798</v>
+      </c>
+      <c r="L163" s="7"/>
+      <c r="M163" s="7"/>
+      <c r="N163" s="7"/>
+      <c r="O163" s="7"/>
+      <c r="P163" s="7"/>
+      <c r="Q163" s="7"/>
+      <c r="R163" s="7"/>
+      <c r="S163" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A164" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F164" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G164" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H164" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I164" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J164" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K164" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="L164" s="7"/>
+      <c r="M164" s="7"/>
+      <c r="N164" s="7"/>
+      <c r="O164" s="7"/>
+      <c r="P164" s="7"/>
+      <c r="Q164" s="7"/>
+      <c r="R164" s="7"/>
+      <c r="S164" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A165" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F165" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G165" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H165" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I165" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J165" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K165" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="L165" s="7"/>
+      <c r="M165" s="7"/>
+      <c r="N165" s="7"/>
+      <c r="O165" s="7"/>
+      <c r="P165" s="7"/>
+      <c r="Q165" s="7"/>
+      <c r="R165" s="7"/>
+      <c r="S165" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A166" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F166" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G166" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H166" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I166" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J166" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K166" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="L166" s="7"/>
+      <c r="M166" s="7"/>
+      <c r="N166" s="7"/>
+      <c r="O166" s="7"/>
+      <c r="P166" s="7"/>
+      <c r="Q166" s="7"/>
+      <c r="R166" s="7"/>
+      <c r="S166" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A167" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F167" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G167" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H167" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I167" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J167" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K167" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="L167" s="7"/>
+      <c r="M167" s="7"/>
+      <c r="N167" s="7"/>
+      <c r="O167" s="7"/>
+      <c r="P167" s="7"/>
+      <c r="Q167" s="7"/>
+      <c r="R167" s="7"/>
+      <c r="S167" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A168" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F168" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G168" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H168" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I168" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J168" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K168" s="7" t="s">
+        <v>1796</v>
+      </c>
+      <c r="L168" s="7"/>
+      <c r="M168" s="7"/>
+      <c r="N168" s="7"/>
+      <c r="O168" s="7"/>
+      <c r="P168" s="7"/>
+      <c r="Q168" s="7"/>
+      <c r="R168" s="7"/>
+      <c r="S168" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A169" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F169" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G169" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H169" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I169" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J169" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K169" s="7" t="s">
+        <v>1797</v>
+      </c>
+      <c r="L169" s="7"/>
+      <c r="M169" s="7"/>
+      <c r="N169" s="7"/>
+      <c r="O169" s="7"/>
+      <c r="P169" s="7"/>
+      <c r="Q169" s="7"/>
+      <c r="R169" s="7"/>
+      <c r="S169" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A170" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F170" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G170" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H170" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I170" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J170" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K170" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="L170" s="7"/>
+      <c r="M170" s="7"/>
+      <c r="N170" s="7"/>
+      <c r="O170" s="7"/>
+      <c r="P170" s="7"/>
+      <c r="Q170" s="7"/>
+      <c r="R170" s="7"/>
+      <c r="S170" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A171" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F171" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G171" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H171" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I171" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J171" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K171" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L171" s="7"/>
+      <c r="M171" s="7"/>
+      <c r="N171" s="7"/>
+      <c r="O171" s="7"/>
+      <c r="P171" s="7"/>
+      <c r="Q171" s="7"/>
+      <c r="R171" s="7"/>
+      <c r="S171" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A172" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F172" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G172" s="7" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H172" s="7" t="s">
+        <v>1771</v>
+      </c>
+      <c r="I172" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J172" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K172" s="7" t="s">
+        <v>1798</v>
+      </c>
+      <c r="L172" s="7"/>
+      <c r="M172" s="7"/>
+      <c r="N172" s="7"/>
+      <c r="O172" s="7"/>
+      <c r="P172" s="7"/>
+      <c r="Q172" s="7"/>
+      <c r="R172" s="7"/>
+      <c r="S172" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A173" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F173" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G173" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H173" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I173" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J173" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K173" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="L173" s="7"/>
+      <c r="M173" s="7"/>
+      <c r="N173" s="7"/>
+      <c r="O173" s="7"/>
+      <c r="P173" s="7"/>
+      <c r="Q173" s="7"/>
+      <c r="R173" s="7"/>
+      <c r="S173" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A174" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F174" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G174" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H174" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I174" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J174" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K174" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="L174" s="7"/>
+      <c r="M174" s="7"/>
+      <c r="N174" s="7"/>
+      <c r="O174" s="7"/>
+      <c r="P174" s="7"/>
+      <c r="Q174" s="7"/>
+      <c r="R174" s="7"/>
+      <c r="S174" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A175" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F175" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G175" s="7" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H175" s="7" t="s">
+        <v>1772</v>
+      </c>
+      <c r="I175" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J175" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K175" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="L175" s="7"/>
+      <c r="M175" s="7"/>
+      <c r="N175" s="7"/>
+      <c r="O175" s="7"/>
+      <c r="P175" s="7"/>
+      <c r="Q175" s="7"/>
+      <c r="R175" s="7"/>
+      <c r="S175" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A176" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F176" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G176" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H176" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I176" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J176" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K176" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="L176" s="7"/>
+      <c r="M176" s="7"/>
+      <c r="N176" s="7"/>
+      <c r="O176" s="7"/>
+      <c r="P176" s="7"/>
+      <c r="Q176" s="7"/>
+      <c r="R176" s="7"/>
+      <c r="S176" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A177" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F177" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G177" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H177" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I177" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J177" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K177" s="7" t="s">
+        <v>1796</v>
+      </c>
+      <c r="L177" s="7"/>
+      <c r="M177" s="7"/>
+      <c r="N177" s="7"/>
+      <c r="O177" s="7"/>
+      <c r="P177" s="7"/>
+      <c r="Q177" s="7"/>
+      <c r="R177" s="7"/>
+      <c r="S177" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A178" s="7" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F178" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G178" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H178" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I178" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J178" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K178" s="7" t="s">
+        <v>1797</v>
+      </c>
+      <c r="L178" s="7"/>
+      <c r="M178" s="7"/>
+      <c r="N178" s="7"/>
+      <c r="O178" s="7"/>
+      <c r="P178" s="7"/>
+      <c r="Q178" s="7"/>
+      <c r="R178" s="7"/>
+      <c r="S178" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A179" s="7" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F179" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G179" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H179" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I179" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J179" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K179" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="L179" s="7"/>
+      <c r="M179" s="7"/>
+      <c r="N179" s="7"/>
+      <c r="O179" s="7"/>
+      <c r="P179" s="7"/>
+      <c r="Q179" s="7"/>
+      <c r="R179" s="7"/>
+      <c r="S179" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A180" s="7" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F180" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G180" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H180" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I180" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J180" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K180" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L180" s="7"/>
+      <c r="M180" s="7"/>
+      <c r="N180" s="7"/>
+      <c r="O180" s="7"/>
+      <c r="P180" s="7"/>
+      <c r="Q180" s="7"/>
+      <c r="R180" s="7"/>
+      <c r="S180" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A181" s="7" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F181" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G181" s="7" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H181" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I181" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J181" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K181" s="7" t="s">
+        <v>1798</v>
+      </c>
+      <c r="L181" s="7"/>
+      <c r="M181" s="7"/>
+      <c r="N181" s="7"/>
+      <c r="O181" s="7"/>
+      <c r="P181" s="7"/>
+      <c r="Q181" s="7"/>
+      <c r="R181" s="7"/>
+      <c r="S181" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A182" s="7" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F182" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G182" s="7" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H182" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="I182" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J182" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K182" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="L182" s="7"/>
+      <c r="M182" s="7"/>
+      <c r="N182" s="7"/>
+      <c r="O182" s="7"/>
+      <c r="P182" s="7"/>
+      <c r="Q182" s="7"/>
+      <c r="R182" s="7"/>
+      <c r="S182" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A183" s="7" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F183" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G183" s="7" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H183" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="I183" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J183" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K183" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="L183" s="7"/>
+      <c r="M183" s="7"/>
+      <c r="N183" s="7"/>
+      <c r="O183" s="7"/>
+      <c r="P183" s="7"/>
+      <c r="Q183" s="7"/>
+      <c r="R183" s="7"/>
+      <c r="S183" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A184" s="7" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E184" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F184" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G184" s="7" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H184" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="I184" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J184" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K184" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="L184" s="7"/>
+      <c r="M184" s="7"/>
+      <c r="N184" s="7"/>
+      <c r="O184" s="7"/>
+      <c r="P184" s="7"/>
+      <c r="Q184" s="7"/>
+      <c r="R184" s="7"/>
+      <c r="S184" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A185" s="7" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F185" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G185" s="7" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H185" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="I185" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J185" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K185" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="L185" s="7"/>
+      <c r="M185" s="7"/>
+      <c r="N185" s="7"/>
+      <c r="O185" s="7"/>
+      <c r="P185" s="7"/>
+      <c r="Q185" s="7"/>
+      <c r="R185" s="7"/>
+      <c r="S185" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A186" s="7" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E186" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F186" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G186" s="7" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H186" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="I186" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J186" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K186" s="7" t="s">
+        <v>1796</v>
+      </c>
+      <c r="L186" s="7"/>
+      <c r="M186" s="7"/>
+      <c r="N186" s="7"/>
+      <c r="O186" s="7"/>
+      <c r="P186" s="7"/>
+      <c r="Q186" s="7"/>
+      <c r="R186" s="7"/>
+      <c r="S186" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A187" s="7" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F187" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G187" s="7" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H187" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="I187" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J187" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K187" s="7" t="s">
+        <v>1797</v>
+      </c>
+      <c r="L187" s="7"/>
+      <c r="M187" s="7"/>
+      <c r="N187" s="7"/>
+      <c r="O187" s="7"/>
+      <c r="P187" s="7"/>
+      <c r="Q187" s="7"/>
+      <c r="R187" s="7"/>
+      <c r="S187" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A188" s="7" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E188" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F188" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G188" s="7" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H188" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="I188" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J188" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K188" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="L188" s="7"/>
+      <c r="M188" s="7"/>
+      <c r="N188" s="7"/>
+      <c r="O188" s="7"/>
+      <c r="P188" s="7"/>
+      <c r="Q188" s="7"/>
+      <c r="R188" s="7"/>
+      <c r="S188" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A189" s="7" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E189" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F189" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G189" s="7" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H189" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="I189" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J189" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K189" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L189" s="7"/>
+      <c r="M189" s="7"/>
+      <c r="N189" s="7"/>
+      <c r="O189" s="7"/>
+      <c r="P189" s="7"/>
+      <c r="Q189" s="7"/>
+      <c r="R189" s="7"/>
+      <c r="S189" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A190" s="7" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F190" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G190" s="7" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H190" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="I190" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J190" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K190" s="7" t="s">
+        <v>1798</v>
+      </c>
+      <c r="L190" s="7"/>
+      <c r="M190" s="7"/>
+      <c r="N190" s="7"/>
+      <c r="O190" s="7"/>
+      <c r="P190" s="7"/>
+      <c r="Q190" s="7"/>
+      <c r="R190" s="7"/>
+      <c r="S190" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A191" s="7" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E191" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F191" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G191" s="7" t="s">
+        <v>1767</v>
+      </c>
+      <c r="H191" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I191" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J191" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K191" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="L191" s="7"/>
+      <c r="M191" s="7"/>
+      <c r="N191" s="7"/>
+      <c r="O191" s="7"/>
+      <c r="P191" s="7"/>
+      <c r="Q191" s="7"/>
+      <c r="R191" s="7"/>
+      <c r="S191" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A192" s="7" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F192" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G192" s="7" t="s">
+        <v>1767</v>
+      </c>
+      <c r="H192" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I192" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J192" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K192" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="L192" s="7"/>
+      <c r="M192" s="7"/>
+      <c r="N192" s="7"/>
+      <c r="O192" s="7"/>
+      <c r="P192" s="7"/>
+      <c r="Q192" s="7"/>
+      <c r="R192" s="7"/>
+      <c r="S192" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A193" s="7" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F193" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G193" s="7" t="s">
+        <v>1767</v>
+      </c>
+      <c r="H193" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="I193" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J193" s="7" t="s">
+        <v>1773</v>
+      </c>
+      <c r="K193" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="L193" s="7"/>
+      <c r="M193" s="7"/>
+      <c r="N193" s="7"/>
+      <c r="O193" s="7"/>
+      <c r="P193" s="7"/>
+      <c r="Q193" s="7"/>
+      <c r="R193" s="7"/>
+      <c r="S193" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Regression/sprint_regression/NRG_regression/inbox_files/Regression_test_scenarios.xlsx
+++ b/Regression/sprint_regression/NRG_regression/inbox_files/Regression_test_scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMALYGIN\Downloads\Regression-master (5)\Regression-master\Regression\sprint_regression\NRG_regression\inbox_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA41141-3F2E-474A-9B89-8509D41353A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B91B639-E507-4EF3-AE2D-7E5C16CAC130}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,11 @@
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
     <sheet name="Apple_July" sheetId="6" r:id="rId6"/>
     <sheet name="August" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">_1!$A$1:$T$174</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">August!$A$1:$T$73</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Regression!$A$1:$S$170</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet1!$A$1:$W$1</definedName>
   </definedNames>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7379" uniqueCount="1815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6059" uniqueCount="1708">
   <si>
     <t>ts</t>
   </si>
@@ -4871,30 +4873,15 @@
     <t>Oh</t>
   </si>
   <si>
-    <t>g1e9ff4301781160</t>
-  </si>
-  <si>
     <t>36082AEB-A914</t>
   </si>
   <si>
-    <t>2BBF9D5C-2CAB</t>
-  </si>
-  <si>
-    <t>2AAFD762-0331</t>
-  </si>
-  <si>
-    <t>g0ffd239f79dd80f</t>
-  </si>
-  <si>
     <t>2E210FC6-68A9</t>
   </si>
   <si>
     <t>03A1900F-BBE3</t>
   </si>
   <si>
-    <t>03781125-A81B</t>
-  </si>
-  <si>
     <t>g3cd496138f0f621</t>
   </si>
   <si>
@@ -4904,120 +4891,27 @@
     <t>6379C337-03E1</t>
   </si>
   <si>
-    <t>629DF55E-3023</t>
-  </si>
-  <si>
-    <t>gdceb1a8c5247ad8</t>
-  </si>
-  <si>
-    <t>4AB14574-29F2</t>
-  </si>
-  <si>
-    <t>7490FDEA-793E</t>
-  </si>
-  <si>
-    <t>72D65F4A-1EDD</t>
-  </si>
-  <si>
-    <t>g0d6d1a897f6ec88</t>
-  </si>
-  <si>
-    <t>g7cd1f8883ebc595</t>
-  </si>
-  <si>
     <t>24B46FC8-E47E</t>
   </si>
   <si>
     <t>1535DF70-C540</t>
   </si>
   <si>
-    <t>216E706E-28D2</t>
-  </si>
-  <si>
     <t>2860A390-046E</t>
   </si>
   <si>
     <t>232728E2-2D98</t>
   </si>
   <si>
-    <t>22990899-AEFC</t>
-  </si>
-  <si>
-    <t>gebdd7dff4761ce8</t>
-  </si>
-  <si>
-    <t>gc57e224f65021bb</t>
-  </si>
-  <si>
-    <t>gf79de3266c7667f</t>
-  </si>
-  <si>
-    <t>g867d794ac3be3f9</t>
-  </si>
-  <si>
-    <t>g3dc57ec1c47c98c</t>
-  </si>
-  <si>
-    <t>gcf654f16abda2a5</t>
-  </si>
-  <si>
-    <t>g725a8cf13741a55</t>
-  </si>
-  <si>
-    <t>g910141423ba0d25</t>
-  </si>
-  <si>
-    <t>g12317ae4dc85209</t>
-  </si>
-  <si>
-    <t>g470e111a6290b8c</t>
-  </si>
-  <si>
-    <t>gf4b5d90e8fb59b0</t>
-  </si>
-  <si>
-    <t>gb495d83c5209d56</t>
-  </si>
-  <si>
     <t>5CB2ED17-F868</t>
   </si>
   <si>
-    <t>5A64B7C0-B5E3</t>
-  </si>
-  <si>
-    <t>5B8C76F9-F197</t>
-  </si>
-  <si>
-    <t>5D39F27F-2797</t>
-  </si>
-  <si>
     <t>5C84BB49-2F26</t>
   </si>
   <si>
-    <t>5C11F873-F7D1</t>
-  </si>
-  <si>
-    <t>g779e9d2299d174f</t>
-  </si>
-  <si>
-    <t>g3002991f69c4e2e</t>
-  </si>
-  <si>
     <t>g4ec4dfd3b2fa78b</t>
   </si>
   <si>
-    <t>g896787ef3838a7a</t>
-  </si>
-  <si>
-    <t>ga79faee162cbcd4</t>
-  </si>
-  <si>
-    <t>ge674f825c543ad9</t>
-  </si>
-  <si>
-    <t>ge05202a63da20b5</t>
-  </si>
-  <si>
     <t>8622A87B-8511</t>
   </si>
   <si>
@@ -5027,81 +4921,30 @@
     <t>7D608D40-4E98</t>
   </si>
   <si>
-    <t>86B5D83F-B753</t>
-  </si>
-  <si>
     <t>847C40E0-739A</t>
   </si>
   <si>
     <t>80F30CA8-553B</t>
   </si>
   <si>
-    <t>g9518ce175cb9434</t>
-  </si>
-  <si>
     <t>ge2b32f3a1ce03f8</t>
   </si>
   <si>
     <t>g83f5c8f17af2f31</t>
   </si>
   <si>
-    <t>ged13ef311039f6a</t>
-  </si>
-  <si>
-    <t>g39927cc72b73d3d</t>
-  </si>
-  <si>
     <t>ga67d9a992f20d9b</t>
   </si>
   <si>
-    <t>gb42eb729c033295</t>
-  </si>
-  <si>
-    <t>g0fe4868222712bc</t>
-  </si>
-  <si>
-    <t>g190059a535193b8</t>
-  </si>
-  <si>
-    <t>g2313c766b000781</t>
-  </si>
-  <si>
-    <t>geaa79f7847626ed</t>
-  </si>
-  <si>
-    <t>gc9ca9626155ca8c</t>
-  </si>
-  <si>
-    <t>gcec6dff18f17173</t>
-  </si>
-  <si>
     <t>g473172eadaebcf4</t>
   </si>
   <si>
-    <t>g533d27412ad502e</t>
-  </si>
-  <si>
-    <t>g20310ae88d9f421</t>
-  </si>
-  <si>
     <t>37B10EEE-F078</t>
   </si>
   <si>
     <t>37F51E9E-9CBB</t>
   </si>
   <si>
-    <t>g971b69cb5a23e81</t>
-  </si>
-  <si>
-    <t>ge48770944f0461e</t>
-  </si>
-  <si>
-    <t>g74198ae1214790a</t>
-  </si>
-  <si>
-    <t>gf451858ed14c806</t>
-  </si>
-  <si>
     <t>1A21FB8D-010F</t>
   </si>
   <si>
@@ -5111,30 +4954,12 @@
     <t>g0e22e29595cf30a</t>
   </si>
   <si>
-    <t>g3d8a367e1894fb0</t>
-  </si>
-  <si>
-    <t>gdc7e5f10a320528</t>
-  </si>
-  <si>
-    <t>g5fe61c32cd6f952</t>
-  </si>
-  <si>
     <t>57C8542B-62A9</t>
   </si>
   <si>
     <t>5979FC88-B631</t>
   </si>
   <si>
-    <t>g1709e12350216e1</t>
-  </si>
-  <si>
-    <t>g14e35e7c78ffbf8</t>
-  </si>
-  <si>
-    <t>g3cd178ee04209ba</t>
-  </si>
-  <si>
     <t>g59a0e8dbba3e918</t>
   </si>
   <si>
@@ -5144,18 +4969,6 @@
     <t>7C9C9EF1-4CD6</t>
   </si>
   <si>
-    <t>gcdcfff1ec5765a2</t>
-  </si>
-  <si>
-    <t>g34ac849b578aeb0</t>
-  </si>
-  <si>
-    <t>g579ebfc9c4cf598</t>
-  </si>
-  <si>
-    <t>gdc60c9314c0c467</t>
-  </si>
-  <si>
     <t>376110C5-B2B6</t>
   </si>
   <si>
@@ -5165,33 +4978,12 @@
     <t>g4b29e320b3da894</t>
   </si>
   <si>
-    <t>gf0d966059012d7b</t>
-  </si>
-  <si>
-    <t>g4ababdb93495949</t>
-  </si>
-  <si>
-    <t>g93f3e822270a45c</t>
-  </si>
-  <si>
     <t>18016F05-5101</t>
   </si>
   <si>
     <t>18A5FD4E-57C8</t>
   </si>
   <si>
-    <t>g0fb0a295f39a964</t>
-  </si>
-  <si>
-    <t>g1d62070f1551e18</t>
-  </si>
-  <si>
-    <t>g883f4ea8032bb28</t>
-  </si>
-  <si>
-    <t>g3fb1b1c02cc9493</t>
-  </si>
-  <si>
     <t>557F6E10-4240</t>
   </si>
   <si>
@@ -5201,36 +4993,12 @@
     <t>g3fd42f05036e57c</t>
   </si>
   <si>
-    <t>g5b8d543dd7e8a60</t>
-  </si>
-  <si>
-    <t>g1b6efca61ac4e6a</t>
-  </si>
-  <si>
-    <t>g27a0bbceeab86c4</t>
-  </si>
-  <si>
     <t>74DA1BCE-B132</t>
   </si>
   <si>
     <t>75182FB7-CE39</t>
   </si>
   <si>
-    <t>gcbb7ad24e239b2e</t>
-  </si>
-  <si>
-    <t>g8a473b04c5f4f9f</t>
-  </si>
-  <si>
-    <t>ge12ff045ce17f39</t>
-  </si>
-  <si>
-    <t>g870d3a02875e6b2</t>
-  </si>
-  <si>
-    <t>g89bd5172b42b3af</t>
-  </si>
-  <si>
     <t>g80d857b8040247c</t>
   </si>
   <si>
@@ -5243,21 +5011,6 @@
     <t>447FD118-0A2A</t>
   </si>
   <si>
-    <t>g7dea804654ad767</t>
-  </si>
-  <si>
-    <t>gceb1ee4c99744be</t>
-  </si>
-  <si>
-    <t>g573492f561a9864</t>
-  </si>
-  <si>
-    <t>g1516e765133bacf</t>
-  </si>
-  <si>
-    <t>gd18b1e29440fdbb</t>
-  </si>
-  <si>
     <t>gf38bdb3dbad169d</t>
   </si>
   <si>
@@ -5270,21 +5023,6 @@
     <t>1CC20116-A318</t>
   </si>
   <si>
-    <t>g9921c4c3fdb335a</t>
-  </si>
-  <si>
-    <t>ga589eeed91867ce</t>
-  </si>
-  <si>
-    <t>g04f440182c9df03</t>
-  </si>
-  <si>
-    <t>ge58ea6d68e903c0</t>
-  </si>
-  <si>
-    <t>gf7f84fe9dd3dd21</t>
-  </si>
-  <si>
     <t>gf3c39dffedb5971</t>
   </si>
   <si>
@@ -5300,18 +5038,6 @@
     <t>ge1992633ecf1821</t>
   </si>
   <si>
-    <t>gf307d215ba987fb</t>
-  </si>
-  <si>
-    <t>ge14d695ebfc2010</t>
-  </si>
-  <si>
-    <t>gc32c767e4dcc33a</t>
-  </si>
-  <si>
-    <t>g84894b8ff030eaf</t>
-  </si>
-  <si>
     <t>gf3762f385df03d0</t>
   </si>
   <si>
@@ -5345,9 +5071,6 @@
     <t>2,500 bonus/ 3 points per $1  (Premier) - August 2020 DM</t>
   </si>
   <si>
-    <t>10,000 bonus/ 2 points per $1  - August 2020 DM</t>
-  </si>
-  <si>
     <t>0820dm_winback_75_bonus</t>
   </si>
   <si>
@@ -5369,36 +5092,12 @@
     <t>Nicor</t>
   </si>
   <si>
-    <t>PeopGas</t>
-  </si>
-  <si>
-    <t>PPL</t>
-  </si>
-  <si>
-    <t>WPP</t>
-  </si>
-  <si>
     <t>peco_gas</t>
   </si>
   <si>
-    <t>DUQ</t>
-  </si>
-  <si>
-    <t>METED</t>
-  </si>
-  <si>
     <t>Peco</t>
   </si>
   <si>
-    <t>Penelec</t>
-  </si>
-  <si>
-    <t>PENN</t>
-  </si>
-  <si>
-    <t>MECO</t>
-  </si>
-  <si>
     <t>camb</t>
   </si>
   <si>
@@ -5411,28 +5110,10 @@
     <t>JCPL</t>
   </si>
   <si>
-    <t>PSEG</t>
-  </si>
-  <si>
     <t>SJERSEY</t>
   </si>
   <si>
     <t>BGE</t>
-  </si>
-  <si>
-    <t>Delmarva</t>
-  </si>
-  <si>
-    <t>Pepco</t>
-  </si>
-  <si>
-    <t>APMD</t>
-  </si>
-  <si>
-    <t>DPL</t>
-  </si>
-  <si>
-    <t>TE</t>
   </si>
   <si>
     <t>AEPS</t>
@@ -5527,7 +5208,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5555,6 +5236,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5609,7 +5296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5644,6 +5331,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -22968,10 +22656,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443A835E-F1F0-4776-BDA6-D04A58D518EA}">
-  <dimension ref="A1:S193"/>
+  <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="K102" sqref="K102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23040,7 +22728,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>1610</v>
@@ -23058,10 +22746,10 @@
         <v>378</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>1761</v>
+        <v>1669</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>1769</v>
+        <v>1676</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>1580</v>
@@ -23070,7 +22758,7 @@
         <v>407</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>1774</v>
+        <v>411</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -23085,7 +22773,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>1611</v>
@@ -23103,10 +22791,10 @@
         <v>378</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>1761</v>
+        <v>1671</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>1769</v>
+        <v>1678</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>1580</v>
@@ -23130,7 +22818,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>1612</v>
@@ -23148,19 +22836,19 @@
         <v>378</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>1762</v>
+        <v>1670</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>1770</v>
+        <v>1679</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>1580</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>1773</v>
+        <v>1680</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>1775</v>
+        <v>1682</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -23175,7 +22863,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>1613</v>
@@ -23184,7 +22872,7 @@
         <v>375</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>377</v>
@@ -23193,19 +22881,19 @@
         <v>378</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>1762</v>
+        <v>1672</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>1770</v>
+        <v>393</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>1580</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>1773</v>
+        <v>407</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>1776</v>
+        <v>1681</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -23220,7 +22908,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>1614</v>
@@ -23229,7 +22917,7 @@
         <v>375</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>377</v>
@@ -23238,10 +22926,10 @@
         <v>378</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>1763</v>
+        <v>1672</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>1771</v>
+        <v>393</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>1580</v>
@@ -23250,7 +22938,7 @@
         <v>407</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>1774</v>
+        <v>411</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -23265,7 +22953,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>1615</v>
@@ -23274,7 +22962,7 @@
         <v>375</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>377</v>
@@ -23283,19 +22971,19 @@
         <v>378</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>1763</v>
+        <v>1673</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>1771</v>
+        <v>394</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>1580</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>407</v>
+        <v>1680</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>411</v>
+        <v>1682</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -23310,7 +22998,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>1616</v>
@@ -23328,19 +23016,19 @@
         <v>378</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>1762</v>
+        <v>1670</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>1772</v>
+        <v>1679</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>1773</v>
+        <v>1680</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>1775</v>
+        <v>422</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -23355,7 +23043,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>1617</v>
@@ -23373,19 +23061,19 @@
         <v>378</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>1762</v>
+        <v>1670</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>1772</v>
+        <v>1679</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>1773</v>
+        <v>1680</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>1776</v>
+        <v>414</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -23400,10 +23088,10 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1614</v>
+        <v>1618</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>375</v>
@@ -23418,19 +23106,19 @@
         <v>378</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>1763</v>
+        <v>1670</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>1771</v>
+        <v>1679</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>407</v>
+        <v>1680</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>1774</v>
+        <v>417</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -23445,10 +23133,10 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1615</v>
+        <v>1619</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>375</v>
@@ -23463,19 +23151,19 @@
         <v>378</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>1763</v>
+        <v>1670</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>1771</v>
+        <v>1679</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>407</v>
+        <v>1680</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>411</v>
+        <v>1683</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -23490,7 +23178,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>1616</v>
@@ -23508,19 +23196,19 @@
         <v>378</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>1762</v>
+        <v>1670</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>1772</v>
+        <v>1679</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>1773</v>
+        <v>1680</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>1775</v>
+        <v>422</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -23535,10 +23223,10 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>375</v>
@@ -23553,19 +23241,19 @@
         <v>378</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>1762</v>
+        <v>1670</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>1772</v>
+        <v>1679</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>1773</v>
+        <v>1680</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>1776</v>
+        <v>1683</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -23580,10 +23268,10 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>375</v>
@@ -23598,19 +23286,19 @@
         <v>378</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>1764</v>
+        <v>1673</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>407</v>
+        <v>1680</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>1774</v>
+        <v>422</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -23625,10 +23313,10 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>375</v>
@@ -23643,19 +23331,19 @@
         <v>378</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>1764</v>
+        <v>1673</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>407</v>
+        <v>1680</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>411</v>
+        <v>1683</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -23670,10 +23358,10 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>375</v>
@@ -23688,19 +23376,19 @@
         <v>378</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>1765</v>
+        <v>1674</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>1773</v>
+        <v>407</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>1775</v>
+        <v>1684</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
@@ -23715,10 +23403,10 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>375</v>
@@ -23733,19 +23421,19 @@
         <v>378</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>1765</v>
+        <v>1675</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>1773</v>
+        <v>1680</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>1776</v>
+        <v>422</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
@@ -23760,10 +23448,10 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>375</v>
@@ -23778,19 +23466,19 @@
         <v>378</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>1766</v>
+        <v>1675</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>407</v>
+        <v>1680</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>1774</v>
+        <v>414</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
@@ -23805,10 +23493,10 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>375</v>
@@ -23823,19 +23511,19 @@
         <v>378</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>1766</v>
+        <v>1675</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>407</v>
+        <v>1680</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
@@ -23850,10 +23538,10 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>375</v>
@@ -23868,19 +23556,19 @@
         <v>378</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>1767</v>
+        <v>1675</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>396</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>1773</v>
+        <v>1680</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>1775</v>
+        <v>1683</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
@@ -23895,10 +23583,10 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>375</v>
@@ -23913,19 +23601,19 @@
         <v>378</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>1767</v>
+        <v>1675</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>396</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>1773</v>
+        <v>1680</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>1776</v>
+        <v>425</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
@@ -23940,10 +23628,10 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>375</v>
@@ -23958,19 +23646,19 @@
         <v>378</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>1763</v>
+        <v>1669</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>1771</v>
+        <v>1676</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>407</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>1777</v>
+        <v>1685</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
@@ -23985,10 +23673,10 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>375</v>
@@ -24003,19 +23691,19 @@
         <v>378</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>1763</v>
+        <v>1669</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>1771</v>
+        <v>1676</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>407</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>1778</v>
+        <v>1686</v>
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
@@ -24030,10 +23718,10 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>375</v>
@@ -24048,19 +23736,19 @@
         <v>378</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>1762</v>
+        <v>1671</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>1772</v>
+        <v>1678</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>1773</v>
+        <v>407</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>422</v>
+        <v>1686</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
@@ -24075,10 +23763,10 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>375</v>
@@ -24093,19 +23781,19 @@
         <v>378</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>1762</v>
+        <v>1669</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>1772</v>
+        <v>1676</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>1773</v>
+        <v>407</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>414</v>
+        <v>1688</v>
       </c>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
@@ -24120,10 +23808,10 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>375</v>
@@ -24138,19 +23826,19 @@
         <v>378</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>1762</v>
+        <v>1670</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>1772</v>
+        <v>1677</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>1773</v>
+        <v>1680</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
@@ -24165,10 +23853,10 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>375</v>
@@ -24183,19 +23871,19 @@
         <v>378</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>1762</v>
+        <v>1670</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>1772</v>
+        <v>1677</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>1773</v>
+        <v>1680</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
@@ -24210,10 +23898,10 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>375</v>
@@ -24228,19 +23916,19 @@
         <v>378</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>1762</v>
+        <v>1670</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>1772</v>
+        <v>1677</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>1773</v>
+        <v>1680</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>1779</v>
+        <v>1689</v>
       </c>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
@@ -24255,10 +23943,10 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>375</v>
@@ -24273,19 +23961,19 @@
         <v>378</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>1762</v>
+        <v>1670</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>1772</v>
+        <v>1679</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>1773</v>
+        <v>1680</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
@@ -24300,7 +23988,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>1634</v>
@@ -24318,19 +24006,19 @@
         <v>378</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>1763</v>
+        <v>1670</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>1771</v>
+        <v>1679</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>407</v>
+        <v>1680</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>1780</v>
+        <v>433</v>
       </c>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
@@ -24345,10 +24033,10 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>375</v>
@@ -24363,19 +24051,19 @@
         <v>378</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>1763</v>
+        <v>1670</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>1771</v>
+        <v>1679</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>407</v>
+        <v>1680</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>1781</v>
+        <v>433</v>
       </c>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
@@ -24390,10 +24078,10 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>375</v>
@@ -24408,19 +24096,19 @@
         <v>378</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>1763</v>
+        <v>1670</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>1771</v>
+        <v>1679</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>407</v>
+        <v>1680</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>1782</v>
+        <v>1689</v>
       </c>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
@@ -24435,16 +24123,16 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>377</v>
@@ -24453,19 +24141,19 @@
         <v>378</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>1763</v>
+        <v>1672</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>1771</v>
+        <v>393</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>407</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>1783</v>
+        <v>1687</v>
       </c>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
@@ -24480,16 +24168,16 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>377</v>
@@ -24498,19 +24186,19 @@
         <v>378</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>1763</v>
+        <v>1673</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>1771</v>
+        <v>394</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>407</v>
+        <v>1680</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>1784</v>
+        <v>433</v>
       </c>
       <c r="L34" s="7"/>
       <c r="M34" s="7"/>
@@ -24525,16 +24213,16 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1626</v>
+        <v>1637</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>377</v>
@@ -24543,19 +24231,19 @@
         <v>378</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>1763</v>
+        <v>1673</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>1771</v>
+        <v>394</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>407</v>
+        <v>1680</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>1777</v>
+        <v>433</v>
       </c>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
@@ -24570,16 +24258,16 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1627</v>
+        <v>1638</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>377</v>
@@ -24588,19 +24276,19 @@
         <v>378</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>1763</v>
+        <v>1673</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>1771</v>
+        <v>394</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>407</v>
+        <v>1680</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>1778</v>
+        <v>1689</v>
       </c>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
@@ -24615,16 +24303,16 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1628</v>
+        <v>1639</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>377</v>
@@ -24633,19 +24321,19 @@
         <v>378</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>1762</v>
+        <v>1674</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>1772</v>
+        <v>395</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>1773</v>
+        <v>407</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
@@ -24660,16 +24348,16 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1629</v>
+        <v>1640</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>377</v>
@@ -24678,19 +24366,19 @@
         <v>378</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>1762</v>
+        <v>1675</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>1772</v>
+        <v>396</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>1773</v>
+        <v>1680</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
@@ -24705,16 +24393,16 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1630</v>
+        <v>1640</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>377</v>
@@ -24723,19 +24411,19 @@
         <v>378</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>1762</v>
+        <v>1675</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>1772</v>
+        <v>396</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>1773</v>
+        <v>1680</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
@@ -24750,16 +24438,16 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1631</v>
+        <v>1641</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>377</v>
@@ -24768,19 +24456,19 @@
         <v>378</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>1762</v>
+        <v>1675</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>1772</v>
+        <v>396</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>1773</v>
+        <v>1680</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>417</v>
+        <v>1689</v>
       </c>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
@@ -24795,10 +24483,10 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1632</v>
+        <v>1642</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>375</v>
@@ -24813,19 +24501,19 @@
         <v>378</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>1762</v>
+        <v>1670</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>1772</v>
+        <v>1677</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>1773</v>
+        <v>1680</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>1779</v>
+        <v>440</v>
       </c>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
@@ -24840,10 +24528,10 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1633</v>
+        <v>1643</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>375</v>
@@ -24858,19 +24546,19 @@
         <v>378</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>1762</v>
+        <v>1670</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>1772</v>
+        <v>1677</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>1773</v>
+        <v>1680</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
@@ -24885,16 +24573,16 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1639</v>
+        <v>1644</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>377</v>
@@ -24903,19 +24591,19 @@
         <v>378</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>1764</v>
+        <v>1671</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>393</v>
+        <v>1678</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>407</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>1780</v>
+        <v>1690</v>
       </c>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
@@ -24930,16 +24618,16 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1640</v>
+        <v>1645</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>377</v>
@@ -24948,19 +24636,19 @@
         <v>378</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>1764</v>
+        <v>1670</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>393</v>
+        <v>1679</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>407</v>
+        <v>1680</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>1781</v>
+        <v>440</v>
       </c>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
@@ -24975,16 +24663,16 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1641</v>
+        <v>1646</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>377</v>
@@ -24993,19 +24681,19 @@
         <v>378</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>1764</v>
+        <v>1670</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>393</v>
+        <v>1679</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>407</v>
+        <v>1680</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>1782</v>
+        <v>441</v>
       </c>
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
@@ -25020,16 +24708,16 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1642</v>
+        <v>1645</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>377</v>
@@ -25038,19 +24726,19 @@
         <v>378</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>1764</v>
+        <v>1670</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>393</v>
+        <v>1679</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>407</v>
+        <v>1680</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>1783</v>
+        <v>440</v>
       </c>
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
@@ -25065,16 +24753,16 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1643</v>
+        <v>1646</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>377</v>
@@ -25083,19 +24771,19 @@
         <v>378</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>1764</v>
+        <v>1670</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>393</v>
+        <v>1679</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>407</v>
+        <v>1680</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>1784</v>
+        <v>441</v>
       </c>
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
@@ -25110,10 +24798,10 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1644</v>
+        <v>1647</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>375</v>
@@ -25128,19 +24816,19 @@
         <v>378</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>1764</v>
+        <v>1673</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>407</v>
+        <v>1680</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>1777</v>
+        <v>440</v>
       </c>
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
@@ -25155,10 +24843,10 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1645</v>
+        <v>1648</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>375</v>
@@ -25173,19 +24861,19 @@
         <v>378</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>1764</v>
+        <v>1673</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>407</v>
+        <v>1680</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>1778</v>
+        <v>441</v>
       </c>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
@@ -25200,10 +24888,10 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1646</v>
+        <v>1649</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>375</v>
@@ -25218,19 +24906,19 @@
         <v>378</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>1765</v>
+        <v>1674</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>1773</v>
+        <v>407</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>422</v>
+        <v>1690</v>
       </c>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
@@ -25245,10 +24933,10 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>1647</v>
+        <v>1650</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>375</v>
@@ -25263,19 +24951,19 @@
         <v>378</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>1765</v>
+        <v>1675</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>1773</v>
+        <v>1680</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
@@ -25290,10 +24978,10 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>1648</v>
+        <v>1651</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>375</v>
@@ -25308,19 +24996,19 @@
         <v>378</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>1765</v>
+        <v>1675</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>1773</v>
+        <v>1680</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
@@ -25335,16 +25023,16 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>1649</v>
+        <v>1652</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>377</v>
@@ -25353,19 +25041,19 @@
         <v>378</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>1765</v>
+        <v>1669</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>394</v>
+        <v>1676</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>1773</v>
+        <v>407</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>417</v>
+        <v>1691</v>
       </c>
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
@@ -25380,16 +25068,16 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1650</v>
+        <v>1653</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>377</v>
@@ -25398,19 +25086,19 @@
         <v>378</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>1765</v>
+        <v>1670</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>394</v>
+        <v>1677</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>1773</v>
+        <v>1680</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>1779</v>
+        <v>446</v>
       </c>
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
@@ -25425,16 +25113,16 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1651</v>
+        <v>1654</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>377</v>
@@ -25443,19 +25131,19 @@
         <v>378</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>1765</v>
+        <v>1670</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>394</v>
+        <v>1677</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>1773</v>
+        <v>1680</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
@@ -25470,16 +25158,16 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1652</v>
+        <v>1655</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>377</v>
@@ -25488,19 +25176,19 @@
         <v>378</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>1766</v>
+        <v>1670</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>395</v>
+        <v>1677</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>407</v>
+        <v>1680</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>1780</v>
+        <v>448</v>
       </c>
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
@@ -25515,16 +25203,16 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1653</v>
+        <v>1656</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>377</v>
@@ -25533,19 +25221,19 @@
         <v>378</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>1766</v>
+        <v>1671</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>395</v>
+        <v>1678</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>407</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>1781</v>
+        <v>1691</v>
       </c>
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
@@ -25560,16 +25248,16 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1654</v>
+        <v>1657</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>377</v>
@@ -25578,19 +25266,19 @@
         <v>378</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>1766</v>
+        <v>1670</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>395</v>
+        <v>1679</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>407</v>
+        <v>1680</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>1782</v>
+        <v>446</v>
       </c>
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
@@ -25605,16 +25293,16 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1655</v>
+        <v>1658</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>377</v>
@@ -25623,19 +25311,19 @@
         <v>378</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>1766</v>
+        <v>1670</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>395</v>
+        <v>1679</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>407</v>
+        <v>1680</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>1783</v>
+        <v>445</v>
       </c>
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
@@ -25650,16 +25338,16 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1656</v>
+        <v>1659</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>377</v>
@@ -25668,19 +25356,19 @@
         <v>378</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>1766</v>
+        <v>1670</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>395</v>
+        <v>1679</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>407</v>
+        <v>1680</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>1784</v>
+        <v>448</v>
       </c>
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
@@ -25695,16 +25383,16 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>377</v>
@@ -25713,19 +25401,19 @@
         <v>378</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>1766</v>
+        <v>1671</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>395</v>
+        <v>1678</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="J61" s="7" t="s">
         <v>407</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>1777</v>
+        <v>1691</v>
       </c>
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
@@ -25740,16 +25428,16 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>83</v>
+        <v>194</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>377</v>
@@ -25758,19 +25446,19 @@
         <v>378</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>1766</v>
+        <v>1670</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>395</v>
+        <v>1679</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>407</v>
+        <v>1680</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>1778</v>
+        <v>446</v>
       </c>
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
@@ -25785,16 +25473,16 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>377</v>
@@ -25803,19 +25491,19 @@
         <v>378</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>1767</v>
+        <v>1670</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>396</v>
+        <v>1679</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>1773</v>
+        <v>1680</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
@@ -25830,16 +25518,16 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>85</v>
+        <v>196</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>377</v>
@@ -25848,19 +25536,19 @@
         <v>378</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>1767</v>
+        <v>1670</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>396</v>
+        <v>1679</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>1773</v>
+        <v>1680</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
@@ -25875,10 +25563,10 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>86</v>
+        <v>1695</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>375</v>
@@ -25893,19 +25581,19 @@
         <v>378</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>1767</v>
+        <v>1672</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>1773</v>
+        <v>407</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>423</v>
+        <v>1691</v>
       </c>
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
@@ -25920,10 +25608,10 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>87</v>
+        <v>1696</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>375</v>
@@ -25938,19 +25626,19 @@
         <v>378</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>1767</v>
+        <v>1673</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>1773</v>
+        <v>1680</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>417</v>
+        <v>446</v>
       </c>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
@@ -25965,10 +25653,10 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>88</v>
+        <v>1697</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>375</v>
@@ -25983,19 +25671,19 @@
         <v>378</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>1767</v>
+        <v>1673</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>1773</v>
+        <v>1680</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>1779</v>
+        <v>445</v>
       </c>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
@@ -26010,10 +25698,10 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>89</v>
+        <v>1698</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>375</v>
@@ -26028,19 +25716,19 @@
         <v>378</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>1767</v>
+        <v>1673</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>1773</v>
+        <v>1680</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
@@ -26055,16 +25743,16 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>90</v>
+        <v>1699</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>377</v>
@@ -26073,19 +25761,19 @@
         <v>378</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>1761</v>
+        <v>1674</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>1769</v>
+        <v>395</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="J69" s="7" t="s">
         <v>407</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>1785</v>
+        <v>449</v>
       </c>
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
@@ -26100,16 +25788,16 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>91</v>
+        <v>1704</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>377</v>
@@ -26118,19 +25806,19 @@
         <v>378</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>1761</v>
+        <v>1674</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>1769</v>
+        <v>395</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="J70" s="7" t="s">
         <v>407</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>1786</v>
+        <v>1691</v>
       </c>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
@@ -26145,16 +25833,16 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>92</v>
+        <v>1705</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>377</v>
@@ -26163,19 +25851,19 @@
         <v>378</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>1761</v>
+        <v>1675</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>1769</v>
+        <v>396</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>407</v>
+        <v>1680</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>1787</v>
+        <v>446</v>
       </c>
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
@@ -26190,16 +25878,16 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>93</v>
+        <v>1706</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>377</v>
@@ -26208,19 +25896,19 @@
         <v>378</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>1763</v>
+        <v>1675</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>1771</v>
+        <v>396</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>407</v>
+        <v>1680</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>1785</v>
+        <v>445</v>
       </c>
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
@@ -26235,16 +25923,16 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>94</v>
+        <v>1707</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>377</v>
@@ -26253,19 +25941,19 @@
         <v>378</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>1763</v>
+        <v>1675</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>1771</v>
+        <v>396</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>407</v>
+        <v>1680</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>1786</v>
+        <v>448</v>
       </c>
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
@@ -26278,5408 +25966,624 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>1771</v>
-      </c>
-      <c r="I74" s="7" t="s">
-        <v>1582</v>
-      </c>
-      <c r="J74" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K74" s="7" t="s">
-        <v>1787</v>
-      </c>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
-      <c r="N74" s="7"/>
-      <c r="O74" s="7"/>
-      <c r="P74" s="7"/>
-      <c r="Q74" s="7"/>
-      <c r="R74" s="7"/>
-      <c r="S74" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>1668</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>1771</v>
-      </c>
-      <c r="I75" s="7" t="s">
-        <v>1582</v>
-      </c>
-      <c r="J75" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K75" s="7" t="s">
-        <v>1785</v>
-      </c>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7"/>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="7"/>
-      <c r="S75" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>1669</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>1771</v>
-      </c>
-      <c r="I76" s="7" t="s">
-        <v>1582</v>
-      </c>
-      <c r="J76" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K76" s="7" t="s">
-        <v>1786</v>
-      </c>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
-      <c r="N76" s="7"/>
-      <c r="O76" s="7"/>
-      <c r="P76" s="7"/>
-      <c r="Q76" s="7"/>
-      <c r="R76" s="7"/>
-      <c r="S76" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>1771</v>
-      </c>
-      <c r="I77" s="7" t="s">
-        <v>1582</v>
-      </c>
-      <c r="J77" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K77" s="7" t="s">
-        <v>1787</v>
-      </c>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="7"/>
-      <c r="Q77" s="7"/>
-      <c r="R77" s="7"/>
-      <c r="S77" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>1671</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>1764</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="I78" s="7" t="s">
-        <v>1582</v>
-      </c>
-      <c r="J78" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K78" s="7" t="s">
-        <v>1785</v>
-      </c>
-      <c r="L78" s="7"/>
-      <c r="M78" s="7"/>
-      <c r="N78" s="7"/>
-      <c r="O78" s="7"/>
-      <c r="P78" s="7"/>
-      <c r="Q78" s="7"/>
-      <c r="R78" s="7"/>
-      <c r="S78" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>1672</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>1764</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="I79" s="7" t="s">
-        <v>1582</v>
-      </c>
-      <c r="J79" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K79" s="7" t="s">
-        <v>1786</v>
-      </c>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
-      <c r="N79" s="7"/>
-      <c r="O79" s="7"/>
-      <c r="P79" s="7"/>
-      <c r="Q79" s="7"/>
-      <c r="R79" s="7"/>
-      <c r="S79" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>1764</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="I80" s="7" t="s">
-        <v>1582</v>
-      </c>
-      <c r="J80" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K80" s="7" t="s">
-        <v>1787</v>
-      </c>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="7"/>
-      <c r="O80" s="7"/>
-      <c r="P80" s="7"/>
-      <c r="Q80" s="7"/>
-      <c r="R80" s="7"/>
-      <c r="S80" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>1674</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>1766</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="I81" s="7" t="s">
-        <v>1582</v>
-      </c>
-      <c r="J81" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K81" s="7" t="s">
-        <v>1785</v>
-      </c>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="7"/>
-      <c r="O81" s="7"/>
-      <c r="P81" s="7"/>
-      <c r="Q81" s="7"/>
-      <c r="R81" s="7"/>
-      <c r="S81" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>1675</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>1766</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="I82" s="7" t="s">
-        <v>1582</v>
-      </c>
-      <c r="J82" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K82" s="7" t="s">
-        <v>1786</v>
-      </c>
-      <c r="L82" s="7"/>
-      <c r="M82" s="7"/>
-      <c r="N82" s="7"/>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7"/>
-      <c r="Q82" s="7"/>
-      <c r="R82" s="7"/>
-      <c r="S82" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>1676</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>1766</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="I83" s="7" t="s">
-        <v>1582</v>
-      </c>
-      <c r="J83" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K83" s="7" t="s">
-        <v>1787</v>
-      </c>
-      <c r="L83" s="7"/>
-      <c r="M83" s="7"/>
-      <c r="N83" s="7"/>
-      <c r="O83" s="7"/>
-      <c r="P83" s="7"/>
-      <c r="Q83" s="7"/>
-      <c r="R83" s="7"/>
-      <c r="S83" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>1761</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>1769</v>
-      </c>
-      <c r="I84" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J84" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K84" s="7" t="s">
-        <v>1788</v>
-      </c>
-      <c r="L84" s="7"/>
-      <c r="M84" s="7"/>
-      <c r="N84" s="7"/>
-      <c r="O84" s="7"/>
-      <c r="P84" s="7"/>
-      <c r="Q84" s="7"/>
-      <c r="R84" s="7"/>
-      <c r="S84" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>1678</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>1761</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>1769</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J85" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K85" s="7" t="s">
-        <v>1789</v>
-      </c>
-      <c r="L85" s="7"/>
-      <c r="M85" s="7"/>
-      <c r="N85" s="7"/>
-      <c r="O85" s="7"/>
-      <c r="P85" s="7"/>
-      <c r="Q85" s="7"/>
-      <c r="R85" s="7"/>
-      <c r="S85" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>1761</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>1769</v>
-      </c>
-      <c r="I86" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J86" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K86" s="7" t="s">
-        <v>1790</v>
-      </c>
-      <c r="L86" s="7"/>
-      <c r="M86" s="7"/>
-      <c r="N86" s="7"/>
-      <c r="O86" s="7"/>
-      <c r="P86" s="7"/>
-      <c r="Q86" s="7"/>
-      <c r="R86" s="7"/>
-      <c r="S86" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>1761</v>
-      </c>
-      <c r="H87" s="7" t="s">
-        <v>1769</v>
-      </c>
-      <c r="I87" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J87" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K87" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="7"/>
-      <c r="O87" s="7"/>
-      <c r="P87" s="7"/>
-      <c r="Q87" s="7"/>
-      <c r="R87" s="7"/>
-      <c r="S87" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>1681</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>1762</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>1770</v>
-      </c>
-      <c r="I88" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J88" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K88" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="L88" s="7"/>
-      <c r="M88" s="7"/>
-      <c r="N88" s="7"/>
-      <c r="O88" s="7"/>
-      <c r="P88" s="7"/>
-      <c r="Q88" s="7"/>
-      <c r="R88" s="7"/>
-      <c r="S88" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>1681</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>1762</v>
-      </c>
-      <c r="H89" s="7" t="s">
-        <v>1770</v>
-      </c>
-      <c r="I89" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J89" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K89" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="L89" s="7"/>
-      <c r="M89" s="7"/>
-      <c r="N89" s="7"/>
-      <c r="O89" s="7"/>
-      <c r="P89" s="7"/>
-      <c r="Q89" s="7"/>
-      <c r="R89" s="7"/>
-      <c r="S89" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>1682</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>1762</v>
-      </c>
-      <c r="H90" s="7" t="s">
-        <v>1770</v>
-      </c>
-      <c r="I90" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J90" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K90" s="7" t="s">
-        <v>1791</v>
-      </c>
-      <c r="L90" s="7"/>
-      <c r="M90" s="7"/>
-      <c r="N90" s="7"/>
-      <c r="O90" s="7"/>
-      <c r="P90" s="7"/>
-      <c r="Q90" s="7"/>
-      <c r="R90" s="7"/>
-      <c r="S90" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>1683</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H91" s="7" t="s">
-        <v>1771</v>
-      </c>
-      <c r="I91" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J91" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K91" s="7" t="s">
-        <v>1788</v>
-      </c>
-      <c r="L91" s="7"/>
-      <c r="M91" s="7"/>
-      <c r="N91" s="7"/>
-      <c r="O91" s="7"/>
-      <c r="P91" s="7"/>
-      <c r="Q91" s="7"/>
-      <c r="R91" s="7"/>
-      <c r="S91" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>1684</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>1771</v>
-      </c>
-      <c r="I92" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J92" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K92" s="7" t="s">
-        <v>1789</v>
-      </c>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="7"/>
-      <c r="O92" s="7"/>
-      <c r="P92" s="7"/>
-      <c r="Q92" s="7"/>
-      <c r="R92" s="7"/>
-      <c r="S92" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>1685</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>1771</v>
-      </c>
-      <c r="I93" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J93" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K93" s="7" t="s">
-        <v>1790</v>
-      </c>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="7"/>
-      <c r="O93" s="7"/>
-      <c r="P93" s="7"/>
-      <c r="Q93" s="7"/>
-      <c r="R93" s="7"/>
-      <c r="S93" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H94" s="7" t="s">
-        <v>1771</v>
-      </c>
-      <c r="I94" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J94" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K94" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="7"/>
-      <c r="O94" s="7"/>
-      <c r="P94" s="7"/>
-      <c r="Q94" s="7"/>
-      <c r="R94" s="7"/>
-      <c r="S94" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>1687</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>1762</v>
-      </c>
-      <c r="H95" s="7" t="s">
-        <v>1772</v>
-      </c>
-      <c r="I95" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J95" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K95" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="L95" s="7"/>
-      <c r="M95" s="7"/>
-      <c r="N95" s="7"/>
-      <c r="O95" s="7"/>
-      <c r="P95" s="7"/>
-      <c r="Q95" s="7"/>
-      <c r="R95" s="7"/>
-      <c r="S95" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>1687</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>1762</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>1772</v>
-      </c>
-      <c r="I96" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J96" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K96" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="L96" s="7"/>
-      <c r="M96" s="7"/>
-      <c r="N96" s="7"/>
-      <c r="O96" s="7"/>
-      <c r="P96" s="7"/>
-      <c r="Q96" s="7"/>
-      <c r="R96" s="7"/>
-      <c r="S96" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>1688</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>1762</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>1772</v>
-      </c>
-      <c r="I97" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J97" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K97" s="7" t="s">
-        <v>1791</v>
-      </c>
-      <c r="L97" s="7"/>
-      <c r="M97" s="7"/>
-      <c r="N97" s="7"/>
-      <c r="O97" s="7"/>
-      <c r="P97" s="7"/>
-      <c r="Q97" s="7"/>
-      <c r="R97" s="7"/>
-      <c r="S97" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>1683</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>1771</v>
-      </c>
-      <c r="I98" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J98" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K98" s="7" t="s">
-        <v>1788</v>
-      </c>
-      <c r="L98" s="7"/>
-      <c r="M98" s="7"/>
-      <c r="N98" s="7"/>
-      <c r="O98" s="7"/>
-      <c r="P98" s="7"/>
-      <c r="Q98" s="7"/>
-      <c r="R98" s="7"/>
-      <c r="S98" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>1684</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>1771</v>
-      </c>
-      <c r="I99" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J99" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K99" s="7" t="s">
-        <v>1789</v>
-      </c>
-      <c r="L99" s="7"/>
-      <c r="M99" s="7"/>
-      <c r="N99" s="7"/>
-      <c r="O99" s="7"/>
-      <c r="P99" s="7"/>
-      <c r="Q99" s="7"/>
-      <c r="R99" s="7"/>
-      <c r="S99" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>1685</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>1771</v>
-      </c>
-      <c r="I100" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J100" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K100" s="7" t="s">
-        <v>1790</v>
-      </c>
-      <c r="L100" s="7"/>
-      <c r="M100" s="7"/>
-      <c r="N100" s="7"/>
-      <c r="O100" s="7"/>
-      <c r="P100" s="7"/>
-      <c r="Q100" s="7"/>
-      <c r="R100" s="7"/>
-      <c r="S100" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>1686</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>1771</v>
-      </c>
-      <c r="I101" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J101" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K101" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="L101" s="7"/>
-      <c r="M101" s="7"/>
-      <c r="N101" s="7"/>
-      <c r="O101" s="7"/>
-      <c r="P101" s="7"/>
-      <c r="Q101" s="7"/>
-      <c r="R101" s="7"/>
-      <c r="S101" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>1687</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>1762</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>1772</v>
-      </c>
-      <c r="I102" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J102" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K102" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="L102" s="7"/>
-      <c r="M102" s="7"/>
-      <c r="N102" s="7"/>
-      <c r="O102" s="7"/>
-      <c r="P102" s="7"/>
-      <c r="Q102" s="7"/>
-      <c r="R102" s="7"/>
-      <c r="S102" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>1687</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>1762</v>
-      </c>
-      <c r="H103" s="7" t="s">
-        <v>1772</v>
-      </c>
-      <c r="I103" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J103" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K103" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="L103" s="7"/>
-      <c r="M103" s="7"/>
-      <c r="N103" s="7"/>
-      <c r="O103" s="7"/>
-      <c r="P103" s="7"/>
-      <c r="Q103" s="7"/>
-      <c r="R103" s="7"/>
-      <c r="S103" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>1688</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F104" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>1762</v>
-      </c>
-      <c r="H104" s="7" t="s">
-        <v>1772</v>
-      </c>
-      <c r="I104" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J104" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K104" s="7" t="s">
-        <v>1791</v>
-      </c>
-      <c r="L104" s="7"/>
-      <c r="M104" s="7"/>
-      <c r="N104" s="7"/>
-      <c r="O104" s="7"/>
-      <c r="P104" s="7"/>
-      <c r="Q104" s="7"/>
-      <c r="R104" s="7"/>
-      <c r="S104" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A105" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>1764</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="I105" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J105" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K105" s="7" t="s">
-        <v>1788</v>
-      </c>
-      <c r="L105" s="7"/>
-      <c r="M105" s="7"/>
-      <c r="N105" s="7"/>
-      <c r="O105" s="7"/>
-      <c r="P105" s="7"/>
-      <c r="Q105" s="7"/>
-      <c r="R105" s="7"/>
-      <c r="S105" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A106" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>1690</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>1764</v>
-      </c>
-      <c r="H106" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="I106" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J106" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K106" s="7" t="s">
-        <v>1789</v>
-      </c>
-      <c r="L106" s="7"/>
-      <c r="M106" s="7"/>
-      <c r="N106" s="7"/>
-      <c r="O106" s="7"/>
-      <c r="P106" s="7"/>
-      <c r="Q106" s="7"/>
-      <c r="R106" s="7"/>
-      <c r="S106" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A107" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>1691</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>1764</v>
-      </c>
-      <c r="H107" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="I107" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J107" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K107" s="7" t="s">
-        <v>1790</v>
-      </c>
-      <c r="L107" s="7"/>
-      <c r="M107" s="7"/>
-      <c r="N107" s="7"/>
-      <c r="O107" s="7"/>
-      <c r="P107" s="7"/>
-      <c r="Q107" s="7"/>
-      <c r="R107" s="7"/>
-      <c r="S107" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A108" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>1692</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>1764</v>
-      </c>
-      <c r="H108" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="I108" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J108" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K108" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="L108" s="7"/>
-      <c r="M108" s="7"/>
-      <c r="N108" s="7"/>
-      <c r="O108" s="7"/>
-      <c r="P108" s="7"/>
-      <c r="Q108" s="7"/>
-      <c r="R108" s="7"/>
-      <c r="S108" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A109" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>1693</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>1765</v>
-      </c>
-      <c r="H109" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="I109" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J109" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K109" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="L109" s="7"/>
-      <c r="M109" s="7"/>
-      <c r="N109" s="7"/>
-      <c r="O109" s="7"/>
-      <c r="P109" s="7"/>
-      <c r="Q109" s="7"/>
-      <c r="R109" s="7"/>
-      <c r="S109" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A110" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>1693</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>1765</v>
-      </c>
-      <c r="H110" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="I110" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J110" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K110" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="L110" s="7"/>
-      <c r="M110" s="7"/>
-      <c r="N110" s="7"/>
-      <c r="O110" s="7"/>
-      <c r="P110" s="7"/>
-      <c r="Q110" s="7"/>
-      <c r="R110" s="7"/>
-      <c r="S110" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A111" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>1694</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>1765</v>
-      </c>
-      <c r="H111" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="I111" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J111" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K111" s="7" t="s">
-        <v>1791</v>
-      </c>
-      <c r="L111" s="7"/>
-      <c r="M111" s="7"/>
-      <c r="N111" s="7"/>
-      <c r="O111" s="7"/>
-      <c r="P111" s="7"/>
-      <c r="Q111" s="7"/>
-      <c r="R111" s="7"/>
-      <c r="S111" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A112" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G112" s="7" t="s">
-        <v>1766</v>
-      </c>
-      <c r="H112" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="I112" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J112" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K112" s="7" t="s">
-        <v>1788</v>
-      </c>
-      <c r="L112" s="7"/>
-      <c r="M112" s="7"/>
-      <c r="N112" s="7"/>
-      <c r="O112" s="7"/>
-      <c r="P112" s="7"/>
-      <c r="Q112" s="7"/>
-      <c r="R112" s="7"/>
-      <c r="S112" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A113" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>1696</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>1766</v>
-      </c>
-      <c r="H113" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="I113" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J113" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K113" s="7" t="s">
-        <v>1789</v>
-      </c>
-      <c r="L113" s="7"/>
-      <c r="M113" s="7"/>
-      <c r="N113" s="7"/>
-      <c r="O113" s="7"/>
-      <c r="P113" s="7"/>
-      <c r="Q113" s="7"/>
-      <c r="R113" s="7"/>
-      <c r="S113" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A114" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>1697</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F114" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>1766</v>
-      </c>
-      <c r="H114" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="I114" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J114" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K114" s="7" t="s">
-        <v>1790</v>
-      </c>
-      <c r="L114" s="7"/>
-      <c r="M114" s="7"/>
-      <c r="N114" s="7"/>
-      <c r="O114" s="7"/>
-      <c r="P114" s="7"/>
-      <c r="Q114" s="7"/>
-      <c r="R114" s="7"/>
-      <c r="S114" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A115" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>1698</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F115" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>1766</v>
-      </c>
-      <c r="H115" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="I115" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J115" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K115" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="L115" s="7"/>
-      <c r="M115" s="7"/>
-      <c r="N115" s="7"/>
-      <c r="O115" s="7"/>
-      <c r="P115" s="7"/>
-      <c r="Q115" s="7"/>
-      <c r="R115" s="7"/>
-      <c r="S115" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A116" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>1767</v>
-      </c>
-      <c r="H116" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="I116" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J116" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K116" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="L116" s="7"/>
-      <c r="M116" s="7"/>
-      <c r="N116" s="7"/>
-      <c r="O116" s="7"/>
-      <c r="P116" s="7"/>
-      <c r="Q116" s="7"/>
-      <c r="R116" s="7"/>
-      <c r="S116" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A117" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F117" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G117" s="7" t="s">
-        <v>1767</v>
-      </c>
-      <c r="H117" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="I117" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J117" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K117" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="L117" s="7"/>
-      <c r="M117" s="7"/>
-      <c r="N117" s="7"/>
-      <c r="O117" s="7"/>
-      <c r="P117" s="7"/>
-      <c r="Q117" s="7"/>
-      <c r="R117" s="7"/>
-      <c r="S117" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A118" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>1700</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F118" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>1767</v>
-      </c>
-      <c r="H118" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="I118" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J118" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K118" s="7" t="s">
-        <v>1791</v>
-      </c>
-      <c r="L118" s="7"/>
-      <c r="M118" s="7"/>
-      <c r="N118" s="7"/>
-      <c r="O118" s="7"/>
-      <c r="P118" s="7"/>
-      <c r="Q118" s="7"/>
-      <c r="R118" s="7"/>
-      <c r="S118" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A119" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>1701</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E119" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F119" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>1761</v>
-      </c>
-      <c r="H119" s="7" t="s">
-        <v>1769</v>
-      </c>
-      <c r="I119" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J119" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K119" s="7" t="s">
-        <v>1792</v>
-      </c>
-      <c r="L119" s="7"/>
-      <c r="M119" s="7"/>
-      <c r="N119" s="7"/>
-      <c r="O119" s="7"/>
-      <c r="P119" s="7"/>
-      <c r="Q119" s="7"/>
-      <c r="R119" s="7"/>
-      <c r="S119" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A120" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>1702</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F120" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>1761</v>
-      </c>
-      <c r="H120" s="7" t="s">
-        <v>1769</v>
-      </c>
-      <c r="I120" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J120" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K120" s="7" t="s">
-        <v>1793</v>
-      </c>
-      <c r="L120" s="7"/>
-      <c r="M120" s="7"/>
-      <c r="N120" s="7"/>
-      <c r="O120" s="7"/>
-      <c r="P120" s="7"/>
-      <c r="Q120" s="7"/>
-      <c r="R120" s="7"/>
-      <c r="S120" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A121" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>1703</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F121" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>1761</v>
-      </c>
-      <c r="H121" s="7" t="s">
-        <v>1769</v>
-      </c>
-      <c r="I121" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J121" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K121" s="7" t="s">
-        <v>1794</v>
-      </c>
-      <c r="L121" s="7"/>
-      <c r="M121" s="7"/>
-      <c r="N121" s="7"/>
-      <c r="O121" s="7"/>
-      <c r="P121" s="7"/>
-      <c r="Q121" s="7"/>
-      <c r="R121" s="7"/>
-      <c r="S121" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A122" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>1704</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F122" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>1761</v>
-      </c>
-      <c r="H122" s="7" t="s">
-        <v>1769</v>
-      </c>
-      <c r="I122" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J122" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K122" s="7" t="s">
-        <v>1795</v>
-      </c>
-      <c r="L122" s="7"/>
-      <c r="M122" s="7"/>
-      <c r="N122" s="7"/>
-      <c r="O122" s="7"/>
-      <c r="P122" s="7"/>
-      <c r="Q122" s="7"/>
-      <c r="R122" s="7"/>
-      <c r="S122" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A123" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>1705</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>1762</v>
-      </c>
-      <c r="H123" s="7" t="s">
-        <v>1770</v>
-      </c>
-      <c r="I123" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J123" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K123" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="L123" s="7"/>
-      <c r="M123" s="7"/>
-      <c r="N123" s="7"/>
-      <c r="O123" s="7"/>
-      <c r="P123" s="7"/>
-      <c r="Q123" s="7"/>
-      <c r="R123" s="7"/>
-      <c r="S123" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A124" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>1706</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F124" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>1762</v>
-      </c>
-      <c r="H124" s="7" t="s">
-        <v>1770</v>
-      </c>
-      <c r="I124" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J124" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K124" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="L124" s="7"/>
-      <c r="M124" s="7"/>
-      <c r="N124" s="7"/>
-      <c r="O124" s="7"/>
-      <c r="P124" s="7"/>
-      <c r="Q124" s="7"/>
-      <c r="R124" s="7"/>
-      <c r="S124" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A125" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>1707</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G125" s="7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H125" s="7" t="s">
-        <v>1771</v>
-      </c>
-      <c r="I125" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J125" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K125" s="7" t="s">
-        <v>1792</v>
-      </c>
-      <c r="L125" s="7"/>
-      <c r="M125" s="7"/>
-      <c r="N125" s="7"/>
-      <c r="O125" s="7"/>
-      <c r="P125" s="7"/>
-      <c r="Q125" s="7"/>
-      <c r="R125" s="7"/>
-      <c r="S125" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A126" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>1708</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F126" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G126" s="7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H126" s="7" t="s">
-        <v>1771</v>
-      </c>
-      <c r="I126" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J126" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K126" s="7" t="s">
-        <v>1793</v>
-      </c>
-      <c r="L126" s="7"/>
-      <c r="M126" s="7"/>
-      <c r="N126" s="7"/>
-      <c r="O126" s="7"/>
-      <c r="P126" s="7"/>
-      <c r="Q126" s="7"/>
-      <c r="R126" s="7"/>
-      <c r="S126" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A127" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>1709</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F127" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H127" s="7" t="s">
-        <v>1771</v>
-      </c>
-      <c r="I127" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J127" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K127" s="7" t="s">
-        <v>1794</v>
-      </c>
-      <c r="L127" s="7"/>
-      <c r="M127" s="7"/>
-      <c r="N127" s="7"/>
-      <c r="O127" s="7"/>
-      <c r="P127" s="7"/>
-      <c r="Q127" s="7"/>
-      <c r="R127" s="7"/>
-      <c r="S127" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A128" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>1710</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E128" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F128" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H128" s="7" t="s">
-        <v>1771</v>
-      </c>
-      <c r="I128" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J128" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K128" s="7" t="s">
-        <v>1795</v>
-      </c>
-      <c r="L128" s="7"/>
-      <c r="M128" s="7"/>
-      <c r="N128" s="7"/>
-      <c r="O128" s="7"/>
-      <c r="P128" s="7"/>
-      <c r="Q128" s="7"/>
-      <c r="R128" s="7"/>
-      <c r="S128" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A129" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>1711</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F129" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>1762</v>
-      </c>
-      <c r="H129" s="7" t="s">
-        <v>1772</v>
-      </c>
-      <c r="I129" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J129" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K129" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="L129" s="7"/>
-      <c r="M129" s="7"/>
-      <c r="N129" s="7"/>
-      <c r="O129" s="7"/>
-      <c r="P129" s="7"/>
-      <c r="Q129" s="7"/>
-      <c r="R129" s="7"/>
-      <c r="S129" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A130" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>1712</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>1762</v>
-      </c>
-      <c r="H130" s="7" t="s">
-        <v>1772</v>
-      </c>
-      <c r="I130" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J130" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K130" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="L130" s="7"/>
-      <c r="M130" s="7"/>
-      <c r="N130" s="7"/>
-      <c r="O130" s="7"/>
-      <c r="P130" s="7"/>
-      <c r="Q130" s="7"/>
-      <c r="R130" s="7"/>
-      <c r="S130" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A131" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>1707</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F131" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G131" s="7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H131" s="7" t="s">
-        <v>1771</v>
-      </c>
-      <c r="I131" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J131" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K131" s="7" t="s">
-        <v>1792</v>
-      </c>
-      <c r="L131" s="7"/>
-      <c r="M131" s="7"/>
-      <c r="N131" s="7"/>
-      <c r="O131" s="7"/>
-      <c r="P131" s="7"/>
-      <c r="Q131" s="7"/>
-      <c r="R131" s="7"/>
-      <c r="S131" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A132" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>1708</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F132" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H132" s="7" t="s">
-        <v>1771</v>
-      </c>
-      <c r="I132" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J132" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K132" s="7" t="s">
-        <v>1793</v>
-      </c>
-      <c r="L132" s="7"/>
-      <c r="M132" s="7"/>
-      <c r="N132" s="7"/>
-      <c r="O132" s="7"/>
-      <c r="P132" s="7"/>
-      <c r="Q132" s="7"/>
-      <c r="R132" s="7"/>
-      <c r="S132" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A133" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>1709</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G133" s="7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H133" s="7" t="s">
-        <v>1771</v>
-      </c>
-      <c r="I133" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J133" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K133" s="7" t="s">
-        <v>1794</v>
-      </c>
-      <c r="L133" s="7"/>
-      <c r="M133" s="7"/>
-      <c r="N133" s="7"/>
-      <c r="O133" s="7"/>
-      <c r="P133" s="7"/>
-      <c r="Q133" s="7"/>
-      <c r="R133" s="7"/>
-      <c r="S133" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A134" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>1710</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E134" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F134" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G134" s="7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H134" s="7" t="s">
-        <v>1771</v>
-      </c>
-      <c r="I134" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J134" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K134" s="7" t="s">
-        <v>1795</v>
-      </c>
-      <c r="L134" s="7"/>
-      <c r="M134" s="7"/>
-      <c r="N134" s="7"/>
-      <c r="O134" s="7"/>
-      <c r="P134" s="7"/>
-      <c r="Q134" s="7"/>
-      <c r="R134" s="7"/>
-      <c r="S134" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A135" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>1711</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E135" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F135" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G135" s="7" t="s">
-        <v>1762</v>
-      </c>
-      <c r="H135" s="7" t="s">
-        <v>1772</v>
-      </c>
-      <c r="I135" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J135" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K135" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="L135" s="7"/>
-      <c r="M135" s="7"/>
-      <c r="N135" s="7"/>
-      <c r="O135" s="7"/>
-      <c r="P135" s="7"/>
-      <c r="Q135" s="7"/>
-      <c r="R135" s="7"/>
-      <c r="S135" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A136" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>1712</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E136" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F136" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G136" s="7" t="s">
-        <v>1762</v>
-      </c>
-      <c r="H136" s="7" t="s">
-        <v>1772</v>
-      </c>
-      <c r="I136" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J136" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K136" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="L136" s="7"/>
-      <c r="M136" s="7"/>
-      <c r="N136" s="7"/>
-      <c r="O136" s="7"/>
-      <c r="P136" s="7"/>
-      <c r="Q136" s="7"/>
-      <c r="R136" s="7"/>
-      <c r="S136" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A137" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>1713</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E137" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F137" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G137" s="7" t="s">
-        <v>1764</v>
-      </c>
-      <c r="H137" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="I137" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J137" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K137" s="7" t="s">
-        <v>1792</v>
-      </c>
-      <c r="L137" s="7"/>
-      <c r="M137" s="7"/>
-      <c r="N137" s="7"/>
-      <c r="O137" s="7"/>
-      <c r="P137" s="7"/>
-      <c r="Q137" s="7"/>
-      <c r="R137" s="7"/>
-      <c r="S137" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A138" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>1714</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E138" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F138" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G138" s="7" t="s">
-        <v>1768</v>
-      </c>
-      <c r="H138" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="I138" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J138" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K138" s="7" t="s">
-        <v>1793</v>
-      </c>
-      <c r="L138" s="7"/>
-      <c r="M138" s="7"/>
-      <c r="N138" s="7"/>
-      <c r="O138" s="7"/>
-      <c r="P138" s="7"/>
-      <c r="Q138" s="7"/>
-      <c r="R138" s="7"/>
-      <c r="S138" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A139" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>1715</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D139" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E139" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F139" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G139" s="7" t="s">
-        <v>1768</v>
-      </c>
-      <c r="H139" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="I139" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J139" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K139" s="7" t="s">
-        <v>1794</v>
-      </c>
-      <c r="L139" s="7"/>
-      <c r="M139" s="7"/>
-      <c r="N139" s="7"/>
-      <c r="O139" s="7"/>
-      <c r="P139" s="7"/>
-      <c r="Q139" s="7"/>
-      <c r="R139" s="7"/>
-      <c r="S139" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A140" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>1716</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E140" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F140" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G140" s="7" t="s">
-        <v>1768</v>
-      </c>
-      <c r="H140" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="I140" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J140" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K140" s="7" t="s">
-        <v>1795</v>
-      </c>
-      <c r="L140" s="7"/>
-      <c r="M140" s="7"/>
-      <c r="N140" s="7"/>
-      <c r="O140" s="7"/>
-      <c r="P140" s="7"/>
-      <c r="Q140" s="7"/>
-      <c r="R140" s="7"/>
-      <c r="S140" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A141" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>1717</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E141" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F141" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G141" s="7" t="s">
-        <v>1765</v>
-      </c>
-      <c r="H141" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="I141" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J141" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K141" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="L141" s="7"/>
-      <c r="M141" s="7"/>
-      <c r="N141" s="7"/>
-      <c r="O141" s="7"/>
-      <c r="P141" s="7"/>
-      <c r="Q141" s="7"/>
-      <c r="R141" s="7"/>
-      <c r="S141" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A142" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>1718</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E142" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F142" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G142" s="7" t="s">
-        <v>1765</v>
-      </c>
-      <c r="H142" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="I142" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J142" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K142" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="L142" s="7"/>
-      <c r="M142" s="7"/>
-      <c r="N142" s="7"/>
-      <c r="O142" s="7"/>
-      <c r="P142" s="7"/>
-      <c r="Q142" s="7"/>
-      <c r="R142" s="7"/>
-      <c r="S142" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A143" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>1719</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E143" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F143" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G143" s="7" t="s">
-        <v>1766</v>
-      </c>
-      <c r="H143" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="I143" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J143" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K143" s="7" t="s">
-        <v>1792</v>
-      </c>
-      <c r="L143" s="7"/>
-      <c r="M143" s="7"/>
-      <c r="N143" s="7"/>
-      <c r="O143" s="7"/>
-      <c r="P143" s="7"/>
-      <c r="Q143" s="7"/>
-      <c r="R143" s="7"/>
-      <c r="S143" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A144" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>1720</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E144" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F144" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G144" s="7" t="s">
-        <v>1766</v>
-      </c>
-      <c r="H144" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="I144" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J144" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K144" s="7" t="s">
-        <v>1793</v>
-      </c>
-      <c r="L144" s="7"/>
-      <c r="M144" s="7"/>
-      <c r="N144" s="7"/>
-      <c r="O144" s="7"/>
-      <c r="P144" s="7"/>
-      <c r="Q144" s="7"/>
-      <c r="R144" s="7"/>
-      <c r="S144" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A145" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>1721</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E145" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F145" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G145" s="7" t="s">
-        <v>1766</v>
-      </c>
-      <c r="H145" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="I145" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J145" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K145" s="7" t="s">
-        <v>1794</v>
-      </c>
-      <c r="L145" s="7"/>
-      <c r="M145" s="7"/>
-      <c r="N145" s="7"/>
-      <c r="O145" s="7"/>
-      <c r="P145" s="7"/>
-      <c r="Q145" s="7"/>
-      <c r="R145" s="7"/>
-      <c r="S145" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A146" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>1722</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D146" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F146" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G146" s="7" t="s">
-        <v>1766</v>
-      </c>
-      <c r="H146" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="I146" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J146" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K146" s="7" t="s">
-        <v>1795</v>
-      </c>
-      <c r="L146" s="7"/>
-      <c r="M146" s="7"/>
-      <c r="N146" s="7"/>
-      <c r="O146" s="7"/>
-      <c r="P146" s="7"/>
-      <c r="Q146" s="7"/>
-      <c r="R146" s="7"/>
-      <c r="S146" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A147" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>1723</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F147" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G147" s="7" t="s">
-        <v>1767</v>
-      </c>
-      <c r="H147" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="I147" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J147" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K147" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="L147" s="7"/>
-      <c r="M147" s="7"/>
-      <c r="N147" s="7"/>
-      <c r="O147" s="7"/>
-      <c r="P147" s="7"/>
-      <c r="Q147" s="7"/>
-      <c r="R147" s="7"/>
-      <c r="S147" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A148" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>1724</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E148" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F148" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G148" s="7" t="s">
-        <v>1767</v>
-      </c>
-      <c r="H148" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="I148" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J148" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K148" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="L148" s="7"/>
-      <c r="M148" s="7"/>
-      <c r="N148" s="7"/>
-      <c r="O148" s="7"/>
-      <c r="P148" s="7"/>
-      <c r="Q148" s="7"/>
-      <c r="R148" s="7"/>
-      <c r="S148" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A149" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>1725</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E149" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F149" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G149" s="7" t="s">
-        <v>1761</v>
-      </c>
-      <c r="H149" s="7" t="s">
-        <v>1769</v>
-      </c>
-      <c r="I149" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J149" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K149" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="L149" s="7"/>
-      <c r="M149" s="7"/>
-      <c r="N149" s="7"/>
-      <c r="O149" s="7"/>
-      <c r="P149" s="7"/>
-      <c r="Q149" s="7"/>
-      <c r="R149" s="7"/>
-      <c r="S149" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A150" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>1726</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D150" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E150" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F150" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G150" s="7" t="s">
-        <v>1761</v>
-      </c>
-      <c r="H150" s="7" t="s">
-        <v>1769</v>
-      </c>
-      <c r="I150" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J150" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K150" s="7" t="s">
-        <v>1796</v>
-      </c>
-      <c r="L150" s="7"/>
-      <c r="M150" s="7"/>
-      <c r="N150" s="7"/>
-      <c r="O150" s="7"/>
-      <c r="P150" s="7"/>
-      <c r="Q150" s="7"/>
-      <c r="R150" s="7"/>
-      <c r="S150" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A151" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>1727</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D151" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F151" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G151" s="7" t="s">
-        <v>1761</v>
-      </c>
-      <c r="H151" s="7" t="s">
-        <v>1769</v>
-      </c>
-      <c r="I151" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J151" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K151" s="7" t="s">
-        <v>1797</v>
-      </c>
-      <c r="L151" s="7"/>
-      <c r="M151" s="7"/>
-      <c r="N151" s="7"/>
-      <c r="O151" s="7"/>
-      <c r="P151" s="7"/>
-      <c r="Q151" s="7"/>
-      <c r="R151" s="7"/>
-      <c r="S151" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A152" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>1728</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D152" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E152" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F152" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G152" s="7" t="s">
-        <v>1761</v>
-      </c>
-      <c r="H152" s="7" t="s">
-        <v>1769</v>
-      </c>
-      <c r="I152" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J152" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K152" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="L152" s="7"/>
-      <c r="M152" s="7"/>
-      <c r="N152" s="7"/>
-      <c r="O152" s="7"/>
-      <c r="P152" s="7"/>
-      <c r="Q152" s="7"/>
-      <c r="R152" s="7"/>
-      <c r="S152" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A153" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>1729</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E153" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F153" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G153" s="7" t="s">
-        <v>1761</v>
-      </c>
-      <c r="H153" s="7" t="s">
-        <v>1769</v>
-      </c>
-      <c r="I153" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J153" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K153" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="L153" s="7"/>
-      <c r="M153" s="7"/>
-      <c r="N153" s="7"/>
-      <c r="O153" s="7"/>
-      <c r="P153" s="7"/>
-      <c r="Q153" s="7"/>
-      <c r="R153" s="7"/>
-      <c r="S153" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A154" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>1730</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E154" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F154" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G154" s="7" t="s">
-        <v>1761</v>
-      </c>
-      <c r="H154" s="7" t="s">
-        <v>1769</v>
-      </c>
-      <c r="I154" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J154" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K154" s="7" t="s">
-        <v>1798</v>
-      </c>
-      <c r="L154" s="7"/>
-      <c r="M154" s="7"/>
-      <c r="N154" s="7"/>
-      <c r="O154" s="7"/>
-      <c r="P154" s="7"/>
-      <c r="Q154" s="7"/>
-      <c r="R154" s="7"/>
-      <c r="S154" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A155" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>1731</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E155" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F155" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G155" s="7" t="s">
-        <v>1762</v>
-      </c>
-      <c r="H155" s="7" t="s">
-        <v>1770</v>
-      </c>
-      <c r="I155" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J155" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K155" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="L155" s="7"/>
-      <c r="M155" s="7"/>
-      <c r="N155" s="7"/>
-      <c r="O155" s="7"/>
-      <c r="P155" s="7"/>
-      <c r="Q155" s="7"/>
-      <c r="R155" s="7"/>
-      <c r="S155" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A156" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>1732</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E156" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F156" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G156" s="7" t="s">
-        <v>1762</v>
-      </c>
-      <c r="H156" s="7" t="s">
-        <v>1770</v>
-      </c>
-      <c r="I156" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J156" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K156" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="L156" s="7"/>
-      <c r="M156" s="7"/>
-      <c r="N156" s="7"/>
-      <c r="O156" s="7"/>
-      <c r="P156" s="7"/>
-      <c r="Q156" s="7"/>
-      <c r="R156" s="7"/>
-      <c r="S156" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A157" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>1733</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D157" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E157" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F157" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G157" s="7" t="s">
-        <v>1762</v>
-      </c>
-      <c r="H157" s="7" t="s">
-        <v>1770</v>
-      </c>
-      <c r="I157" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J157" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K157" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="L157" s="7"/>
-      <c r="M157" s="7"/>
-      <c r="N157" s="7"/>
-      <c r="O157" s="7"/>
-      <c r="P157" s="7"/>
-      <c r="Q157" s="7"/>
-      <c r="R157" s="7"/>
-      <c r="S157" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A158" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>1734</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D158" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E158" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F158" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G158" s="7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H158" s="7" t="s">
-        <v>1771</v>
-      </c>
-      <c r="I158" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J158" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K158" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="L158" s="7"/>
-      <c r="M158" s="7"/>
-      <c r="N158" s="7"/>
-      <c r="O158" s="7"/>
-      <c r="P158" s="7"/>
-      <c r="Q158" s="7"/>
-      <c r="R158" s="7"/>
-      <c r="S158" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A159" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>1735</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D159" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E159" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F159" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G159" s="7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H159" s="7" t="s">
-        <v>1771</v>
-      </c>
-      <c r="I159" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J159" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K159" s="7" t="s">
-        <v>1796</v>
-      </c>
-      <c r="L159" s="7"/>
-      <c r="M159" s="7"/>
-      <c r="N159" s="7"/>
-      <c r="O159" s="7"/>
-      <c r="P159" s="7"/>
-      <c r="Q159" s="7"/>
-      <c r="R159" s="7"/>
-      <c r="S159" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A160" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B160" s="7" t="s">
-        <v>1736</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D160" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E160" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F160" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G160" s="7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H160" s="7" t="s">
-        <v>1771</v>
-      </c>
-      <c r="I160" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J160" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K160" s="7" t="s">
-        <v>1797</v>
-      </c>
-      <c r="L160" s="7"/>
-      <c r="M160" s="7"/>
-      <c r="N160" s="7"/>
-      <c r="O160" s="7"/>
-      <c r="P160" s="7"/>
-      <c r="Q160" s="7"/>
-      <c r="R160" s="7"/>
-      <c r="S160" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A161" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>1737</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E161" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F161" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G161" s="7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H161" s="7" t="s">
-        <v>1771</v>
-      </c>
-      <c r="I161" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J161" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K161" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="L161" s="7"/>
-      <c r="M161" s="7"/>
-      <c r="N161" s="7"/>
-      <c r="O161" s="7"/>
-      <c r="P161" s="7"/>
-      <c r="Q161" s="7"/>
-      <c r="R161" s="7"/>
-      <c r="S161" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A162" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>1738</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E162" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F162" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G162" s="7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H162" s="7" t="s">
-        <v>1771</v>
-      </c>
-      <c r="I162" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J162" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K162" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="L162" s="7"/>
-      <c r="M162" s="7"/>
-      <c r="N162" s="7"/>
-      <c r="O162" s="7"/>
-      <c r="P162" s="7"/>
-      <c r="Q162" s="7"/>
-      <c r="R162" s="7"/>
-      <c r="S162" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A163" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E163" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F163" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G163" s="7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H163" s="7" t="s">
-        <v>1771</v>
-      </c>
-      <c r="I163" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J163" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K163" s="7" t="s">
-        <v>1798</v>
-      </c>
-      <c r="L163" s="7"/>
-      <c r="M163" s="7"/>
-      <c r="N163" s="7"/>
-      <c r="O163" s="7"/>
-      <c r="P163" s="7"/>
-      <c r="Q163" s="7"/>
-      <c r="R163" s="7"/>
-      <c r="S163" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A164" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>1740</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E164" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F164" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G164" s="7" t="s">
-        <v>1762</v>
-      </c>
-      <c r="H164" s="7" t="s">
-        <v>1772</v>
-      </c>
-      <c r="I164" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J164" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K164" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="L164" s="7"/>
-      <c r="M164" s="7"/>
-      <c r="N164" s="7"/>
-      <c r="O164" s="7"/>
-      <c r="P164" s="7"/>
-      <c r="Q164" s="7"/>
-      <c r="R164" s="7"/>
-      <c r="S164" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A165" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>1741</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D165" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E165" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F165" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G165" s="7" t="s">
-        <v>1762</v>
-      </c>
-      <c r="H165" s="7" t="s">
-        <v>1772</v>
-      </c>
-      <c r="I165" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J165" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K165" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="L165" s="7"/>
-      <c r="M165" s="7"/>
-      <c r="N165" s="7"/>
-      <c r="O165" s="7"/>
-      <c r="P165" s="7"/>
-      <c r="Q165" s="7"/>
-      <c r="R165" s="7"/>
-      <c r="S165" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A166" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>1742</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D166" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E166" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F166" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G166" s="7" t="s">
-        <v>1762</v>
-      </c>
-      <c r="H166" s="7" t="s">
-        <v>1772</v>
-      </c>
-      <c r="I166" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J166" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K166" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="L166" s="7"/>
-      <c r="M166" s="7"/>
-      <c r="N166" s="7"/>
-      <c r="O166" s="7"/>
-      <c r="P166" s="7"/>
-      <c r="Q166" s="7"/>
-      <c r="R166" s="7"/>
-      <c r="S166" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A167" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>1734</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D167" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E167" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F167" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G167" s="7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H167" s="7" t="s">
-        <v>1771</v>
-      </c>
-      <c r="I167" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J167" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K167" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="L167" s="7"/>
-      <c r="M167" s="7"/>
-      <c r="N167" s="7"/>
-      <c r="O167" s="7"/>
-      <c r="P167" s="7"/>
-      <c r="Q167" s="7"/>
-      <c r="R167" s="7"/>
-      <c r="S167" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A168" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>1735</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D168" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E168" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F168" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G168" s="7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H168" s="7" t="s">
-        <v>1771</v>
-      </c>
-      <c r="I168" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J168" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K168" s="7" t="s">
-        <v>1796</v>
-      </c>
-      <c r="L168" s="7"/>
-      <c r="M168" s="7"/>
-      <c r="N168" s="7"/>
-      <c r="O168" s="7"/>
-      <c r="P168" s="7"/>
-      <c r="Q168" s="7"/>
-      <c r="R168" s="7"/>
-      <c r="S168" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A169" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>1736</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E169" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F169" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G169" s="7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H169" s="7" t="s">
-        <v>1771</v>
-      </c>
-      <c r="I169" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J169" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K169" s="7" t="s">
-        <v>1797</v>
-      </c>
-      <c r="L169" s="7"/>
-      <c r="M169" s="7"/>
-      <c r="N169" s="7"/>
-      <c r="O169" s="7"/>
-      <c r="P169" s="7"/>
-      <c r="Q169" s="7"/>
-      <c r="R169" s="7"/>
-      <c r="S169" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A170" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>1737</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D170" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E170" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F170" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G170" s="7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H170" s="7" t="s">
-        <v>1771</v>
-      </c>
-      <c r="I170" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J170" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K170" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="L170" s="7"/>
-      <c r="M170" s="7"/>
-      <c r="N170" s="7"/>
-      <c r="O170" s="7"/>
-      <c r="P170" s="7"/>
-      <c r="Q170" s="7"/>
-      <c r="R170" s="7"/>
-      <c r="S170" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A171" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>1738</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D171" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E171" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F171" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G171" s="7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H171" s="7" t="s">
-        <v>1771</v>
-      </c>
-      <c r="I171" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J171" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K171" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="L171" s="7"/>
-      <c r="M171" s="7"/>
-      <c r="N171" s="7"/>
-      <c r="O171" s="7"/>
-      <c r="P171" s="7"/>
-      <c r="Q171" s="7"/>
-      <c r="R171" s="7"/>
-      <c r="S171" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A172" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D172" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E172" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F172" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G172" s="7" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H172" s="7" t="s">
-        <v>1771</v>
-      </c>
-      <c r="I172" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J172" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K172" s="7" t="s">
-        <v>1798</v>
-      </c>
-      <c r="L172" s="7"/>
-      <c r="M172" s="7"/>
-      <c r="N172" s="7"/>
-      <c r="O172" s="7"/>
-      <c r="P172" s="7"/>
-      <c r="Q172" s="7"/>
-      <c r="R172" s="7"/>
-      <c r="S172" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A173" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>1740</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D173" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E173" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F173" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G173" s="7" t="s">
-        <v>1762</v>
-      </c>
-      <c r="H173" s="7" t="s">
-        <v>1772</v>
-      </c>
-      <c r="I173" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J173" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K173" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="L173" s="7"/>
-      <c r="M173" s="7"/>
-      <c r="N173" s="7"/>
-      <c r="O173" s="7"/>
-      <c r="P173" s="7"/>
-      <c r="Q173" s="7"/>
-      <c r="R173" s="7"/>
-      <c r="S173" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A174" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>1741</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D174" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E174" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F174" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G174" s="7" t="s">
-        <v>1762</v>
-      </c>
-      <c r="H174" s="7" t="s">
-        <v>1772</v>
-      </c>
-      <c r="I174" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J174" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K174" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="L174" s="7"/>
-      <c r="M174" s="7"/>
-      <c r="N174" s="7"/>
-      <c r="O174" s="7"/>
-      <c r="P174" s="7"/>
-      <c r="Q174" s="7"/>
-      <c r="R174" s="7"/>
-      <c r="S174" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A175" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>1742</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D175" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E175" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F175" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G175" s="7" t="s">
-        <v>1762</v>
-      </c>
-      <c r="H175" s="7" t="s">
-        <v>1772</v>
-      </c>
-      <c r="I175" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J175" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K175" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="L175" s="7"/>
-      <c r="M175" s="7"/>
-      <c r="N175" s="7"/>
-      <c r="O175" s="7"/>
-      <c r="P175" s="7"/>
-      <c r="Q175" s="7"/>
-      <c r="R175" s="7"/>
-      <c r="S175" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A176" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>1743</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D176" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E176" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F176" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G176" s="7" t="s">
-        <v>1764</v>
-      </c>
-      <c r="H176" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="I176" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J176" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K176" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="L176" s="7"/>
-      <c r="M176" s="7"/>
-      <c r="N176" s="7"/>
-      <c r="O176" s="7"/>
-      <c r="P176" s="7"/>
-      <c r="Q176" s="7"/>
-      <c r="R176" s="7"/>
-      <c r="S176" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A177" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>1744</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D177" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E177" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F177" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G177" s="7" t="s">
-        <v>1764</v>
-      </c>
-      <c r="H177" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="I177" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J177" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K177" s="7" t="s">
-        <v>1796</v>
-      </c>
-      <c r="L177" s="7"/>
-      <c r="M177" s="7"/>
-      <c r="N177" s="7"/>
-      <c r="O177" s="7"/>
-      <c r="P177" s="7"/>
-      <c r="Q177" s="7"/>
-      <c r="R177" s="7"/>
-      <c r="S177" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A178" s="7" t="s">
-        <v>1799</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>1745</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D178" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E178" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F178" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G178" s="7" t="s">
-        <v>1764</v>
-      </c>
-      <c r="H178" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="I178" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J178" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K178" s="7" t="s">
-        <v>1797</v>
-      </c>
-      <c r="L178" s="7"/>
-      <c r="M178" s="7"/>
-      <c r="N178" s="7"/>
-      <c r="O178" s="7"/>
-      <c r="P178" s="7"/>
-      <c r="Q178" s="7"/>
-      <c r="R178" s="7"/>
-      <c r="S178" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A179" s="7" t="s">
-        <v>1800</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>1746</v>
-      </c>
-      <c r="C179" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D179" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E179" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F179" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G179" s="7" t="s">
-        <v>1764</v>
-      </c>
-      <c r="H179" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="I179" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J179" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K179" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="L179" s="7"/>
-      <c r="M179" s="7"/>
-      <c r="N179" s="7"/>
-      <c r="O179" s="7"/>
-      <c r="P179" s="7"/>
-      <c r="Q179" s="7"/>
-      <c r="R179" s="7"/>
-      <c r="S179" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A180" s="7" t="s">
-        <v>1801</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>1747</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D180" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E180" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F180" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G180" s="7" t="s">
-        <v>1764</v>
-      </c>
-      <c r="H180" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="I180" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J180" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K180" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="L180" s="7"/>
-      <c r="M180" s="7"/>
-      <c r="N180" s="7"/>
-      <c r="O180" s="7"/>
-      <c r="P180" s="7"/>
-      <c r="Q180" s="7"/>
-      <c r="R180" s="7"/>
-      <c r="S180" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A181" s="7" t="s">
-        <v>1802</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>1748</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D181" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E181" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F181" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G181" s="7" t="s">
-        <v>1764</v>
-      </c>
-      <c r="H181" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="I181" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J181" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K181" s="7" t="s">
-        <v>1798</v>
-      </c>
-      <c r="L181" s="7"/>
-      <c r="M181" s="7"/>
-      <c r="N181" s="7"/>
-      <c r="O181" s="7"/>
-      <c r="P181" s="7"/>
-      <c r="Q181" s="7"/>
-      <c r="R181" s="7"/>
-      <c r="S181" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A182" s="7" t="s">
-        <v>1803</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>1749</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D182" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E182" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F182" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G182" s="7" t="s">
-        <v>1765</v>
-      </c>
-      <c r="H182" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="I182" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J182" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K182" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="L182" s="7"/>
-      <c r="M182" s="7"/>
-      <c r="N182" s="7"/>
-      <c r="O182" s="7"/>
-      <c r="P182" s="7"/>
-      <c r="Q182" s="7"/>
-      <c r="R182" s="7"/>
-      <c r="S182" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A183" s="7" t="s">
-        <v>1804</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>1750</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D183" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E183" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F183" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G183" s="7" t="s">
-        <v>1765</v>
-      </c>
-      <c r="H183" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="I183" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J183" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K183" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="L183" s="7"/>
-      <c r="M183" s="7"/>
-      <c r="N183" s="7"/>
-      <c r="O183" s="7"/>
-      <c r="P183" s="7"/>
-      <c r="Q183" s="7"/>
-      <c r="R183" s="7"/>
-      <c r="S183" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A184" s="7" t="s">
-        <v>1805</v>
-      </c>
-      <c r="B184" s="7" t="s">
-        <v>1751</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D184" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E184" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F184" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G184" s="7" t="s">
-        <v>1765</v>
-      </c>
-      <c r="H184" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="I184" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J184" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K184" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="L184" s="7"/>
-      <c r="M184" s="7"/>
-      <c r="N184" s="7"/>
-      <c r="O184" s="7"/>
-      <c r="P184" s="7"/>
-      <c r="Q184" s="7"/>
-      <c r="R184" s="7"/>
-      <c r="S184" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A185" s="7" t="s">
-        <v>1806</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>1752</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D185" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E185" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F185" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G185" s="7" t="s">
-        <v>1766</v>
-      </c>
-      <c r="H185" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="I185" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J185" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K185" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="L185" s="7"/>
-      <c r="M185" s="7"/>
-      <c r="N185" s="7"/>
-      <c r="O185" s="7"/>
-      <c r="P185" s="7"/>
-      <c r="Q185" s="7"/>
-      <c r="R185" s="7"/>
-      <c r="S185" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A186" s="7" t="s">
-        <v>1807</v>
-      </c>
-      <c r="B186" s="7" t="s">
-        <v>1753</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D186" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E186" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F186" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G186" s="7" t="s">
-        <v>1766</v>
-      </c>
-      <c r="H186" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="I186" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J186" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K186" s="7" t="s">
-        <v>1796</v>
-      </c>
-      <c r="L186" s="7"/>
-      <c r="M186" s="7"/>
-      <c r="N186" s="7"/>
-      <c r="O186" s="7"/>
-      <c r="P186" s="7"/>
-      <c r="Q186" s="7"/>
-      <c r="R186" s="7"/>
-      <c r="S186" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A187" s="7" t="s">
-        <v>1808</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>1754</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D187" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E187" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F187" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G187" s="7" t="s">
-        <v>1766</v>
-      </c>
-      <c r="H187" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="I187" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J187" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K187" s="7" t="s">
-        <v>1797</v>
-      </c>
-      <c r="L187" s="7"/>
-      <c r="M187" s="7"/>
-      <c r="N187" s="7"/>
-      <c r="O187" s="7"/>
-      <c r="P187" s="7"/>
-      <c r="Q187" s="7"/>
-      <c r="R187" s="7"/>
-      <c r="S187" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A188" s="7" t="s">
-        <v>1809</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>1755</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D188" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E188" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F188" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G188" s="7" t="s">
-        <v>1766</v>
-      </c>
-      <c r="H188" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="I188" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J188" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K188" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="L188" s="7"/>
-      <c r="M188" s="7"/>
-      <c r="N188" s="7"/>
-      <c r="O188" s="7"/>
-      <c r="P188" s="7"/>
-      <c r="Q188" s="7"/>
-      <c r="R188" s="7"/>
-      <c r="S188" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A189" s="7" t="s">
-        <v>1810</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>1756</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D189" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E189" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F189" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G189" s="7" t="s">
-        <v>1766</v>
-      </c>
-      <c r="H189" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="I189" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J189" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K189" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="L189" s="7"/>
-      <c r="M189" s="7"/>
-      <c r="N189" s="7"/>
-      <c r="O189" s="7"/>
-      <c r="P189" s="7"/>
-      <c r="Q189" s="7"/>
-      <c r="R189" s="7"/>
-      <c r="S189" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A190" s="7" t="s">
-        <v>1811</v>
-      </c>
-      <c r="B190" s="7" t="s">
-        <v>1757</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D190" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E190" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F190" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G190" s="7" t="s">
-        <v>1766</v>
-      </c>
-      <c r="H190" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="I190" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J190" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K190" s="7" t="s">
-        <v>1798</v>
-      </c>
-      <c r="L190" s="7"/>
-      <c r="M190" s="7"/>
-      <c r="N190" s="7"/>
-      <c r="O190" s="7"/>
-      <c r="P190" s="7"/>
-      <c r="Q190" s="7"/>
-      <c r="R190" s="7"/>
-      <c r="S190" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A191" s="7" t="s">
-        <v>1812</v>
-      </c>
-      <c r="B191" s="7" t="s">
-        <v>1758</v>
-      </c>
-      <c r="C191" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D191" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E191" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F191" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G191" s="7" t="s">
-        <v>1767</v>
-      </c>
-      <c r="H191" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="I191" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J191" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K191" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="L191" s="7"/>
-      <c r="M191" s="7"/>
-      <c r="N191" s="7"/>
-      <c r="O191" s="7"/>
-      <c r="P191" s="7"/>
-      <c r="Q191" s="7"/>
-      <c r="R191" s="7"/>
-      <c r="S191" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A192" s="7" t="s">
-        <v>1813</v>
-      </c>
-      <c r="B192" s="7" t="s">
-        <v>1759</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D192" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E192" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F192" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G192" s="7" t="s">
-        <v>1767</v>
-      </c>
-      <c r="H192" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="I192" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J192" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K192" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="L192" s="7"/>
-      <c r="M192" s="7"/>
-      <c r="N192" s="7"/>
-      <c r="O192" s="7"/>
-      <c r="P192" s="7"/>
-      <c r="Q192" s="7"/>
-      <c r="R192" s="7"/>
-      <c r="S192" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A193" s="7" t="s">
-        <v>1814</v>
-      </c>
-      <c r="B193" s="7" t="s">
-        <v>1760</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D193" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E193" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F193" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G193" s="7" t="s">
-        <v>1767</v>
-      </c>
-      <c r="H193" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="I193" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J193" s="7" t="s">
-        <v>1773</v>
-      </c>
-      <c r="K193" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="L193" s="7"/>
-      <c r="M193" s="7"/>
-      <c r="N193" s="7"/>
-      <c r="O193" s="7"/>
-      <c r="P193" s="7"/>
-      <c r="Q193" s="7"/>
-      <c r="R193" s="7"/>
-      <c r="S193" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:T73" xr:uid="{BF3BB9DA-B3B0-41E6-8B8B-15C9970B6465}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA3C9CF-535A-4AAC-A86B-00017D890978}">
+  <dimension ref="A1:A120"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A120"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="18" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="18" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="18" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="18" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Regression/sprint_regression/NRG_regression/inbox_files/Regression_test_scenarios.xlsx
+++ b/Regression/sprint_regression/NRG_regression/inbox_files/Regression_test_scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMALYGIN\Downloads\Regression-master (5)\Regression-master\Regression\sprint_regression\NRG_regression\inbox_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B91B639-E507-4EF3-AE2D-7E5C16CAC130}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9589ED0B-FF7B-40A7-BD25-197D02804BBE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1365" yWindow="870" windowWidth="26505" windowHeight="10365" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">_1!$A$1:$T$174</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">August!$A$1:$T$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">August!$A$1:$T$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Regression!$A$1:$S$170</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet1!$A$1:$W$1</definedName>
   </definedNames>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6059" uniqueCount="1708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5435" uniqueCount="1655">
   <si>
     <t>ts</t>
   </si>
@@ -4873,33 +4873,12 @@
     <t>Oh</t>
   </si>
   <si>
-    <t>36082AEB-A914</t>
-  </si>
-  <si>
-    <t>2E210FC6-68A9</t>
-  </si>
-  <si>
-    <t>03A1900F-BBE3</t>
-  </si>
-  <si>
     <t>g3cd496138f0f621</t>
   </si>
   <si>
-    <t>4914EB34-5035</t>
-  </si>
-  <si>
-    <t>6379C337-03E1</t>
-  </si>
-  <si>
     <t>24B46FC8-E47E</t>
   </si>
   <si>
-    <t>1535DF70-C540</t>
-  </si>
-  <si>
-    <t>2860A390-046E</t>
-  </si>
-  <si>
     <t>232728E2-2D98</t>
   </si>
   <si>
@@ -4912,102 +4891,18 @@
     <t>g4ec4dfd3b2fa78b</t>
   </si>
   <si>
-    <t>8622A87B-8511</t>
-  </si>
-  <si>
-    <t>7D48AF1E-1108</t>
-  </si>
-  <si>
-    <t>7D608D40-4E98</t>
-  </si>
-  <si>
     <t>847C40E0-739A</t>
   </si>
   <si>
-    <t>80F30CA8-553B</t>
-  </si>
-  <si>
-    <t>ge2b32f3a1ce03f8</t>
-  </si>
-  <si>
-    <t>g83f5c8f17af2f31</t>
-  </si>
-  <si>
-    <t>ga67d9a992f20d9b</t>
-  </si>
-  <si>
-    <t>g473172eadaebcf4</t>
-  </si>
-  <si>
-    <t>37B10EEE-F078</t>
-  </si>
-  <si>
     <t>37F51E9E-9CBB</t>
   </si>
   <si>
-    <t>1A21FB8D-010F</t>
-  </si>
-  <si>
-    <t>1B35D3A0-8AF5</t>
-  </si>
-  <si>
-    <t>g0e22e29595cf30a</t>
-  </si>
-  <si>
-    <t>57C8542B-62A9</t>
-  </si>
-  <si>
-    <t>5979FC88-B631</t>
-  </si>
-  <si>
-    <t>g59a0e8dbba3e918</t>
-  </si>
-  <si>
-    <t>755D56BD-E11A</t>
-  </si>
-  <si>
-    <t>7C9C9EF1-4CD6</t>
-  </si>
-  <si>
-    <t>376110C5-B2B6</t>
-  </si>
-  <si>
-    <t>377AEB40-7905</t>
-  </si>
-  <si>
-    <t>g4b29e320b3da894</t>
-  </si>
-  <si>
-    <t>18016F05-5101</t>
-  </si>
-  <si>
-    <t>18A5FD4E-57C8</t>
-  </si>
-  <si>
     <t>557F6E10-4240</t>
   </si>
   <si>
-    <t>55DBE8AE-97A0</t>
-  </si>
-  <si>
-    <t>g3fd42f05036e57c</t>
-  </si>
-  <si>
-    <t>74DA1BCE-B132</t>
-  </si>
-  <si>
-    <t>75182FB7-CE39</t>
-  </si>
-  <si>
     <t>g80d857b8040247c</t>
   </si>
   <si>
-    <t>452E1E6B-BAEE</t>
-  </si>
-  <si>
-    <t>4375F5C9-F1F1</t>
-  </si>
-  <si>
     <t>447FD118-0A2A</t>
   </si>
   <si>
@@ -5026,27 +4921,9 @@
     <t>gf3c39dffedb5971</t>
   </si>
   <si>
-    <t>61FDB556-2F8B</t>
-  </si>
-  <si>
-    <t>5E32CF3B-25F8</t>
-  </si>
-  <si>
-    <t>5FF904B4-18B4</t>
-  </si>
-  <si>
-    <t>ge1992633ecf1821</t>
-  </si>
-  <si>
     <t>gf3762f385df03d0</t>
   </si>
   <si>
-    <t>8A753D9B-4625</t>
-  </si>
-  <si>
-    <t>878AE0CF-7828</t>
-  </si>
-  <si>
     <t>896E0EF7-170E</t>
   </si>
   <si>
@@ -5089,33 +4966,12 @@
     <t>ComEd</t>
   </si>
   <si>
-    <t>Nicor</t>
-  </si>
-  <si>
-    <t>peco_gas</t>
-  </si>
-  <si>
     <t>Peco</t>
   </si>
   <si>
-    <t>camb</t>
-  </si>
-  <si>
-    <t>WMECo</t>
-  </si>
-  <si>
-    <t>ACE</t>
-  </si>
-  <si>
-    <t>JCPL</t>
-  </si>
-  <si>
     <t>SJERSEY</t>
   </si>
   <si>
-    <t>BGE</t>
-  </si>
-  <si>
     <t>AEPS</t>
   </si>
   <si>
@@ -5131,18 +4987,6 @@
     <t>ts_180</t>
   </si>
   <si>
-    <t>ts_181</t>
-  </si>
-  <si>
-    <t>ts_182</t>
-  </si>
-  <si>
-    <t>ts_183</t>
-  </si>
-  <si>
-    <t>ts_184</t>
-  </si>
-  <si>
     <t>ts_185</t>
   </si>
   <si>
@@ -5158,13 +5002,10 @@
     <t>ts_189</t>
   </si>
   <si>
-    <t>ts_190</t>
-  </si>
-  <si>
-    <t>ts_191</t>
-  </si>
-  <si>
     <t>ts_192</t>
+  </si>
+  <si>
+    <t>peco-gas</t>
   </si>
 </sst>
 </file>
@@ -22656,10 +22497,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443A835E-F1F0-4776-BDA6-D04A58D518EA}">
-  <dimension ref="A1:S73"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22728,7 +22569,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>1610</v>
@@ -22737,7 +22578,7 @@
         <v>375</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>377</v>
@@ -22746,10 +22587,10 @@
         <v>378</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>1669</v>
+        <v>1631</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>1676</v>
+        <v>393</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>1580</v>
@@ -22758,7 +22599,7 @@
         <v>407</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>411</v>
+        <v>1640</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -22773,10 +22614,10 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>375</v>
@@ -22791,19 +22632,19 @@
         <v>378</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>1671</v>
+        <v>1629</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>1678</v>
+        <v>1638</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>407</v>
+        <v>1639</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>411</v>
+        <v>1654</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -22818,10 +22659,10 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>375</v>
@@ -22836,19 +22677,19 @@
         <v>378</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>1670</v>
+        <v>1629</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>1679</v>
+        <v>1638</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>1680</v>
+        <v>1639</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>1682</v>
+        <v>422</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -22863,16 +22704,16 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>377</v>
@@ -22881,19 +22722,19 @@
         <v>378</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>1672</v>
+        <v>1629</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>393</v>
+        <v>1638</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>407</v>
+        <v>1639</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>1681</v>
+        <v>1654</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -22908,10 +22749,10 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>375</v>
@@ -22926,19 +22767,19 @@
         <v>378</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>1672</v>
+        <v>1632</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>407</v>
+        <v>1639</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -22953,10 +22794,10 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>375</v>
@@ -22971,19 +22812,19 @@
         <v>378</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>1673</v>
+        <v>1632</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>394</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>1680</v>
+        <v>1639</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>1682</v>
+        <v>1654</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -22998,16 +22839,16 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>377</v>
@@ -23016,19 +22857,19 @@
         <v>378</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>1670</v>
+        <v>1633</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>1679</v>
+        <v>395</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>1581</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>1680</v>
+        <v>407</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>422</v>
+        <v>1641</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -23043,16 +22884,16 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>377</v>
@@ -23061,19 +22902,19 @@
         <v>378</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>1670</v>
+        <v>1634</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>1679</v>
+        <v>396</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>1581</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>1680</v>
+        <v>1639</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>414</v>
+        <v>1654</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -23088,10 +22929,10 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>375</v>
@@ -23106,19 +22947,19 @@
         <v>378</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>1670</v>
+        <v>1629</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>1679</v>
+        <v>1636</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>1680</v>
+        <v>1639</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>417</v>
+        <v>1642</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -23133,16 +22974,16 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>377</v>
@@ -23151,19 +22992,19 @@
         <v>378</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>1670</v>
+        <v>1632</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>1679</v>
+        <v>394</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>1680</v>
+        <v>1639</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>1683</v>
+        <v>440</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -23178,10 +23019,10 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1616</v>
+        <v>1619</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>375</v>
@@ -23196,19 +23037,19 @@
         <v>378</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>1670</v>
+        <v>1628</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>1679</v>
+        <v>1635</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>1680</v>
+        <v>407</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>422</v>
+        <v>1643</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -23223,10 +23064,10 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>375</v>
@@ -23241,19 +23082,19 @@
         <v>378</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>1670</v>
+        <v>1629</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>1679</v>
+        <v>1636</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>1680</v>
+        <v>1639</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>1683</v>
+        <v>448</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -23268,16 +23109,16 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>71</v>
+        <v>184</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>377</v>
@@ -23286,19 +23127,19 @@
         <v>378</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>1673</v>
+        <v>1630</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>394</v>
+        <v>1637</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>1680</v>
+        <v>407</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>422</v>
+        <v>1643</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -23313,16 +23154,16 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>377</v>
@@ -23331,19 +23172,19 @@
         <v>378</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>1673</v>
+        <v>1629</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>394</v>
+        <v>1638</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>1680</v>
+        <v>1639</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>1683</v>
+        <v>446</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -23358,16 +23199,16 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>377</v>
@@ -23376,19 +23217,19 @@
         <v>378</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>1674</v>
+        <v>1629</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>395</v>
+        <v>1638</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>407</v>
+        <v>1639</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>1684</v>
+        <v>445</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
@@ -23403,16 +23244,16 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>84</v>
+        <v>187</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>377</v>
@@ -23421,19 +23262,19 @@
         <v>378</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>1675</v>
+        <v>1629</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>396</v>
+        <v>1638</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>1680</v>
+        <v>1639</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
@@ -23448,16 +23289,16 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>85</v>
+        <v>193</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>375</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>377</v>
@@ -23466,19 +23307,19 @@
         <v>378</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>1675</v>
+        <v>1630</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>396</v>
+        <v>1637</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>1680</v>
+        <v>407</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>414</v>
+        <v>1643</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
@@ -23493,7 +23334,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>86</v>
+        <v>1647</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>1625</v>
@@ -23511,19 +23352,19 @@
         <v>378</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>1675</v>
+        <v>1631</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>1680</v>
+        <v>407</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>423</v>
+        <v>1643</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
@@ -23538,7 +23379,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>88</v>
+        <v>1652</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>1626</v>
@@ -23556,19 +23397,19 @@
         <v>378</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>1675</v>
+        <v>1633</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>1680</v>
+        <v>407</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>1683</v>
+        <v>1643</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
@@ -23583,7 +23424,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>89</v>
+        <v>1653</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>1627</v>
@@ -23601,19 +23442,19 @@
         <v>378</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>1675</v>
+        <v>1634</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>396</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>1680</v>
+        <v>1639</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
@@ -23626,2348 +23467,8 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>1628</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>1669</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>1676</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>1582</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>1685</v>
-      </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>1629</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>1669</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>1676</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>1582</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>1686</v>
-      </c>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>1630</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>1671</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>1678</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>1582</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>1686</v>
-      </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>1631</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>1669</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>1676</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>1688</v>
-      </c>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>1632</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>1670</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>1677</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>1632</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>1670</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>1677</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>1633</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>1670</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>1677</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>1689</v>
-      </c>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>1634</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>1670</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>1679</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>1634</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>1670</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>1679</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>1634</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>1670</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>1679</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>1635</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>1670</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>1679</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>1689</v>
-      </c>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>1636</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>1687</v>
-      </c>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>1637</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>1673</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>1637</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>1673</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>1638</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>1673</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>1689</v>
-      </c>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>1639</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>1674</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>1640</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>1675</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>1640</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>1675</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>1641</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>1675</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>1583</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>1689</v>
-      </c>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>1642</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>1670</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>1677</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>1643</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>1670</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>1677</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>1644</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>1671</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>1678</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>1690</v>
-      </c>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>1670</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>1679</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>1646</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>1670</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>1679</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>1670</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>1679</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>1646</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>1670</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>1679</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>1647</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>1673</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>1648</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>1673</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>1649</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>1674</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>1690</v>
-      </c>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>1650</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>1675</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="7"/>
-      <c r="S51" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>1675</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>1584</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>1652</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>1669</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>1676</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>1691</v>
-      </c>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="7"/>
-      <c r="S53" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>1653</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>1670</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>1677</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="7"/>
-      <c r="S54" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>1654</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>1670</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>1677</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>1655</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>1670</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>1677</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="7"/>
-      <c r="S56" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>1656</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>1671</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>1678</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K57" s="7" t="s">
-        <v>1691</v>
-      </c>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
-      <c r="S57" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>1657</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>1670</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>1679</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="7"/>
-      <c r="S58" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>1658</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>1670</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>1679</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="7"/>
-      <c r="S59" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>1670</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>1679</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="7"/>
-      <c r="R60" s="7"/>
-      <c r="S60" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>1656</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>1671</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>1678</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>1691</v>
-      </c>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="7"/>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="7"/>
-      <c r="S61" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>1657</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>1670</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>1679</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="7"/>
-      <c r="Q62" s="7"/>
-      <c r="R62" s="7"/>
-      <c r="S62" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>1658</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>1670</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>1679</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J63" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="7"/>
-      <c r="Q63" s="7"/>
-      <c r="R63" s="7"/>
-      <c r="S63" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>1670</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>1679</v>
-      </c>
-      <c r="I64" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K64" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="7"/>
-      <c r="Q64" s="7"/>
-      <c r="R64" s="7"/>
-      <c r="S64" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
-        <v>1695</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>1660</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>1691</v>
-      </c>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="7"/>
-      <c r="S65" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>1696</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>1661</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>1673</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="7"/>
-      <c r="S66" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>1697</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>1662</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>1673</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K67" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
-        <v>1698</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>1663</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>1673</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K68" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
-        <v>1699</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>1664</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>1674</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K69" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
-      <c r="Q69" s="7"/>
-      <c r="R69" s="7"/>
-      <c r="S69" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
-        <v>1704</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>1665</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>1674</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>1691</v>
-      </c>
-      <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="7"/>
-      <c r="O70" s="7"/>
-      <c r="P70" s="7"/>
-      <c r="Q70" s="7"/>
-      <c r="R70" s="7"/>
-      <c r="S70" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
-        <v>1705</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>1666</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>1675</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K71" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
-      <c r="N71" s="7"/>
-      <c r="O71" s="7"/>
-      <c r="P71" s="7"/>
-      <c r="Q71" s="7"/>
-      <c r="R71" s="7"/>
-      <c r="S71" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>1706</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>1675</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J72" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="7"/>
-      <c r="O72" s="7"/>
-      <c r="P72" s="7"/>
-      <c r="Q72" s="7"/>
-      <c r="R72" s="7"/>
-      <c r="S72" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
-        <v>1707</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>1668</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>1675</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>1585</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>1680</v>
-      </c>
-      <c r="K73" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
-      <c r="Q73" s="7"/>
-      <c r="R73" s="7"/>
-      <c r="S73" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:T73" xr:uid="{BF3BB9DA-B3B0-41E6-8B8B-15C9970B6465}"/>
+  <autoFilter ref="A1:T21" xr:uid="{BF3BB9DA-B3B0-41E6-8B8B-15C9970B6465}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26550,37 +24051,37 @@
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1692</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
-        <v>1693</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="18" t="s">
-        <v>1694</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1700</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1701</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="18" t="s">
-        <v>1702</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="18" t="s">
-        <v>1703</v>
+        <v>1651</v>
       </c>
     </row>
   </sheetData>

--- a/Regression/sprint_regression/NRG_regression/inbox_files/Regression_test_scenarios.xlsx
+++ b/Regression/sprint_regression/NRG_regression/inbox_files/Regression_test_scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMALYGIN\Downloads\Regression-master (5)\Regression-master\Regression\sprint_regression\NRG_regression\inbox_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9589ED0B-FF7B-40A7-BD25-197D02804BBE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C48D5F-7996-4493-8935-4D3E6BAE4255}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="870" windowWidth="26505" windowHeight="10365" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">_1!$A$1:$T$174</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">August!$A$1:$T$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">August!$A$1:$T$193</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Regression!$A$1:$S$170</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet1!$A$1:$W$1</definedName>
   </definedNames>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5435" uniqueCount="1655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7499" uniqueCount="1817">
   <si>
     <t>ts</t>
   </si>
@@ -5005,14 +5005,500 @@
     <t>ts_192</t>
   </si>
   <si>
-    <t>peco-gas</t>
+    <t>NRG</t>
+  </si>
+  <si>
+    <t>g1e9ff4301781160</t>
+  </si>
+  <si>
+    <t>36082AEB-A914</t>
+  </si>
+  <si>
+    <t>2BBF9D5C-2CAB</t>
+  </si>
+  <si>
+    <t>Nicor</t>
+  </si>
+  <si>
+    <t>2AAFD762-0331</t>
+  </si>
+  <si>
+    <t>PeopGas</t>
+  </si>
+  <si>
+    <t>g0ffd239f79dd80f</t>
+  </si>
+  <si>
+    <t>2E210FC6-68A9</t>
+  </si>
+  <si>
+    <t>03A1900F-BBE3</t>
+  </si>
+  <si>
+    <t>03781125-A81B</t>
+  </si>
+  <si>
+    <t>4914EB34-5035</t>
+  </si>
+  <si>
+    <t>6379C337-03E1</t>
+  </si>
+  <si>
+    <t>629DF55E-3023</t>
+  </si>
+  <si>
+    <t>gdceb1a8c5247ad8</t>
+  </si>
+  <si>
+    <t>4AB14574-29F2</t>
+  </si>
+  <si>
+    <t>7490FDEA-793E</t>
+  </si>
+  <si>
+    <t>72D65F4A-1EDD</t>
+  </si>
+  <si>
+    <t>g0d6d1a897f6ec88</t>
+  </si>
+  <si>
+    <t>PPL</t>
+  </si>
+  <si>
+    <t>g7cd1f8883ebc595</t>
+  </si>
+  <si>
+    <t>WPP</t>
+  </si>
+  <si>
+    <t>1535DF70-C540</t>
+  </si>
+  <si>
+    <t>216E706E-28D2</t>
+  </si>
+  <si>
+    <t>2860A390-046E</t>
+  </si>
+  <si>
+    <t>peco_gas</t>
+  </si>
+  <si>
+    <t>22990899-AEFC</t>
+  </si>
+  <si>
+    <t>gebdd7dff4761ce8</t>
+  </si>
+  <si>
+    <t>DUQ</t>
+  </si>
+  <si>
+    <t>gc57e224f65021bb</t>
+  </si>
+  <si>
+    <t>METED</t>
+  </si>
+  <si>
+    <t>gf79de3266c7667f</t>
+  </si>
+  <si>
+    <t>g867d794ac3be3f9</t>
+  </si>
+  <si>
+    <t>Penelec</t>
+  </si>
+  <si>
+    <t>g3dc57ec1c47c98c</t>
+  </si>
+  <si>
+    <t>PENN</t>
+  </si>
+  <si>
+    <t>gcf654f16abda2a5</t>
+  </si>
+  <si>
+    <t>g725a8cf13741a55</t>
+  </si>
+  <si>
+    <t>g910141423ba0d25</t>
+  </si>
+  <si>
+    <t>g12317ae4dc85209</t>
+  </si>
+  <si>
+    <t>g470e111a6290b8c</t>
+  </si>
+  <si>
+    <t>gf4b5d90e8fb59b0</t>
+  </si>
+  <si>
+    <t>gb495d83c5209d56</t>
+  </si>
+  <si>
+    <t>5A64B7C0-B5E3</t>
+  </si>
+  <si>
+    <t>5B8C76F9-F197</t>
+  </si>
+  <si>
+    <t>5D39F27F-2797</t>
+  </si>
+  <si>
+    <t>5C11F873-F7D1</t>
+  </si>
+  <si>
+    <t>g779e9d2299d174f</t>
+  </si>
+  <si>
+    <t>g3002991f69c4e2e</t>
+  </si>
+  <si>
+    <t>g896787ef3838a7a</t>
+  </si>
+  <si>
+    <t>ga79faee162cbcd4</t>
+  </si>
+  <si>
+    <t>ge674f825c543ad9</t>
+  </si>
+  <si>
+    <t>ge05202a63da20b5</t>
+  </si>
+  <si>
+    <t>8622A87B-8511</t>
+  </si>
+  <si>
+    <t>7D48AF1E-1108</t>
+  </si>
+  <si>
+    <t>7D608D40-4E98</t>
+  </si>
+  <si>
+    <t>86B5D83F-B753</t>
+  </si>
+  <si>
+    <t>80F30CA8-553B</t>
+  </si>
+  <si>
+    <t>g9518ce175cb9434</t>
+  </si>
+  <si>
+    <t>MECO</t>
+  </si>
+  <si>
+    <t>ge2b32f3a1ce03f8</t>
+  </si>
+  <si>
+    <t>camb</t>
+  </si>
+  <si>
+    <t>g83f5c8f17af2f31</t>
+  </si>
+  <si>
+    <t>WMECo</t>
+  </si>
+  <si>
+    <t>ged13ef311039f6a</t>
+  </si>
+  <si>
+    <t>g39927cc72b73d3d</t>
+  </si>
+  <si>
+    <t>ga67d9a992f20d9b</t>
+  </si>
+  <si>
+    <t>gb42eb729c033295</t>
+  </si>
+  <si>
+    <t>g0fe4868222712bc</t>
+  </si>
+  <si>
+    <t>g190059a535193b8</t>
+  </si>
+  <si>
+    <t>g2313c766b000781</t>
+  </si>
+  <si>
+    <t>geaa79f7847626ed</t>
+  </si>
+  <si>
+    <t>gc9ca9626155ca8c</t>
+  </si>
+  <si>
+    <t>gcec6dff18f17173</t>
+  </si>
+  <si>
+    <t>ACE</t>
+  </si>
+  <si>
+    <t>g473172eadaebcf4</t>
+  </si>
+  <si>
+    <t>JCPL</t>
+  </si>
+  <si>
+    <t>g533d27412ad502e</t>
+  </si>
+  <si>
+    <t>PSEG</t>
+  </si>
+  <si>
+    <t>g20310ae88d9f421</t>
+  </si>
+  <si>
+    <t>37B10EEE-F078</t>
+  </si>
+  <si>
+    <t>pseg_gas</t>
+  </si>
+  <si>
+    <t>g971b69cb5a23e81</t>
+  </si>
+  <si>
+    <t>ge48770944f0461e</t>
+  </si>
+  <si>
+    <t>g74198ae1214790a</t>
+  </si>
+  <si>
+    <t>gf451858ed14c806</t>
+  </si>
+  <si>
+    <t>1A21FB8D-010F</t>
+  </si>
+  <si>
+    <t>1B35D3A0-8AF5</t>
+  </si>
+  <si>
+    <t>g0e22e29595cf30a</t>
+  </si>
+  <si>
+    <t>g3d8a367e1894fb0</t>
+  </si>
+  <si>
+    <t>gdc7e5f10a320528</t>
+  </si>
+  <si>
+    <t>g5fe61c32cd6f952</t>
+  </si>
+  <si>
+    <t>57C8542B-62A9</t>
+  </si>
+  <si>
+    <t>5979FC88-B631</t>
+  </si>
+  <si>
+    <t>g1709e12350216e1</t>
+  </si>
+  <si>
+    <t>g14e35e7c78ffbf8</t>
+  </si>
+  <si>
+    <t>g3cd178ee04209ba</t>
+  </si>
+  <si>
+    <t>g59a0e8dbba3e918</t>
+  </si>
+  <si>
+    <t>755D56BD-E11A</t>
+  </si>
+  <si>
+    <t>7C9C9EF1-4CD6</t>
+  </si>
+  <si>
+    <t>gcdcfff1ec5765a2</t>
+  </si>
+  <si>
+    <t>BGE</t>
+  </si>
+  <si>
+    <t>g34ac849b578aeb0</t>
+  </si>
+  <si>
+    <t>Delmarva</t>
+  </si>
+  <si>
+    <t>g579ebfc9c4cf598</t>
+  </si>
+  <si>
+    <t>Pepco</t>
+  </si>
+  <si>
+    <t>gdc60c9314c0c467</t>
+  </si>
+  <si>
+    <t>APMD</t>
+  </si>
+  <si>
+    <t>376110C5-B2B6</t>
+  </si>
+  <si>
+    <t>377AEB40-7905</t>
+  </si>
+  <si>
+    <t>g4b29e320b3da894</t>
+  </si>
+  <si>
+    <t>gf0d966059012d7b</t>
+  </si>
+  <si>
+    <t>g4ababdb93495949</t>
+  </si>
+  <si>
+    <t>g93f3e822270a45c</t>
+  </si>
+  <si>
+    <t>18016F05-5101</t>
+  </si>
+  <si>
+    <t>18A5FD4E-57C8</t>
+  </si>
+  <si>
+    <t>g0fb0a295f39a964</t>
+  </si>
+  <si>
+    <t>g1d62070f1551e18</t>
+  </si>
+  <si>
+    <t>10,000 bonus/ 2 points per $1  - August 2020 DM</t>
+  </si>
+  <si>
+    <t>g883f4ea8032bb28</t>
+  </si>
+  <si>
+    <t>g3fb1b1c02cc9493</t>
+  </si>
+  <si>
+    <t>55DBE8AE-97A0</t>
+  </si>
+  <si>
+    <t>g3fd42f05036e57c</t>
+  </si>
+  <si>
+    <t>g5b8d543dd7e8a60</t>
+  </si>
+  <si>
+    <t>g1b6efca61ac4e6a</t>
+  </si>
+  <si>
+    <t>g27a0bbceeab86c4</t>
+  </si>
+  <si>
+    <t>74DA1BCE-B132</t>
+  </si>
+  <si>
+    <t>75182FB7-CE39</t>
+  </si>
+  <si>
+    <t>gcbb7ad24e239b2e</t>
+  </si>
+  <si>
+    <t>g8a473b04c5f4f9f</t>
+  </si>
+  <si>
+    <t>DPL</t>
+  </si>
+  <si>
+    <t>ge12ff045ce17f39</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>g870d3a02875e6b2</t>
+  </si>
+  <si>
+    <t>g89bd5172b42b3af</t>
+  </si>
+  <si>
+    <t>452E1E6B-BAEE</t>
+  </si>
+  <si>
+    <t>4375F5C9-F1F1</t>
+  </si>
+  <si>
+    <t>g7dea804654ad767</t>
+  </si>
+  <si>
+    <t>gceb1ee4c99744be</t>
+  </si>
+  <si>
+    <t>g573492f561a9864</t>
+  </si>
+  <si>
+    <t>g1516e765133bacf</t>
+  </si>
+  <si>
+    <t>gd18b1e29440fdbb</t>
+  </si>
+  <si>
+    <t>g9921c4c3fdb335a</t>
+  </si>
+  <si>
+    <t>ga589eeed91867ce</t>
+  </si>
+  <si>
+    <t>g04f440182c9df03</t>
+  </si>
+  <si>
+    <t>ge58ea6d68e903c0</t>
+  </si>
+  <si>
+    <t>gf7f84fe9dd3dd21</t>
+  </si>
+  <si>
+    <t>ts_181</t>
+  </si>
+  <si>
+    <t>61FDB556-2F8B</t>
+  </si>
+  <si>
+    <t>ts_182</t>
+  </si>
+  <si>
+    <t>5E32CF3B-25F8</t>
+  </si>
+  <si>
+    <t>ts_183</t>
+  </si>
+  <si>
+    <t>5FF904B4-18B4</t>
+  </si>
+  <si>
+    <t>ts_184</t>
+  </si>
+  <si>
+    <t>ge1992633ecf1821</t>
+  </si>
+  <si>
+    <t>gf307d215ba987fb</t>
+  </si>
+  <si>
+    <t>ge14d695ebfc2010</t>
+  </si>
+  <si>
+    <t>gc32c767e4dcc33a</t>
+  </si>
+  <si>
+    <t>g84894b8ff030eaf</t>
+  </si>
+  <si>
+    <t>ts_190</t>
+  </si>
+  <si>
+    <t>8A753D9B-4625</t>
+  </si>
+  <si>
+    <t>ts_191</t>
+  </si>
+  <si>
+    <t>878AE0CF-7828</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5047,6 +5533,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF6A8759"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="7">
@@ -5137,7 +5629,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5173,12 +5665,29 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -8578,7 +9087,7 @@
   </sheetData>
   <autoFilter ref="A1:T174" xr:uid="{EA6ADFB5-32B1-4069-9C7A-FC2B8184F536}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T174">
-      <sortCondition sortBy="cellColor" ref="A1:A174" dxfId="0"/>
+      <sortCondition sortBy="cellColor" ref="A1:A174" dxfId="1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22497,14 +23006,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443A835E-F1F0-4776-BDA6-D04A58D518EA}">
-  <dimension ref="A1:S21"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:S193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H199" sqref="H199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22567,910 +23079,7311 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J2" t="s">
+        <v>407</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J3" t="s">
+        <v>407</v>
+      </c>
+      <c r="K3" t="s">
+        <v>411</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1658</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1660</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J6" t="s">
+        <v>407</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1640</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K7" t="s">
+        <v>411</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1658</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1660</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J10" t="s">
+        <v>407</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1640</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J11" t="s">
+        <v>407</v>
+      </c>
+      <c r="K11" t="s">
+        <v>411</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1658</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1660</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B14" t="s">
         <v>1610</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="C14" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G14" t="s">
         <v>1631</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H14" t="s">
         <v>393</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I14" t="s">
         <v>1580</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J14" t="s">
         <v>407</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K14" t="s">
         <v>1640</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="S14" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H15" t="s">
+        <v>393</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J15" t="s">
+        <v>407</v>
+      </c>
+      <c r="K15" t="s">
+        <v>411</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1632</v>
+      </c>
+      <c r="H16" t="s">
+        <v>394</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1658</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1632</v>
+      </c>
+      <c r="H17" t="s">
+        <v>394</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1660</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H18" t="s">
+        <v>395</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J18" t="s">
+        <v>407</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1640</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H19" t="s">
+        <v>395</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J19" t="s">
+        <v>407</v>
+      </c>
+      <c r="K19" t="s">
+        <v>411</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1634</v>
+      </c>
+      <c r="H20" t="s">
+        <v>396</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1658</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1634</v>
+      </c>
+      <c r="H21" t="s">
+        <v>396</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1660</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J22" t="s">
+        <v>407</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1673</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J23" t="s">
+        <v>407</v>
+      </c>
+      <c r="K23" t="s">
+        <v>1675</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K24" t="s">
+        <v>422</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K25" t="s">
+        <v>414</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K26" t="s">
+        <v>423</v>
+      </c>
+      <c r="S26" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K27" t="s">
+        <v>417</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B28" t="s">
         <v>1612</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="C28" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G28" t="s">
         <v>1629</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H28" t="s">
         <v>1638</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I28" t="s">
         <v>1581</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J28" t="s">
         <v>1639</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K28" t="s">
+        <v>1679</v>
+      </c>
+      <c r="S28" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>1654</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="E29" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K29" t="s">
+        <v>425</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J30" t="s">
+        <v>407</v>
+      </c>
+      <c r="K30" t="s">
+        <v>1682</v>
+      </c>
+      <c r="S30" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J31" t="s">
+        <v>407</v>
+      </c>
+      <c r="K31" t="s">
+        <v>1684</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J32" t="s">
+        <v>407</v>
+      </c>
+      <c r="K32" t="s">
+        <v>1641</v>
+      </c>
+      <c r="S32" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J33" t="s">
+        <v>407</v>
+      </c>
+      <c r="K33" t="s">
+        <v>1687</v>
+      </c>
+      <c r="S33" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J34" t="s">
+        <v>407</v>
+      </c>
+      <c r="K34" t="s">
+        <v>1689</v>
+      </c>
+      <c r="S34" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J35" t="s">
+        <v>407</v>
+      </c>
+      <c r="K35" t="s">
+        <v>1673</v>
+      </c>
+      <c r="S35" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J36" t="s">
+        <v>407</v>
+      </c>
+      <c r="K36" t="s">
+        <v>1675</v>
+      </c>
+      <c r="S36" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B37" t="s">
         <v>1611</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="C37" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G37" t="s">
         <v>1629</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H37" t="s">
         <v>1638</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I37" t="s">
         <v>1581</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J37" t="s">
         <v>1639</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K37" t="s">
         <v>422</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="S37" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K38" t="s">
+        <v>414</v>
+      </c>
+      <c r="S38" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K39" t="s">
+        <v>423</v>
+      </c>
+      <c r="S39" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K40" t="s">
+        <v>417</v>
+      </c>
+      <c r="S40" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B41" t="s">
         <v>1612</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="C41" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G41" t="s">
         <v>1629</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H41" t="s">
         <v>1638</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I41" t="s">
         <v>1581</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J41" t="s">
         <v>1639</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K41" t="s">
+        <v>1679</v>
+      </c>
+      <c r="S41" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>1654</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="E42" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J42" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K42" t="s">
+        <v>425</v>
+      </c>
+      <c r="S42" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H43" t="s">
+        <v>393</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J43" t="s">
+        <v>407</v>
+      </c>
+      <c r="K43" t="s">
+        <v>1682</v>
+      </c>
+      <c r="S43" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H44" t="s">
+        <v>393</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J44" t="s">
+        <v>407</v>
+      </c>
+      <c r="K44" t="s">
+        <v>1684</v>
+      </c>
+      <c r="S44" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H45" t="s">
+        <v>393</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J45" t="s">
+        <v>407</v>
+      </c>
+      <c r="K45" t="s">
+        <v>1641</v>
+      </c>
+      <c r="S45" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H46" t="s">
+        <v>393</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J46" t="s">
+        <v>407</v>
+      </c>
+      <c r="K46" t="s">
+        <v>1687</v>
+      </c>
+      <c r="S46" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H47" t="s">
+        <v>393</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J47" t="s">
+        <v>407</v>
+      </c>
+      <c r="K47" t="s">
+        <v>1689</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H48" t="s">
+        <v>393</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J48" t="s">
+        <v>407</v>
+      </c>
+      <c r="K48" t="s">
+        <v>1673</v>
+      </c>
+      <c r="S48" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H49" t="s">
+        <v>393</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J49" t="s">
+        <v>407</v>
+      </c>
+      <c r="K49" t="s">
+        <v>1675</v>
+      </c>
+      <c r="S49" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B50" s="21" t="s">
         <v>1613</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="C50" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G50" s="21" t="s">
         <v>1632</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H50" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I50" s="21" t="s">
         <v>1581</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J50" s="21" t="s">
         <v>1639</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K50" s="21" t="s">
         <v>422</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="S50" s="10" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1632</v>
+      </c>
+      <c r="H51" t="s">
+        <v>394</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K51" t="s">
+        <v>414</v>
+      </c>
+      <c r="S51" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1632</v>
+      </c>
+      <c r="H52" t="s">
+        <v>394</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J52" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K52" t="s">
+        <v>423</v>
+      </c>
+      <c r="S52" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1632</v>
+      </c>
+      <c r="H53" t="s">
+        <v>394</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J53" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K53" t="s">
+        <v>417</v>
+      </c>
+      <c r="S53" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B54" t="s">
         <v>1614</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="C54" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G54" t="s">
         <v>1632</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H54" t="s">
         <v>394</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I54" t="s">
         <v>1581</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J54" t="s">
         <v>1639</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K54" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="S54" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>1654</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="E55" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1632</v>
+      </c>
+      <c r="H55" t="s">
+        <v>394</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J55" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K55" t="s">
+        <v>425</v>
+      </c>
+      <c r="S55" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H56" t="s">
+        <v>395</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J56" t="s">
+        <v>407</v>
+      </c>
+      <c r="K56" t="s">
+        <v>1682</v>
+      </c>
+      <c r="S56" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H57" t="s">
+        <v>395</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J57" t="s">
+        <v>407</v>
+      </c>
+      <c r="K57" t="s">
+        <v>1684</v>
+      </c>
+      <c r="S57" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B58" t="s">
         <v>1615</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="C58" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G58" t="s">
         <v>1633</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H58" t="s">
         <v>395</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I58" t="s">
         <v>1581</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J58" t="s">
         <v>407</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K58" t="s">
         <v>1641</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="S58" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H59" t="s">
+        <v>395</v>
+      </c>
+      <c r="I59" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J59" t="s">
+        <v>407</v>
+      </c>
+      <c r="K59" t="s">
+        <v>1687</v>
+      </c>
+      <c r="S59" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H60" t="s">
+        <v>395</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J60" t="s">
+        <v>407</v>
+      </c>
+      <c r="K60" t="s">
+        <v>1689</v>
+      </c>
+      <c r="S60" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H61" t="s">
+        <v>395</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J61" t="s">
+        <v>407</v>
+      </c>
+      <c r="K61" t="s">
+        <v>1673</v>
+      </c>
+      <c r="S61" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H62" t="s">
+        <v>395</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J62" t="s">
+        <v>407</v>
+      </c>
+      <c r="K62" t="s">
+        <v>1675</v>
+      </c>
+      <c r="S62" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G63" s="21" t="s">
+        <v>1634</v>
+      </c>
+      <c r="H63" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="I63" s="21" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J63" s="21" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K63" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="S63" s="10" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1634</v>
+      </c>
+      <c r="H64" t="s">
+        <v>396</v>
+      </c>
+      <c r="I64" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J64" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K64" t="s">
+        <v>414</v>
+      </c>
+      <c r="S64" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1634</v>
+      </c>
+      <c r="H65" t="s">
+        <v>396</v>
+      </c>
+      <c r="I65" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J65" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K65" t="s">
+        <v>423</v>
+      </c>
+      <c r="S65" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1634</v>
+      </c>
+      <c r="H66" t="s">
+        <v>396</v>
+      </c>
+      <c r="I66" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J66" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K66" t="s">
+        <v>417</v>
+      </c>
+      <c r="S66" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B67" s="21" t="s">
         <v>1616</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="C67" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G67" s="21" t="s">
         <v>1634</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H67" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I67" s="21" t="s">
         <v>1581</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J67" s="21" t="s">
         <v>1639</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K67" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="S67" s="10" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>1654</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="E68" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1634</v>
+      </c>
+      <c r="H68" t="s">
+        <v>396</v>
+      </c>
+      <c r="I68" t="s">
+        <v>1581</v>
+      </c>
+      <c r="J68" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K68" t="s">
+        <v>425</v>
+      </c>
+      <c r="S68" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H69" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I69" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J69" t="s">
+        <v>407</v>
+      </c>
+      <c r="K69" t="s">
+        <v>1713</v>
+      </c>
+      <c r="S69" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H70" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I70" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J70" t="s">
+        <v>407</v>
+      </c>
+      <c r="K70" t="s">
+        <v>1715</v>
+      </c>
+      <c r="S70" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G71" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H71" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I71" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J71" t="s">
+        <v>407</v>
+      </c>
+      <c r="K71" t="s">
+        <v>1717</v>
+      </c>
+      <c r="S71" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H72" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I72" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J72" t="s">
+        <v>407</v>
+      </c>
+      <c r="K72" t="s">
+        <v>1713</v>
+      </c>
+      <c r="S72" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G73" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H73" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I73" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J73" t="s">
+        <v>407</v>
+      </c>
+      <c r="K73" t="s">
+        <v>1715</v>
+      </c>
+      <c r="S73" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>95</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G74" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H74" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I74" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J74" t="s">
+        <v>407</v>
+      </c>
+      <c r="K74" t="s">
+        <v>1717</v>
+      </c>
+      <c r="S74" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G75" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H75" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I75" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J75" t="s">
+        <v>407</v>
+      </c>
+      <c r="K75" t="s">
+        <v>1713</v>
+      </c>
+      <c r="S75" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H76" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I76" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J76" t="s">
+        <v>407</v>
+      </c>
+      <c r="K76" t="s">
+        <v>1715</v>
+      </c>
+      <c r="S76" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H77" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I77" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J77" t="s">
+        <v>407</v>
+      </c>
+      <c r="K77" t="s">
+        <v>1717</v>
+      </c>
+      <c r="S77" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G78" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H78" t="s">
+        <v>393</v>
+      </c>
+      <c r="I78" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J78" t="s">
+        <v>407</v>
+      </c>
+      <c r="K78" t="s">
+        <v>1713</v>
+      </c>
+      <c r="S78" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>100</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G79" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H79" t="s">
+        <v>393</v>
+      </c>
+      <c r="I79" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J79" t="s">
+        <v>407</v>
+      </c>
+      <c r="K79" t="s">
+        <v>1715</v>
+      </c>
+      <c r="S79" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>101</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H80" t="s">
+        <v>393</v>
+      </c>
+      <c r="I80" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J80" t="s">
+        <v>407</v>
+      </c>
+      <c r="K80" t="s">
+        <v>1717</v>
+      </c>
+      <c r="S80" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G81" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H81" t="s">
+        <v>395</v>
+      </c>
+      <c r="I81" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J81" t="s">
+        <v>407</v>
+      </c>
+      <c r="K81" t="s">
+        <v>1713</v>
+      </c>
+      <c r="S81" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G82" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H82" t="s">
+        <v>395</v>
+      </c>
+      <c r="I82" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J82" t="s">
+        <v>407</v>
+      </c>
+      <c r="K82" t="s">
+        <v>1715</v>
+      </c>
+      <c r="S82" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>104</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H83" t="s">
+        <v>395</v>
+      </c>
+      <c r="I83" t="s">
+        <v>1582</v>
+      </c>
+      <c r="J83" t="s">
+        <v>407</v>
+      </c>
+      <c r="K83" t="s">
+        <v>1717</v>
+      </c>
+      <c r="S83" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>105</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H84" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I84" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J84" t="s">
+        <v>407</v>
+      </c>
+      <c r="K84" t="s">
+        <v>1728</v>
+      </c>
+      <c r="S84" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>106</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G85" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H85" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I85" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J85" t="s">
+        <v>407</v>
+      </c>
+      <c r="K85" t="s">
+        <v>1730</v>
+      </c>
+      <c r="S85" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G86" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H86" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I86" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J86" t="s">
+        <v>407</v>
+      </c>
+      <c r="K86" t="s">
+        <v>1732</v>
+      </c>
+      <c r="S86" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>108</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H87" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I87" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J87" t="s">
+        <v>407</v>
+      </c>
+      <c r="K87" t="s">
+        <v>434</v>
+      </c>
+      <c r="S87" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>109</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G88" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H88" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I88" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J88" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K88" t="s">
+        <v>1735</v>
+      </c>
+      <c r="S88" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>110</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G89" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H89" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I89" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J89" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K89" t="s">
+        <v>1735</v>
+      </c>
+      <c r="S89" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B90" t="s">
         <v>1617</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="C90" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G90" t="s">
         <v>1629</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H90" t="s">
         <v>1636</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I90" t="s">
         <v>1583</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J90" t="s">
         <v>1639</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K90" t="s">
         <v>1642</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="S90" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>112</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G91" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H91" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I91" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J91" t="s">
+        <v>407</v>
+      </c>
+      <c r="K91" t="s">
+        <v>1728</v>
+      </c>
+      <c r="S91" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>113</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G92" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H92" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I92" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J92" t="s">
+        <v>407</v>
+      </c>
+      <c r="K92" t="s">
+        <v>1730</v>
+      </c>
+      <c r="S92" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>114</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G93" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H93" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I93" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J93" t="s">
+        <v>407</v>
+      </c>
+      <c r="K93" t="s">
+        <v>1732</v>
+      </c>
+      <c r="S93" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>115</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G94" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H94" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I94" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J94" t="s">
+        <v>407</v>
+      </c>
+      <c r="K94" t="s">
+        <v>434</v>
+      </c>
+      <c r="S94" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>116</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G95" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H95" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I95" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J95" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K95" t="s">
+        <v>1735</v>
+      </c>
+      <c r="S95" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>117</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G96" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I96" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J96" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K96" t="s">
+        <v>1735</v>
+      </c>
+      <c r="S96" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>118</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G97" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H97" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I97" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J97" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K97" t="s">
+        <v>1642</v>
+      </c>
+      <c r="S97" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>119</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G98" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H98" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I98" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J98" t="s">
+        <v>407</v>
+      </c>
+      <c r="K98" t="s">
+        <v>1728</v>
+      </c>
+      <c r="S98" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>120</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G99" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H99" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I99" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J99" t="s">
+        <v>407</v>
+      </c>
+      <c r="K99" t="s">
+        <v>1730</v>
+      </c>
+      <c r="S99" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>121</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H100" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I100" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J100" t="s">
+        <v>407</v>
+      </c>
+      <c r="K100" t="s">
+        <v>1732</v>
+      </c>
+      <c r="S100" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>122</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G101" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H101" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I101" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J101" t="s">
+        <v>407</v>
+      </c>
+      <c r="K101" t="s">
+        <v>434</v>
+      </c>
+      <c r="S101" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>123</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G102" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H102" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I102" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J102" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K102" t="s">
+        <v>1735</v>
+      </c>
+      <c r="S102" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>124</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C103" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G103" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H103" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I103" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J103" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K103" t="s">
+        <v>1735</v>
+      </c>
+      <c r="S103" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>125</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G104" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H104" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I104" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J104" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K104" t="s">
+        <v>1642</v>
+      </c>
+      <c r="S104" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>126</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G105" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H105" t="s">
+        <v>393</v>
+      </c>
+      <c r="I105" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J105" t="s">
+        <v>407</v>
+      </c>
+      <c r="K105" t="s">
+        <v>1728</v>
+      </c>
+      <c r="S105" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>127</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G106" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H106" t="s">
+        <v>393</v>
+      </c>
+      <c r="I106" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J106" t="s">
+        <v>407</v>
+      </c>
+      <c r="K106" t="s">
+        <v>1730</v>
+      </c>
+      <c r="S106" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>128</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G107" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H107" t="s">
+        <v>393</v>
+      </c>
+      <c r="I107" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J107" t="s">
+        <v>407</v>
+      </c>
+      <c r="K107" t="s">
+        <v>1732</v>
+      </c>
+      <c r="S107" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>129</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G108" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H108" t="s">
+        <v>393</v>
+      </c>
+      <c r="I108" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J108" t="s">
+        <v>407</v>
+      </c>
+      <c r="K108" t="s">
+        <v>434</v>
+      </c>
+      <c r="S108" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>130</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G109" t="s">
+        <v>1632</v>
+      </c>
+      <c r="H109" t="s">
+        <v>394</v>
+      </c>
+      <c r="I109" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J109" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K109" t="s">
+        <v>1735</v>
+      </c>
+      <c r="S109" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>131</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G110" t="s">
+        <v>1632</v>
+      </c>
+      <c r="H110" t="s">
+        <v>394</v>
+      </c>
+      <c r="I110" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J110" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K110" t="s">
+        <v>1735</v>
+      </c>
+      <c r="S110" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>132</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G111" t="s">
+        <v>1632</v>
+      </c>
+      <c r="H111" t="s">
+        <v>394</v>
+      </c>
+      <c r="I111" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J111" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K111" t="s">
+        <v>1642</v>
+      </c>
+      <c r="S111" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>133</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C112" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G112" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H112" t="s">
+        <v>395</v>
+      </c>
+      <c r="I112" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J112" t="s">
+        <v>407</v>
+      </c>
+      <c r="K112" t="s">
+        <v>1728</v>
+      </c>
+      <c r="S112" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>134</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G113" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H113" t="s">
+        <v>395</v>
+      </c>
+      <c r="I113" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J113" t="s">
+        <v>407</v>
+      </c>
+      <c r="K113" t="s">
+        <v>1730</v>
+      </c>
+      <c r="S113" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>135</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G114" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H114" t="s">
+        <v>395</v>
+      </c>
+      <c r="I114" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J114" t="s">
+        <v>407</v>
+      </c>
+      <c r="K114" t="s">
+        <v>1732</v>
+      </c>
+      <c r="S114" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>136</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G115" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H115" t="s">
+        <v>395</v>
+      </c>
+      <c r="I115" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J115" t="s">
+        <v>407</v>
+      </c>
+      <c r="K115" t="s">
+        <v>434</v>
+      </c>
+      <c r="S115" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>137</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G116" t="s">
+        <v>1634</v>
+      </c>
+      <c r="H116" t="s">
+        <v>396</v>
+      </c>
+      <c r="I116" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J116" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K116" t="s">
+        <v>1735</v>
+      </c>
+      <c r="S116" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>138</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G117" t="s">
+        <v>1634</v>
+      </c>
+      <c r="H117" t="s">
+        <v>396</v>
+      </c>
+      <c r="I117" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J117" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K117" t="s">
+        <v>1735</v>
+      </c>
+      <c r="S117" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>139</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G118" t="s">
+        <v>1634</v>
+      </c>
+      <c r="H118" t="s">
+        <v>396</v>
+      </c>
+      <c r="I118" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J118" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K118" t="s">
+        <v>1642</v>
+      </c>
+      <c r="S118" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>140</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G119" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H119" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I119" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J119" t="s">
+        <v>407</v>
+      </c>
+      <c r="K119" t="s">
+        <v>1755</v>
+      </c>
+      <c r="S119" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>141</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G120" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H120" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I120" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J120" t="s">
+        <v>407</v>
+      </c>
+      <c r="K120" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S120" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>142</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G121" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H121" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I121" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J121" t="s">
+        <v>407</v>
+      </c>
+      <c r="K121" t="s">
+        <v>1759</v>
+      </c>
+      <c r="S121" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>143</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G122" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H122" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I122" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J122" t="s">
+        <v>407</v>
+      </c>
+      <c r="K122" t="s">
+        <v>1761</v>
+      </c>
+      <c r="S122" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>144</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G123" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H123" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I123" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J123" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K123" t="s">
+        <v>440</v>
+      </c>
+      <c r="S123" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>145</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C124" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G124" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H124" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I124" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J124" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K124" t="s">
+        <v>441</v>
+      </c>
+      <c r="S124" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>146</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G125" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H125" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I125" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J125" t="s">
+        <v>407</v>
+      </c>
+      <c r="K125" t="s">
+        <v>1755</v>
+      </c>
+      <c r="S125" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>147</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G126" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H126" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I126" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J126" t="s">
+        <v>407</v>
+      </c>
+      <c r="K126" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S126" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>148</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C127" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G127" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H127" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I127" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J127" t="s">
+        <v>407</v>
+      </c>
+      <c r="K127" t="s">
+        <v>1759</v>
+      </c>
+      <c r="S127" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>149</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C128" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G128" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H128" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I128" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J128" t="s">
+        <v>407</v>
+      </c>
+      <c r="K128" t="s">
+        <v>1761</v>
+      </c>
+      <c r="S128" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>150</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C129" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G129" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H129" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I129" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J129" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K129" t="s">
+        <v>440</v>
+      </c>
+      <c r="S129" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>151</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C130" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G130" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H130" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I130" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J130" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K130" t="s">
+        <v>441</v>
+      </c>
+      <c r="S130" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>152</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C131" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G131" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H131" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I131" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J131" t="s">
+        <v>407</v>
+      </c>
+      <c r="K131" t="s">
+        <v>1755</v>
+      </c>
+      <c r="S131" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>153</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C132" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G132" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H132" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I132" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J132" t="s">
+        <v>407</v>
+      </c>
+      <c r="K132" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S132" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>154</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C133" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G133" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H133" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I133" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J133" t="s">
+        <v>407</v>
+      </c>
+      <c r="K133" t="s">
+        <v>1759</v>
+      </c>
+      <c r="S133" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>155</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C134" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G134" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H134" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I134" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J134" t="s">
+        <v>407</v>
+      </c>
+      <c r="K134" t="s">
+        <v>1761</v>
+      </c>
+      <c r="S134" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>156</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C135" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G135" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H135" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I135" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J135" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K135" t="s">
+        <v>440</v>
+      </c>
+      <c r="S135" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>157</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C136" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F136" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G136" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H136" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I136" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J136" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K136" t="s">
+        <v>441</v>
+      </c>
+      <c r="S136" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>158</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C137" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G137" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H137" t="s">
+        <v>393</v>
+      </c>
+      <c r="I137" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J137" t="s">
+        <v>407</v>
+      </c>
+      <c r="K137" t="s">
+        <v>1755</v>
+      </c>
+      <c r="S137" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>159</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C138" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G138" t="s">
+        <v>1772</v>
+      </c>
+      <c r="H138" t="s">
+        <v>393</v>
+      </c>
+      <c r="I138" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J138" t="s">
+        <v>407</v>
+      </c>
+      <c r="K138" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S138" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>160</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C139" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G139" t="s">
+        <v>1772</v>
+      </c>
+      <c r="H139" t="s">
+        <v>393</v>
+      </c>
+      <c r="I139" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J139" t="s">
+        <v>407</v>
+      </c>
+      <c r="K139" t="s">
+        <v>1759</v>
+      </c>
+      <c r="S139" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>161</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C140" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F140" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G140" t="s">
+        <v>1772</v>
+      </c>
+      <c r="H140" t="s">
+        <v>393</v>
+      </c>
+      <c r="I140" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J140" t="s">
+        <v>407</v>
+      </c>
+      <c r="K140" t="s">
+        <v>1761</v>
+      </c>
+      <c r="S140" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B141" s="21" t="s">
         <v>1618</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="C141" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F141" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G141" s="21" t="s">
         <v>1632</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H141" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I141" s="21" t="s">
         <v>1584</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J141" s="21" t="s">
         <v>1639</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K141" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="S141" s="10" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>163</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C142" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F142" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G142" t="s">
+        <v>1632</v>
+      </c>
+      <c r="H142" t="s">
+        <v>394</v>
+      </c>
+      <c r="I142" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J142" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K142" t="s">
+        <v>441</v>
+      </c>
+      <c r="S142" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>164</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C143" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G143" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H143" t="s">
+        <v>395</v>
+      </c>
+      <c r="I143" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J143" t="s">
+        <v>407</v>
+      </c>
+      <c r="K143" t="s">
+        <v>1755</v>
+      </c>
+      <c r="S143" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>165</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C144" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F144" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G144" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H144" t="s">
+        <v>395</v>
+      </c>
+      <c r="I144" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J144" t="s">
+        <v>407</v>
+      </c>
+      <c r="K144" t="s">
+        <v>1757</v>
+      </c>
+      <c r="S144" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>166</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C145" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G145" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H145" t="s">
+        <v>395</v>
+      </c>
+      <c r="I145" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J145" t="s">
+        <v>407</v>
+      </c>
+      <c r="K145" t="s">
+        <v>1759</v>
+      </c>
+      <c r="S145" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>167</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C146" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G146" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H146" t="s">
+        <v>395</v>
+      </c>
+      <c r="I146" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J146" t="s">
+        <v>407</v>
+      </c>
+      <c r="K146" t="s">
+        <v>1761</v>
+      </c>
+      <c r="S146" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>168</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C147" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G147" t="s">
+        <v>1634</v>
+      </c>
+      <c r="H147" t="s">
+        <v>396</v>
+      </c>
+      <c r="I147" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J147" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K147" t="s">
+        <v>440</v>
+      </c>
+      <c r="S147" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>169</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C148" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F148" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G148" t="s">
+        <v>1634</v>
+      </c>
+      <c r="H148" t="s">
+        <v>396</v>
+      </c>
+      <c r="I148" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J148" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K148" t="s">
+        <v>441</v>
+      </c>
+      <c r="S148" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>170</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C149" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F149" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G149" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H149" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I149" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J149" t="s">
+        <v>407</v>
+      </c>
+      <c r="K149" t="s">
+        <v>449</v>
+      </c>
+      <c r="S149" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>171</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1783</v>
+      </c>
+      <c r="C150" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F150" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G150" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H150" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I150" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J150" t="s">
+        <v>407</v>
+      </c>
+      <c r="K150" t="s">
+        <v>1784</v>
+      </c>
+      <c r="S150" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>172</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C151" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F151" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G151" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H151" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I151" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J151" t="s">
+        <v>407</v>
+      </c>
+      <c r="K151" t="s">
+        <v>1786</v>
+      </c>
+      <c r="S151" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>173</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C152" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F152" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G152" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H152" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I152" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J152" t="s">
+        <v>407</v>
+      </c>
+      <c r="K152" t="s">
+        <v>444</v>
+      </c>
+      <c r="S152" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>174</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C153" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F153" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G153" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H153" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I153" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J153" t="s">
+        <v>407</v>
+      </c>
+      <c r="K153" t="s">
+        <v>443</v>
+      </c>
+      <c r="S153" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>175</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B154" t="s">
         <v>1619</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="C154" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F154" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G154" t="s">
         <v>1628</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H154" t="s">
         <v>1635</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I154" t="s">
         <v>1585</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J154" t="s">
         <v>407</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K154" t="s">
         <v>1643</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="S154" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>176</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C155" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F155" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G155" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H155" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I155" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J155" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K155" t="s">
+        <v>446</v>
+      </c>
+      <c r="S155" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>177</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C156" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F156" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G156" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H156" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I156" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J156" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K156" t="s">
+        <v>445</v>
+      </c>
+      <c r="S156" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>178</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B157" t="s">
         <v>1620</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="C157" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F157" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G157" t="s">
         <v>1629</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H157" t="s">
         <v>1636</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I157" t="s">
         <v>1585</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J157" t="s">
         <v>1639</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K157" t="s">
         <v>448</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="S157" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>179</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C158" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F158" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G158" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H158" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I158" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J158" t="s">
+        <v>407</v>
+      </c>
+      <c r="K158" t="s">
+        <v>449</v>
+      </c>
+      <c r="S158" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>180</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C159" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F159" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G159" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H159" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I159" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J159" t="s">
+        <v>407</v>
+      </c>
+      <c r="K159" t="s">
+        <v>1784</v>
+      </c>
+      <c r="S159" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>181</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C160" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G160" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H160" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I160" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J160" t="s">
+        <v>407</v>
+      </c>
+      <c r="K160" t="s">
+        <v>1786</v>
+      </c>
+      <c r="S160" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>182</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C161" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F161" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G161" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H161" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I161" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J161" t="s">
+        <v>407</v>
+      </c>
+      <c r="K161" t="s">
+        <v>444</v>
+      </c>
+      <c r="S161" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>183</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C162" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F162" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G162" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H162" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I162" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J162" t="s">
+        <v>407</v>
+      </c>
+      <c r="K162" t="s">
+        <v>443</v>
+      </c>
+      <c r="S162" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>184</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B163" t="s">
         <v>1621</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="C163" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F163" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G163" t="s">
         <v>1630</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H163" t="s">
         <v>1637</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I163" t="s">
         <v>1585</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J163" t="s">
         <v>407</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K163" t="s">
         <v>1643</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="S163" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B164" t="s">
         <v>1622</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="C164" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F164" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G164" t="s">
         <v>1629</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H164" t="s">
         <v>1638</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I164" t="s">
         <v>1585</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J164" t="s">
         <v>1639</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K164" t="s">
         <v>446</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="S164" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>186</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B165" t="s">
         <v>1623</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="C165" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F165" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G165" t="s">
         <v>1629</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H165" t="s">
         <v>1638</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I165" t="s">
         <v>1585</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J165" t="s">
         <v>1639</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K165" t="s">
         <v>445</v>
       </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="S165" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>187</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B166" t="s">
         <v>1624</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="C166" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F166" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G166" t="s">
         <v>1629</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H166" t="s">
         <v>1638</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I166" t="s">
         <v>1585</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J166" t="s">
         <v>1639</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K166" t="s">
         <v>448</v>
       </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="S166" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>188</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C167" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F167" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G167" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H167" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I167" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J167" t="s">
+        <v>407</v>
+      </c>
+      <c r="K167" t="s">
+        <v>449</v>
+      </c>
+      <c r="S167" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>189</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C168" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F168" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G168" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H168" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I168" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J168" t="s">
+        <v>407</v>
+      </c>
+      <c r="K168" t="s">
+        <v>1784</v>
+      </c>
+      <c r="S168" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>190</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1793</v>
+      </c>
+      <c r="C169" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F169" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G169" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H169" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I169" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J169" t="s">
+        <v>407</v>
+      </c>
+      <c r="K169" t="s">
+        <v>1786</v>
+      </c>
+      <c r="S169" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>191</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C170" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F170" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G170" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H170" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I170" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J170" t="s">
+        <v>407</v>
+      </c>
+      <c r="K170" t="s">
+        <v>444</v>
+      </c>
+      <c r="S170" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>192</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C171" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F171" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G171" t="s">
+        <v>1630</v>
+      </c>
+      <c r="H171" t="s">
+        <v>1637</v>
+      </c>
+      <c r="I171" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J171" t="s">
+        <v>407</v>
+      </c>
+      <c r="K171" t="s">
+        <v>443</v>
+      </c>
+      <c r="S171" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>193</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B172" t="s">
         <v>1621</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="C172" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F172" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G172" t="s">
         <v>1630</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H172" t="s">
         <v>1637</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I172" t="s">
         <v>1585</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J172" t="s">
         <v>407</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K172" t="s">
         <v>1643</v>
       </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="S172" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B173" s="21" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C173" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="D173" s="10" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E173" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F173" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G173" s="21" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H173" s="21" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I173" s="21" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J173" s="21" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K173" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="S173" s="10" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>195</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C174" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F174" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G174" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H174" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I174" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J174" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S174" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>196</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C175" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F175" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G175" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H175" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I175" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J175" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K175" t="s">
+        <v>448</v>
+      </c>
+      <c r="S175" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>197</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C176" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F176" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G176" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H176" t="s">
+        <v>393</v>
+      </c>
+      <c r="I176" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J176" t="s">
+        <v>407</v>
+      </c>
+      <c r="K176" t="s">
+        <v>449</v>
+      </c>
+      <c r="S176" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>198</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C177" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F177" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G177" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H177" t="s">
+        <v>393</v>
+      </c>
+      <c r="I177" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J177" t="s">
+        <v>407</v>
+      </c>
+      <c r="K177" t="s">
+        <v>1784</v>
+      </c>
+      <c r="S177" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C178" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F178" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G178" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H178" t="s">
+        <v>393</v>
+      </c>
+      <c r="I178" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J178" t="s">
+        <v>407</v>
+      </c>
+      <c r="K178" t="s">
+        <v>1786</v>
+      </c>
+      <c r="S178" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C179" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F179" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G179" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H179" t="s">
+        <v>393</v>
+      </c>
+      <c r="I179" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J179" t="s">
+        <v>407</v>
+      </c>
+      <c r="K179" t="s">
+        <v>444</v>
+      </c>
+      <c r="S179" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C180" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F180" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G180" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H180" t="s">
+        <v>393</v>
+      </c>
+      <c r="I180" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J180" t="s">
+        <v>407</v>
+      </c>
+      <c r="K180" t="s">
+        <v>443</v>
+      </c>
+      <c r="S180" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>1647</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B181" t="s">
         <v>1625</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="C181" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F181" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G181" t="s">
         <v>1631</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H181" t="s">
         <v>393</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I181" t="s">
         <v>1585</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J181" t="s">
         <v>407</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K181" t="s">
         <v>1643</v>
       </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="S181" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C182" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F182" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G182" t="s">
+        <v>1632</v>
+      </c>
+      <c r="H182" t="s">
+        <v>394</v>
+      </c>
+      <c r="I182" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J182" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K182" t="s">
+        <v>446</v>
+      </c>
+      <c r="S182" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C183" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F183" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G183" t="s">
+        <v>1632</v>
+      </c>
+      <c r="H183" t="s">
+        <v>394</v>
+      </c>
+      <c r="I183" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J183" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K183" t="s">
+        <v>445</v>
+      </c>
+      <c r="S183" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C184" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E184" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F184" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G184" t="s">
+        <v>1632</v>
+      </c>
+      <c r="H184" t="s">
+        <v>394</v>
+      </c>
+      <c r="I184" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J184" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K184" t="s">
+        <v>448</v>
+      </c>
+      <c r="S184" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C185" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F185" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G185" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H185" t="s">
+        <v>395</v>
+      </c>
+      <c r="I185" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J185" t="s">
+        <v>407</v>
+      </c>
+      <c r="K185" t="s">
+        <v>449</v>
+      </c>
+      <c r="S185" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C186" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E186" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F186" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G186" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H186" t="s">
+        <v>395</v>
+      </c>
+      <c r="I186" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J186" t="s">
+        <v>407</v>
+      </c>
+      <c r="K186" t="s">
+        <v>1784</v>
+      </c>
+      <c r="S186" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C187" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F187" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G187" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H187" t="s">
+        <v>395</v>
+      </c>
+      <c r="I187" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J187" t="s">
+        <v>407</v>
+      </c>
+      <c r="K187" t="s">
+        <v>1786</v>
+      </c>
+      <c r="S187" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C188" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E188" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F188" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G188" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H188" t="s">
+        <v>395</v>
+      </c>
+      <c r="I188" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J188" t="s">
+        <v>407</v>
+      </c>
+      <c r="K188" t="s">
+        <v>444</v>
+      </c>
+      <c r="S188" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C189" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E189" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F189" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G189" t="s">
+        <v>1633</v>
+      </c>
+      <c r="H189" t="s">
+        <v>395</v>
+      </c>
+      <c r="I189" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J189" t="s">
+        <v>407</v>
+      </c>
+      <c r="K189" t="s">
+        <v>443</v>
+      </c>
+      <c r="S189" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>1652</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B190" t="s">
         <v>1626</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="C190" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F190" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G190" t="s">
         <v>1633</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H190" t="s">
         <v>395</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I190" t="s">
         <v>1585</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J190" t="s">
         <v>407</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K190" t="s">
         <v>1643</v>
       </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7" t="s">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="S190" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C191" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E191" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F191" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G191" t="s">
+        <v>1634</v>
+      </c>
+      <c r="H191" t="s">
+        <v>396</v>
+      </c>
+      <c r="I191" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J191" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K191" t="s">
+        <v>446</v>
+      </c>
+      <c r="S191" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C192" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F192" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G192" t="s">
+        <v>1634</v>
+      </c>
+      <c r="H192" t="s">
+        <v>396</v>
+      </c>
+      <c r="I192" t="s">
+        <v>1585</v>
+      </c>
+      <c r="J192" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K192" t="s">
+        <v>445</v>
+      </c>
+      <c r="S192" s="7" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>1653</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B193" t="s">
         <v>1627</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="C193" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F193" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G193" t="s">
         <v>1634</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H193" t="s">
         <v>396</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I193" t="s">
         <v>1585</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J193" t="s">
         <v>1639</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K193" t="s">
         <v>448</v>
       </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7" t="s">
+      <c r="S193" s="7" t="s">
         <v>1505</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T21" xr:uid="{BF3BB9DA-B3B0-41E6-8B8B-15C9970B6465}"/>
+  <autoFilter ref="A1:T193" xr:uid="{BF3BB9DA-B3B0-41E6-8B8B-15C9970B6465}">
+    <filterColumn colId="5">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
